--- a/BackTest/2019-10-28 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-28 BackTest ZEC.xlsx
@@ -766,17 +766,13 @@
         <v>44590</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>44960</v>
-      </c>
-      <c r="K11" t="n">
-        <v>44960</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -805,22 +801,14 @@
         <v>44780</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>44930</v>
-      </c>
-      <c r="K12" t="n">
-        <v>44960</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -854,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>44960</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -1029,20 +1011,14 @@
         <v>44183.33333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>44500</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1070,20 +1046,14 @@
         <v>44176.66666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>44150</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1118,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1150,20 +1116,14 @@
         <v>44160</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>44160</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1191,20 +1151,14 @@
         <v>44206.66666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>44900</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1232,20 +1186,14 @@
         <v>44360</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>44610</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1273,20 +1221,14 @@
         <v>44556.66666666666</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>44750</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1320,14 +1262,12 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>44740</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>44750</v>
+      </c>
+      <c r="K25" t="n">
+        <v>44750</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1361,12 +1301,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>44730</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+        <v>44740</v>
+      </c>
+      <c r="K26" t="n">
+        <v>44750</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1396,15 +1338,15 @@
         <v>44760</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>44790</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>44750</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1437,13 +1379,17 @@
         <v>44830</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>44800</v>
+      </c>
+      <c r="K28" t="n">
+        <v>44750</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1476,13 +1422,17 @@
         <v>44753.33333333334</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>44950</v>
+      </c>
+      <c r="K29" t="n">
+        <v>44750</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1515,13 +1465,17 @@
         <v>44593.33333333334</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>44510</v>
+      </c>
+      <c r="K30" t="n">
+        <v>44750</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1554,15 +1508,15 @@
         <v>44383.33333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>44320</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>44750</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1601,9 +1555,11 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>44890</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>44320</v>
+      </c>
+      <c r="K32" t="n">
+        <v>44750</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1642,9 +1598,11 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>45310</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>44950</v>
+      </c>
+      <c r="K33" t="n">
+        <v>44750</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1683,9 +1641,11 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>44530</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>45400</v>
+      </c>
+      <c r="K34" t="n">
+        <v>44750</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1724,7 +1684,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>44750</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1757,15 +1719,15 @@
         <v>45040</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>45270</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>44750</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1804,7 +1766,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>44750</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1843,7 +1807,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>44750</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1882,7 +1848,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>44750</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1921,7 +1889,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>44750</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1960,7 +1930,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>44750</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1999,7 +1971,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>44750</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2038,7 +2012,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>44750</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2077,7 +2053,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>44750</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2116,7 +2094,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>44750</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2155,7 +2135,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>44750</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2194,7 +2176,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>44750</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2233,7 +2217,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>44750</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,15 +2252,15 @@
         <v>44260</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>44260</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>44750</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2307,15 +2293,15 @@
         <v>44146.66666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>43940</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>44750</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2348,15 +2334,15 @@
         <v>44176.66666666666</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>44350</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>44750</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2389,15 +2375,15 @@
         <v>44040</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>43930</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>44750</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2430,15 +2416,15 @@
         <v>44030</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>43890</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>44750</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,15 +2457,15 @@
         <v>43863.33333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>44750</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,15 +2498,15 @@
         <v>43863.33333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>44750</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2553,15 +2539,15 @@
         <v>44180</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>44500</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>44750</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2594,15 +2580,15 @@
         <v>44546.66666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>44950</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>44750</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2635,15 +2621,15 @@
         <v>44913.33333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>44950</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>44750</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2676,15 +2662,15 @@
         <v>45076.66666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>44950</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>44750</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,15 +2703,15 @@
         <v>45170</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>45230</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>44750</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2758,15 +2744,15 @@
         <v>45133.33333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>44840</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>44750</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2799,15 +2785,15 @@
         <v>45110</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>45260</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>44750</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2840,15 +2826,15 @@
         <v>45003.33333333334</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>44910</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>44750</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2887,7 +2873,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>44750</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2926,7 +2914,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>44750</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2965,7 +2955,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>44750</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,7 +2996,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>44750</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,7 +3037,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>44750</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3082,7 +3078,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>44750</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,7 +3119,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>44750</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3160,7 +3160,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>44750</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3199,7 +3201,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>44750</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,7 +3242,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>44750</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,7 +3283,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>44750</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,7 +3324,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>44750</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,7 +3365,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>44750</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,7 +3406,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>44750</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,7 +3447,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>44750</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,7 +3488,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>44750</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,7 +3529,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>44750</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,7 +3570,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>44750</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,7 +3611,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>44750</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,7 +3652,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>44750</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,7 +3693,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>44750</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,7 +3734,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>44750</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,7 +3775,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>44750</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,7 +3816,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>44750</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,7 +3857,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>44750</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,7 +3898,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>44750</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,7 +3939,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>44750</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,7 +3980,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>44750</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,7 +4021,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>44750</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,7 +4062,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>44750</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,7 +4103,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>44750</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4093,16 +4141,20 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>44750</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4130,11 +4182,17 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>44750</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4165,11 +4223,17 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>44750</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4200,11 +4264,17 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>44750</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4235,11 +4305,17 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>44750</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4273,8 +4349,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>44750</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4305,13 +4387,19 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>44750</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>1.071424581005587</v>
       </c>
     </row>
     <row r="102">
@@ -4340,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4375,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4410,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -5495,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-28 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>44930</v>
+        <v>44960</v>
       </c>
       <c r="C2" t="n">
-        <v>44930</v>
+        <v>45010</v>
       </c>
       <c r="D2" t="n">
-        <v>44930</v>
+        <v>45010</v>
       </c>
       <c r="E2" t="n">
-        <v>44930</v>
+        <v>44960</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8218</v>
+        <v>9.825200000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>44973.33333333334</v>
+        <v>44777.66666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>45070</v>
+        <v>44930</v>
       </c>
       <c r="C3" t="n">
-        <v>45040</v>
+        <v>44930</v>
       </c>
       <c r="D3" t="n">
-        <v>45070</v>
+        <v>44930</v>
       </c>
       <c r="E3" t="n">
-        <v>45040</v>
+        <v>44930</v>
       </c>
       <c r="F3" t="n">
         <v>0.8218</v>
       </c>
       <c r="G3" t="n">
-        <v>44993.33333333334</v>
+        <v>44784.83333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45030</v>
+        <v>45070</v>
       </c>
       <c r="C4" t="n">
         <v>45040</v>
       </c>
       <c r="D4" t="n">
+        <v>45070</v>
+      </c>
+      <c r="E4" t="n">
         <v>45040</v>
       </c>
-      <c r="E4" t="n">
-        <v>45030</v>
-      </c>
       <c r="F4" t="n">
-        <v>5.4186</v>
+        <v>0.8218</v>
       </c>
       <c r="G4" t="n">
-        <v>45003.33333333334</v>
+        <v>44788.83333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45130</v>
+        <v>45030</v>
       </c>
       <c r="C5" t="n">
         <v>45040</v>
       </c>
       <c r="D5" t="n">
-        <v>45140</v>
+        <v>45040</v>
       </c>
       <c r="E5" t="n">
-        <v>45040</v>
+        <v>45030</v>
       </c>
       <c r="F5" t="n">
-        <v>5.6639</v>
+        <v>5.4186</v>
       </c>
       <c r="G5" t="n">
-        <v>45040</v>
+        <v>44798.16666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44900</v>
+        <v>45130</v>
       </c>
       <c r="C6" t="n">
-        <v>44900</v>
+        <v>45040</v>
       </c>
       <c r="D6" t="n">
-        <v>44900</v>
+        <v>45140</v>
       </c>
       <c r="E6" t="n">
-        <v>44900</v>
+        <v>45040</v>
       </c>
       <c r="F6" t="n">
-        <v>3.5401</v>
+        <v>5.6639</v>
       </c>
       <c r="G6" t="n">
-        <v>44993.33333333334</v>
+        <v>44802.16666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44790</v>
+        <v>44900</v>
       </c>
       <c r="C7" t="n">
-        <v>44790</v>
+        <v>44900</v>
       </c>
       <c r="D7" t="n">
-        <v>44790</v>
+        <v>44900</v>
       </c>
       <c r="E7" t="n">
-        <v>44790</v>
+        <v>44900</v>
       </c>
       <c r="F7" t="n">
-        <v>1.899</v>
+        <v>3.5401</v>
       </c>
       <c r="G7" t="n">
-        <v>44910</v>
+        <v>44805.66666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44450</v>
+        <v>44790</v>
       </c>
       <c r="C8" t="n">
-        <v>44450</v>
+        <v>44790</v>
       </c>
       <c r="D8" t="n">
-        <v>44450</v>
+        <v>44790</v>
       </c>
       <c r="E8" t="n">
-        <v>44450</v>
+        <v>44790</v>
       </c>
       <c r="F8" t="n">
-        <v>0.43</v>
+        <v>1.899</v>
       </c>
       <c r="G8" t="n">
-        <v>44713.33333333334</v>
+        <v>44804.66666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44360</v>
+        <v>44450</v>
       </c>
       <c r="C9" t="n">
-        <v>44360</v>
+        <v>44450</v>
       </c>
       <c r="D9" t="n">
-        <v>44360</v>
+        <v>44450</v>
       </c>
       <c r="E9" t="n">
-        <v>44360</v>
+        <v>44450</v>
       </c>
       <c r="F9" t="n">
-        <v>2.4692</v>
+        <v>0.43</v>
       </c>
       <c r="G9" t="n">
-        <v>44533.33333333334</v>
+        <v>44796.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44450</v>
+        <v>44360</v>
       </c>
       <c r="C10" t="n">
-        <v>44450</v>
+        <v>44360</v>
       </c>
       <c r="D10" t="n">
-        <v>44450</v>
+        <v>44360</v>
       </c>
       <c r="E10" t="n">
-        <v>44450</v>
+        <v>44360</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1975</v>
+        <v>2.4692</v>
       </c>
       <c r="G10" t="n">
-        <v>44420</v>
+        <v>44786.33333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44960</v>
+        <v>44450</v>
       </c>
       <c r="C11" t="n">
-        <v>44960</v>
+        <v>44450</v>
       </c>
       <c r="D11" t="n">
-        <v>44960</v>
+        <v>44450</v>
       </c>
       <c r="E11" t="n">
-        <v>44960</v>
+        <v>44450</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0.1975</v>
       </c>
       <c r="G11" t="n">
-        <v>44590</v>
+        <v>44775.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44930</v>
+        <v>44960</v>
       </c>
       <c r="C12" t="n">
-        <v>44930</v>
+        <v>44960</v>
       </c>
       <c r="D12" t="n">
-        <v>44930</v>
+        <v>44960</v>
       </c>
       <c r="E12" t="n">
-        <v>44930</v>
+        <v>44960</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1975</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>44780</v>
+        <v>44772</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44920</v>
+        <v>44930</v>
       </c>
       <c r="C13" t="n">
-        <v>44920</v>
+        <v>44930</v>
       </c>
       <c r="D13" t="n">
-        <v>44920</v>
+        <v>44930</v>
       </c>
       <c r="E13" t="n">
-        <v>44920</v>
+        <v>44930</v>
       </c>
       <c r="F13" t="n">
-        <v>37.8495</v>
+        <v>0.1975</v>
       </c>
       <c r="G13" t="n">
-        <v>44936.66666666666</v>
+        <v>44770.16666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>44920</v>
       </c>
       <c r="F14" t="n">
-        <v>4.5859</v>
+        <v>37.8495</v>
       </c>
       <c r="G14" t="n">
-        <v>44923.33333333334</v>
+        <v>44768.16666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44910</v>
+        <v>44920</v>
       </c>
       <c r="C15" t="n">
-        <v>44910</v>
+        <v>44920</v>
       </c>
       <c r="D15" t="n">
-        <v>44910</v>
+        <v>44920</v>
       </c>
       <c r="E15" t="n">
-        <v>44910</v>
+        <v>44920</v>
       </c>
       <c r="F15" t="n">
-        <v>7.08</v>
+        <v>4.5859</v>
       </c>
       <c r="G15" t="n">
-        <v>44916.66666666666</v>
+        <v>44763.83333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44180</v>
+        <v>44910</v>
       </c>
       <c r="C16" t="n">
-        <v>44180</v>
+        <v>44910</v>
       </c>
       <c r="D16" t="n">
-        <v>44180</v>
+        <v>44910</v>
       </c>
       <c r="E16" t="n">
-        <v>44180</v>
+        <v>44910</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1</v>
+        <v>7.08</v>
       </c>
       <c r="G16" t="n">
-        <v>44670</v>
+        <v>44762.33333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>44210</v>
+        <v>44180</v>
       </c>
       <c r="C17" t="n">
-        <v>44210</v>
+        <v>44180</v>
       </c>
       <c r="D17" t="n">
-        <v>44210</v>
+        <v>44180</v>
       </c>
       <c r="E17" t="n">
-        <v>44210</v>
+        <v>44180</v>
       </c>
       <c r="F17" t="n">
-        <v>1.6271</v>
+        <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>44433.33333333334</v>
+        <v>44748.33333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,31 +993,35 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>44500</v>
+        <v>44210</v>
       </c>
       <c r="C18" t="n">
-        <v>44160</v>
+        <v>44210</v>
       </c>
       <c r="D18" t="n">
-        <v>44500</v>
+        <v>44210</v>
       </c>
       <c r="E18" t="n">
-        <v>44160</v>
+        <v>44210</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>1.6271</v>
       </c>
       <c r="G18" t="n">
-        <v>44183.33333333334</v>
+        <v>44728</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>44180</v>
+      </c>
+      <c r="K18" t="n">
+        <v>44180</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1028,32 +1032,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44150</v>
+        <v>44500</v>
       </c>
       <c r="C19" t="n">
         <v>44160</v>
       </c>
       <c r="D19" t="n">
+        <v>44500</v>
+      </c>
+      <c r="E19" t="n">
         <v>44160</v>
       </c>
-      <c r="E19" t="n">
-        <v>44150</v>
-      </c>
       <c r="F19" t="n">
-        <v>0.85</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>44176.66666666666</v>
+        <v>44711.16666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>44210</v>
+      </c>
+      <c r="K19" t="n">
+        <v>44180</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44160</v>
+        <v>44150</v>
       </c>
       <c r="C20" t="n">
         <v>44160</v>
@@ -1072,23 +1084,31 @@
         <v>44160</v>
       </c>
       <c r="E20" t="n">
+        <v>44150</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G20" t="n">
+        <v>44696.33333333334</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>44160</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.9536</v>
-      </c>
-      <c r="G20" t="n">
-        <v>44160</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>44180</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1110,10 +1130,10 @@
         <v>44160</v>
       </c>
       <c r="F21" t="n">
-        <v>5.5755</v>
+        <v>0.9536</v>
       </c>
       <c r="G21" t="n">
-        <v>44160</v>
+        <v>44681.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1142,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>44180</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,32 +1159,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44900</v>
+        <v>44160</v>
       </c>
       <c r="C22" t="n">
-        <v>44300</v>
+        <v>44160</v>
       </c>
       <c r="D22" t="n">
-        <v>44900</v>
+        <v>44160</v>
       </c>
       <c r="E22" t="n">
-        <v>44300</v>
+        <v>44160</v>
       </c>
       <c r="F22" t="n">
-        <v>10.85</v>
+        <v>5.5755</v>
       </c>
       <c r="G22" t="n">
-        <v>44206.66666666666</v>
+        <v>44666.66666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>44160</v>
+      </c>
+      <c r="K22" t="n">
+        <v>44180</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,32 +1202,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>44610</v>
+        <v>44900</v>
       </c>
       <c r="C23" t="n">
-        <v>44620</v>
+        <v>44300</v>
       </c>
       <c r="D23" t="n">
-        <v>44620</v>
+        <v>44900</v>
       </c>
       <c r="E23" t="n">
-        <v>44610</v>
+        <v>44300</v>
       </c>
       <c r="F23" t="n">
-        <v>17.0408</v>
+        <v>10.85</v>
       </c>
       <c r="G23" t="n">
-        <v>44360</v>
+        <v>44657.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>44160</v>
+      </c>
+      <c r="K23" t="n">
+        <v>44180</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,32 +1245,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44750</v>
+        <v>44610</v>
       </c>
       <c r="C24" t="n">
-        <v>44750</v>
+        <v>44620</v>
       </c>
       <c r="D24" t="n">
-        <v>44750</v>
+        <v>44620</v>
       </c>
       <c r="E24" t="n">
-        <v>44750</v>
+        <v>44610</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1</v>
+        <v>17.0408</v>
       </c>
       <c r="G24" t="n">
-        <v>44556.66666666666</v>
+        <v>44660.5</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>44300</v>
+      </c>
+      <c r="K24" t="n">
+        <v>44180</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,36 +1288,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="C25" t="n">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="D25" t="n">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="E25" t="n">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="F25" t="n">
-        <v>10.8418</v>
+        <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>44703.33333333334</v>
+        <v>44665.66666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>44750</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
+        <v>44180</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1277,7 +1329,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44730</v>
+        <v>44740</v>
       </c>
       <c r="C26" t="n">
         <v>44740</v>
@@ -1286,13 +1338,13 @@
         <v>44740</v>
       </c>
       <c r="E26" t="n">
-        <v>44730</v>
+        <v>44740</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>10.8418</v>
       </c>
       <c r="G26" t="n">
-        <v>44743.33333333334</v>
+        <v>44670.66666666666</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1301,14 +1353,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="K26" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1320,22 +1372,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44790</v>
+        <v>44730</v>
       </c>
       <c r="C27" t="n">
-        <v>44800</v>
+        <v>44740</v>
       </c>
       <c r="D27" t="n">
-        <v>44800</v>
+        <v>44740</v>
       </c>
       <c r="E27" t="n">
-        <v>44790</v>
+        <v>44730</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>44760</v>
+        <v>44682.33333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1345,7 +1397,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1361,22 +1413,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>44880</v>
+        <v>44790</v>
       </c>
       <c r="C28" t="n">
-        <v>44950</v>
+        <v>44800</v>
       </c>
       <c r="D28" t="n">
-        <v>44950</v>
+        <v>44800</v>
       </c>
       <c r="E28" t="n">
-        <v>44880</v>
+        <v>44790</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>44830</v>
+        <v>44695.33333333334</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1385,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>44800</v>
+        <v>44740</v>
       </c>
       <c r="K28" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1404,34 +1456,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>44510</v>
+        <v>44880</v>
       </c>
       <c r="C29" t="n">
-        <v>44510</v>
+        <v>44950</v>
       </c>
       <c r="D29" t="n">
-        <v>44510</v>
+        <v>44950</v>
       </c>
       <c r="E29" t="n">
-        <v>44510</v>
+        <v>44880</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G29" t="n">
-        <v>44753.33333333334</v>
+        <v>44711</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>44950</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1447,34 +1497,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>44320</v>
+        <v>44510</v>
       </c>
       <c r="C30" t="n">
-        <v>44320</v>
+        <v>44510</v>
       </c>
       <c r="D30" t="n">
-        <v>44320</v>
+        <v>44510</v>
       </c>
       <c r="E30" t="n">
-        <v>44320</v>
+        <v>44510</v>
       </c>
       <c r="F30" t="n">
-        <v>3.316</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>44593.33333333334</v>
+        <v>44717.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>44510</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1502,10 +1550,10 @@
         <v>44320</v>
       </c>
       <c r="F31" t="n">
-        <v>2.003</v>
+        <v>3.316</v>
       </c>
       <c r="G31" t="n">
-        <v>44383.33333333334</v>
+        <v>44722.33333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1515,7 +1563,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1531,34 +1579,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>44890</v>
+        <v>44320</v>
       </c>
       <c r="C32" t="n">
-        <v>44950</v>
+        <v>44320</v>
       </c>
       <c r="D32" t="n">
-        <v>44950</v>
+        <v>44320</v>
       </c>
       <c r="E32" t="n">
-        <v>44890</v>
+        <v>44320</v>
       </c>
       <c r="F32" t="n">
-        <v>7.363</v>
+        <v>2.003</v>
       </c>
       <c r="G32" t="n">
-        <v>44530</v>
+        <v>44728.16666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>44320</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1574,22 +1620,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>45310</v>
+        <v>44890</v>
       </c>
       <c r="C33" t="n">
-        <v>45400</v>
+        <v>44950</v>
       </c>
       <c r="D33" t="n">
-        <v>45400</v>
+        <v>44950</v>
       </c>
       <c r="E33" t="n">
-        <v>45310</v>
+        <v>44890</v>
       </c>
       <c r="F33" t="n">
-        <v>20.259</v>
+        <v>7.363</v>
       </c>
       <c r="G33" t="n">
-        <v>44890</v>
+        <v>44744.83333333334</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1598,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>44950</v>
+        <v>44320</v>
       </c>
       <c r="K33" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1617,34 +1663,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>44530</v>
+        <v>45310</v>
       </c>
       <c r="C34" t="n">
-        <v>44530</v>
+        <v>45400</v>
       </c>
       <c r="D34" t="n">
-        <v>44530</v>
+        <v>45400</v>
       </c>
       <c r="E34" t="n">
-        <v>44530</v>
+        <v>45310</v>
       </c>
       <c r="F34" t="n">
-        <v>0.924</v>
+        <v>20.259</v>
       </c>
       <c r="G34" t="n">
-        <v>44960</v>
+        <v>44770.16666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>45400</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1660,22 +1704,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>45290</v>
+        <v>44530</v>
       </c>
       <c r="C35" t="n">
-        <v>45290</v>
+        <v>44530</v>
       </c>
       <c r="D35" t="n">
-        <v>45290</v>
+        <v>44530</v>
       </c>
       <c r="E35" t="n">
-        <v>45290</v>
+        <v>44530</v>
       </c>
       <c r="F35" t="n">
-        <v>0.24031795</v>
+        <v>0.924</v>
       </c>
       <c r="G35" t="n">
-        <v>45073.33333333334</v>
+        <v>44783.33333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1685,7 +1729,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1701,22 +1745,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>45270</v>
+        <v>45290</v>
       </c>
       <c r="C36" t="n">
-        <v>45300</v>
+        <v>45290</v>
       </c>
       <c r="D36" t="n">
-        <v>45300</v>
+        <v>45290</v>
       </c>
       <c r="E36" t="n">
-        <v>45270</v>
+        <v>45290</v>
       </c>
       <c r="F36" t="n">
-        <v>53.4761</v>
+        <v>0.24031795</v>
       </c>
       <c r="G36" t="n">
-        <v>45040</v>
+        <v>44804.83333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1726,7 +1770,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1742,7 +1786,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>45300</v>
+        <v>45270</v>
       </c>
       <c r="C37" t="n">
         <v>45300</v>
@@ -1751,13 +1795,13 @@
         <v>45300</v>
       </c>
       <c r="E37" t="n">
-        <v>45300</v>
+        <v>45270</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2407</v>
+        <v>53.4761</v>
       </c>
       <c r="G37" t="n">
-        <v>45296.66666666666</v>
+        <v>44823</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1767,7 +1811,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1795,10 +1839,10 @@
         <v>45300</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0.2407</v>
       </c>
       <c r="G38" t="n">
-        <v>45300</v>
+        <v>44839.16666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1808,7 +1852,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1824,22 +1868,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>45400</v>
+        <v>45300</v>
       </c>
       <c r="C39" t="n">
-        <v>45400</v>
+        <v>45300</v>
       </c>
       <c r="D39" t="n">
-        <v>45400</v>
+        <v>45300</v>
       </c>
       <c r="E39" t="n">
-        <v>45400</v>
+        <v>45300</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>45333.33333333334</v>
+        <v>44860.33333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1849,7 +1893,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1865,22 +1909,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="C40" t="n">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="D40" t="n">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="E40" t="n">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="F40" t="n">
-        <v>164.4437</v>
+        <v>0.01</v>
       </c>
       <c r="G40" t="n">
-        <v>45333.33333333334</v>
+        <v>44884.66666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1890,7 +1934,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1906,22 +1950,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>45390</v>
+        <v>45300</v>
       </c>
       <c r="C41" t="n">
-        <v>45400</v>
+        <v>45300</v>
       </c>
       <c r="D41" t="n">
-        <v>45400</v>
+        <v>45300</v>
       </c>
       <c r="E41" t="n">
-        <v>45390</v>
+        <v>45300</v>
       </c>
       <c r="F41" t="n">
-        <v>7.3427</v>
+        <v>164.4437</v>
       </c>
       <c r="G41" t="n">
-        <v>45366.66666666666</v>
+        <v>44898.33333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1931,7 +1975,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1959,10 +2003,10 @@
         <v>45390</v>
       </c>
       <c r="F42" t="n">
-        <v>26.5</v>
+        <v>7.3427</v>
       </c>
       <c r="G42" t="n">
-        <v>45366.66666666666</v>
+        <v>44903.33333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1972,7 +2016,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1988,22 +2032,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>44550</v>
+        <v>45390</v>
       </c>
       <c r="C43" t="n">
-        <v>44550</v>
+        <v>45400</v>
       </c>
       <c r="D43" t="n">
-        <v>44550</v>
+        <v>45400</v>
       </c>
       <c r="E43" t="n">
-        <v>44550</v>
+        <v>45390</v>
       </c>
       <c r="F43" t="n">
-        <v>0.55</v>
+        <v>26.5</v>
       </c>
       <c r="G43" t="n">
-        <v>45116.66666666666</v>
+        <v>44914.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2013,7 +2057,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2032,19 +2076,19 @@
         <v>44550</v>
       </c>
       <c r="C44" t="n">
-        <v>44000</v>
+        <v>44550</v>
       </c>
       <c r="D44" t="n">
         <v>44550</v>
       </c>
       <c r="E44" t="n">
-        <v>44000</v>
+        <v>44550</v>
       </c>
       <c r="F44" t="n">
-        <v>80.015</v>
+        <v>0.55</v>
       </c>
       <c r="G44" t="n">
-        <v>44650</v>
+        <v>44910.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2054,7 +2098,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2070,22 +2114,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>44100</v>
+        <v>44550</v>
       </c>
       <c r="C45" t="n">
-        <v>44100</v>
+        <v>44000</v>
       </c>
       <c r="D45" t="n">
-        <v>44100</v>
+        <v>44550</v>
       </c>
       <c r="E45" t="n">
-        <v>44100</v>
+        <v>44000</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>80.015</v>
       </c>
       <c r="G45" t="n">
-        <v>44216.66666666666</v>
+        <v>44896.66666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2095,7 +2139,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2114,19 +2158,19 @@
         <v>44100</v>
       </c>
       <c r="C46" t="n">
-        <v>43920</v>
+        <v>44100</v>
       </c>
       <c r="D46" t="n">
         <v>44100</v>
       </c>
       <c r="E46" t="n">
-        <v>43920</v>
+        <v>44100</v>
       </c>
       <c r="F46" t="n">
-        <v>14.4749</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>44006.66666666666</v>
+        <v>44876.16666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2136,7 +2180,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2152,22 +2196,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44260</v>
+        <v>44100</v>
       </c>
       <c r="C47" t="n">
-        <v>44260</v>
+        <v>43920</v>
       </c>
       <c r="D47" t="n">
-        <v>44260</v>
+        <v>44100</v>
       </c>
       <c r="E47" t="n">
-        <v>44260</v>
+        <v>43920</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>14.4749</v>
       </c>
       <c r="G47" t="n">
-        <v>44093.33333333334</v>
+        <v>44856.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2177,7 +2221,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2205,10 +2249,10 @@
         <v>44260</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>44146.66666666666</v>
+        <v>44838.33333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2218,7 +2262,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2249,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>44260</v>
+        <v>44820.16666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2259,7 +2303,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2275,22 +2319,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>43940</v>
+        <v>44260</v>
       </c>
       <c r="C50" t="n">
-        <v>43920</v>
+        <v>44260</v>
       </c>
       <c r="D50" t="n">
-        <v>43940</v>
+        <v>44260</v>
       </c>
       <c r="E50" t="n">
-        <v>43920</v>
+        <v>44260</v>
       </c>
       <c r="F50" t="n">
-        <v>21.2382</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>44146.66666666666</v>
+        <v>44804.16666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2300,7 +2344,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2316,22 +2360,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>44350</v>
+        <v>43940</v>
       </c>
       <c r="C51" t="n">
-        <v>44350</v>
+        <v>43920</v>
       </c>
       <c r="D51" t="n">
-        <v>44350</v>
+        <v>43940</v>
       </c>
       <c r="E51" t="n">
-        <v>44350</v>
+        <v>43920</v>
       </c>
       <c r="F51" t="n">
-        <v>9.6</v>
+        <v>21.2382</v>
       </c>
       <c r="G51" t="n">
-        <v>44176.66666666666</v>
+        <v>44778.83333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2341,7 +2385,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2357,22 +2401,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>43930</v>
+        <v>44350</v>
       </c>
       <c r="C52" t="n">
-        <v>43850</v>
+        <v>44350</v>
       </c>
       <c r="D52" t="n">
-        <v>43930</v>
+        <v>44350</v>
       </c>
       <c r="E52" t="n">
-        <v>43850</v>
+        <v>44350</v>
       </c>
       <c r="F52" t="n">
-        <v>7.4197</v>
+        <v>9.6</v>
       </c>
       <c r="G52" t="n">
-        <v>44040</v>
+        <v>44759.83333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2382,7 +2426,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2398,22 +2442,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>43890</v>
+        <v>43930</v>
       </c>
       <c r="C53" t="n">
-        <v>43890</v>
+        <v>43850</v>
       </c>
       <c r="D53" t="n">
-        <v>43890</v>
+        <v>43930</v>
       </c>
       <c r="E53" t="n">
-        <v>43890</v>
+        <v>43850</v>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>7.4197</v>
       </c>
       <c r="G53" t="n">
-        <v>44030</v>
+        <v>44732.33333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2423,7 +2467,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2439,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>43850</v>
+        <v>43890</v>
       </c>
       <c r="C54" t="n">
-        <v>43850</v>
+        <v>43890</v>
       </c>
       <c r="D54" t="n">
-        <v>43850</v>
+        <v>43890</v>
       </c>
       <c r="E54" t="n">
-        <v>43850</v>
+        <v>43890</v>
       </c>
       <c r="F54" t="n">
-        <v>1.7926</v>
+        <v>7</v>
       </c>
       <c r="G54" t="n">
-        <v>43863.33333333334</v>
+        <v>44705.66666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2464,7 +2508,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2492,10 +2536,10 @@
         <v>43850</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2408</v>
+        <v>1.7926</v>
       </c>
       <c r="G55" t="n">
-        <v>43863.33333333334</v>
+        <v>44679.33333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2505,7 +2549,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2521,22 +2565,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>44500</v>
+        <v>43850</v>
       </c>
       <c r="C56" t="n">
-        <v>44840</v>
+        <v>43850</v>
       </c>
       <c r="D56" t="n">
-        <v>44840</v>
+        <v>43850</v>
       </c>
       <c r="E56" t="n">
-        <v>44500</v>
+        <v>43850</v>
       </c>
       <c r="F56" t="n">
-        <v>25</v>
+        <v>0.2408</v>
       </c>
       <c r="G56" t="n">
-        <v>44180</v>
+        <v>44655</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2546,7 +2590,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2562,32 +2606,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>44950</v>
+        <v>44500</v>
       </c>
       <c r="C57" t="n">
-        <v>44950</v>
+        <v>44840</v>
       </c>
       <c r="D57" t="n">
-        <v>44950</v>
+        <v>44840</v>
       </c>
       <c r="E57" t="n">
-        <v>44950</v>
+        <v>44500</v>
       </c>
       <c r="F57" t="n">
-        <v>0.43</v>
+        <v>25</v>
       </c>
       <c r="G57" t="n">
-        <v>44546.66666666666</v>
+        <v>44651.5</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>43850</v>
+      </c>
       <c r="K57" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2615,20 +2661,22 @@
         <v>44950</v>
       </c>
       <c r="F58" t="n">
-        <v>1.875</v>
+        <v>0.43</v>
       </c>
       <c r="G58" t="n">
-        <v>44913.33333333334</v>
+        <v>44650.83333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>44840</v>
+      </c>
       <c r="K58" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2647,19 +2695,19 @@
         <v>44950</v>
       </c>
       <c r="C59" t="n">
-        <v>45330</v>
+        <v>44950</v>
       </c>
       <c r="D59" t="n">
-        <v>45340</v>
+        <v>44950</v>
       </c>
       <c r="E59" t="n">
-        <v>44790</v>
+        <v>44950</v>
       </c>
       <c r="F59" t="n">
-        <v>4.4178</v>
+        <v>1.875</v>
       </c>
       <c r="G59" t="n">
-        <v>45076.66666666666</v>
+        <v>44650.16666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2669,7 +2717,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2685,22 +2733,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>45230</v>
+        <v>44950</v>
       </c>
       <c r="C60" t="n">
-        <v>45230</v>
+        <v>45330</v>
       </c>
       <c r="D60" t="n">
-        <v>45230</v>
+        <v>45340</v>
       </c>
       <c r="E60" t="n">
-        <v>45230</v>
+        <v>44790</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5349</v>
+        <v>4.4178</v>
       </c>
       <c r="G60" t="n">
-        <v>45170</v>
+        <v>44656.83333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2710,7 +2758,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2726,22 +2774,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>44840</v>
+        <v>45230</v>
       </c>
       <c r="C61" t="n">
-        <v>44840</v>
+        <v>45230</v>
       </c>
       <c r="D61" t="n">
-        <v>44840</v>
+        <v>45230</v>
       </c>
       <c r="E61" t="n">
-        <v>44840</v>
+        <v>45230</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1</v>
+        <v>0.5349</v>
       </c>
       <c r="G61" t="n">
-        <v>45133.33333333334</v>
+        <v>44661</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2751,7 +2799,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2767,22 +2815,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>45260</v>
+        <v>44840</v>
       </c>
       <c r="C62" t="n">
-        <v>45260</v>
+        <v>44840</v>
       </c>
       <c r="D62" t="n">
-        <v>45260</v>
+        <v>44840</v>
       </c>
       <c r="E62" t="n">
-        <v>45260</v>
+        <v>44840</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G62" t="n">
-        <v>45110</v>
+        <v>44658.16666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2792,7 +2840,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2808,22 +2856,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>44910</v>
+        <v>45260</v>
       </c>
       <c r="C63" t="n">
-        <v>44910</v>
+        <v>45260</v>
       </c>
       <c r="D63" t="n">
-        <v>44910</v>
+        <v>45260</v>
       </c>
       <c r="E63" t="n">
-        <v>44910</v>
+        <v>45260</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G63" t="n">
-        <v>45003.33333333334</v>
+        <v>44663.66666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2833,7 +2881,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2861,10 +2909,10 @@
         <v>44910</v>
       </c>
       <c r="F64" t="n">
-        <v>9.3752</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>45026.66666666666</v>
+        <v>44661.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2874,7 +2922,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2890,22 +2938,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>44970</v>
+        <v>44910</v>
       </c>
       <c r="C65" t="n">
-        <v>44970</v>
+        <v>44910</v>
       </c>
       <c r="D65" t="n">
-        <v>44970</v>
+        <v>44910</v>
       </c>
       <c r="E65" t="n">
-        <v>44970</v>
+        <v>44910</v>
       </c>
       <c r="F65" t="n">
-        <v>13</v>
+        <v>9.3752</v>
       </c>
       <c r="G65" t="n">
-        <v>44930</v>
+        <v>44659.33333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2915,7 +2963,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2931,22 +2979,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>45110</v>
+        <v>44970</v>
       </c>
       <c r="C66" t="n">
-        <v>45110</v>
+        <v>44970</v>
       </c>
       <c r="D66" t="n">
-        <v>45110</v>
+        <v>44970</v>
       </c>
       <c r="E66" t="n">
-        <v>45110</v>
+        <v>44970</v>
       </c>
       <c r="F66" t="n">
-        <v>9.333600000000001</v>
+        <v>13</v>
       </c>
       <c r="G66" t="n">
-        <v>44996.66666666666</v>
+        <v>44658.16666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2956,7 +3004,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2972,22 +3020,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>45170</v>
+        <v>45110</v>
       </c>
       <c r="C67" t="n">
-        <v>45170</v>
+        <v>45110</v>
       </c>
       <c r="D67" t="n">
-        <v>45170</v>
+        <v>45110</v>
       </c>
       <c r="E67" t="n">
-        <v>45170</v>
+        <v>45110</v>
       </c>
       <c r="F67" t="n">
-        <v>4.4277</v>
+        <v>9.333600000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>45083.33333333334</v>
+        <v>44661.66666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2997,7 +3045,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3025,10 +3073,10 @@
         <v>45170</v>
       </c>
       <c r="F68" t="n">
-        <v>23.1291</v>
+        <v>4.4277</v>
       </c>
       <c r="G68" t="n">
-        <v>45150</v>
+        <v>44668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3038,7 +3086,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3054,22 +3102,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>45230</v>
+        <v>45170</v>
       </c>
       <c r="C69" t="n">
-        <v>45350</v>
+        <v>45170</v>
       </c>
       <c r="D69" t="n">
-        <v>45350</v>
+        <v>45170</v>
       </c>
       <c r="E69" t="n">
-        <v>45230</v>
+        <v>45170</v>
       </c>
       <c r="F69" t="n">
-        <v>8.588200000000001</v>
+        <v>23.1291</v>
       </c>
       <c r="G69" t="n">
-        <v>45230</v>
+        <v>44680</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3079,7 +3127,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3095,7 +3143,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>45350</v>
+        <v>45230</v>
       </c>
       <c r="C70" t="n">
         <v>45350</v>
@@ -3104,13 +3152,13 @@
         <v>45350</v>
       </c>
       <c r="E70" t="n">
-        <v>45350</v>
+        <v>45230</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1393</v>
+        <v>8.588200000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>45290</v>
+        <v>44696.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3120,7 +3168,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3148,10 +3196,10 @@
         <v>45350</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>0.1393</v>
       </c>
       <c r="G71" t="n">
-        <v>45350</v>
+        <v>44711.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3161,7 +3209,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3180,19 +3228,19 @@
         <v>45350</v>
       </c>
       <c r="C72" t="n">
-        <v>45400</v>
+        <v>45350</v>
       </c>
       <c r="D72" t="n">
-        <v>45400</v>
+        <v>45350</v>
       </c>
       <c r="E72" t="n">
         <v>45350</v>
       </c>
       <c r="F72" t="n">
-        <v>36.4052</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>45366.66666666666</v>
+        <v>44718</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3202,7 +3250,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3218,22 +3266,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>45770</v>
+        <v>45350</v>
       </c>
       <c r="C73" t="n">
-        <v>46040</v>
+        <v>45400</v>
       </c>
       <c r="D73" t="n">
-        <v>46040</v>
+        <v>45400</v>
       </c>
       <c r="E73" t="n">
-        <v>45770</v>
+        <v>45350</v>
       </c>
       <c r="F73" t="n">
-        <v>24.9425</v>
+        <v>36.4052</v>
       </c>
       <c r="G73" t="n">
-        <v>45596.66666666666</v>
+        <v>44725.83333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3243,7 +3291,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3259,40 +3307,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>45830</v>
+        <v>45770</v>
       </c>
       <c r="C74" t="n">
-        <v>45820</v>
+        <v>46040</v>
       </c>
       <c r="D74" t="n">
-        <v>46240</v>
+        <v>46040</v>
       </c>
       <c r="E74" t="n">
-        <v>45820</v>
+        <v>45770</v>
       </c>
       <c r="F74" t="n">
-        <v>2.01</v>
+        <v>24.9425</v>
       </c>
       <c r="G74" t="n">
-        <v>45753.33333333334</v>
+        <v>44744.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>44750</v>
+        <v>44180</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>1.037100497962879</v>
       </c>
     </row>
     <row r="75">
@@ -3300,22 +3348,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>46060</v>
+        <v>45830</v>
       </c>
       <c r="C75" t="n">
-        <v>46060</v>
+        <v>45820</v>
       </c>
       <c r="D75" t="n">
-        <v>46060</v>
+        <v>46240</v>
       </c>
       <c r="E75" t="n">
-        <v>46060</v>
+        <v>45820</v>
       </c>
       <c r="F75" t="n">
-        <v>0.01</v>
+        <v>2.01</v>
       </c>
       <c r="G75" t="n">
-        <v>45973.33333333334</v>
+        <v>44759.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3324,14 +3372,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3353,26 +3395,20 @@
         <v>46060</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="G76" t="n">
-        <v>45980</v>
+        <v>44778.66666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3382,22 +3418,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>46040</v>
+        <v>46060</v>
       </c>
       <c r="C77" t="n">
-        <v>46040</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="n">
-        <v>46040</v>
+        <v>46060</v>
       </c>
       <c r="E77" t="n">
-        <v>46040</v>
+        <v>46060</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>46053.33333333334</v>
+        <v>44810</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3406,14 +3442,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3423,22 +3453,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>45950</v>
+        <v>46040</v>
       </c>
       <c r="C78" t="n">
-        <v>45950</v>
+        <v>46040</v>
       </c>
       <c r="D78" t="n">
-        <v>45950</v>
+        <v>46040</v>
       </c>
       <c r="E78" t="n">
-        <v>45950</v>
+        <v>46040</v>
       </c>
       <c r="F78" t="n">
-        <v>1.23</v>
+        <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>46016.66666666666</v>
+        <v>44840.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3447,14 +3477,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3464,22 +3488,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>45870</v>
+        <v>45950</v>
       </c>
       <c r="C79" t="n">
-        <v>46100</v>
+        <v>45950</v>
       </c>
       <c r="D79" t="n">
-        <v>46100</v>
+        <v>45950</v>
       </c>
       <c r="E79" t="n">
-        <v>45860</v>
+        <v>45950</v>
       </c>
       <c r="F79" t="n">
-        <v>21.7755</v>
+        <v>1.23</v>
       </c>
       <c r="G79" t="n">
-        <v>46030</v>
+        <v>44870.33333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3488,14 +3512,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3505,22 +3523,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>45870</v>
+      </c>
+      <c r="C80" t="n">
         <v>46100</v>
-      </c>
-      <c r="C80" t="n">
-        <v>45350</v>
       </c>
       <c r="D80" t="n">
         <v>46100</v>
       </c>
       <c r="E80" t="n">
-        <v>45350</v>
+        <v>45860</v>
       </c>
       <c r="F80" t="n">
-        <v>24.0563</v>
+        <v>21.7755</v>
       </c>
       <c r="G80" t="n">
-        <v>45800</v>
+        <v>44902.66666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3529,14 +3547,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3546,22 +3558,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>46160</v>
+        <v>46100</v>
       </c>
       <c r="C81" t="n">
-        <v>46160</v>
+        <v>45350</v>
       </c>
       <c r="D81" t="n">
-        <v>46160</v>
+        <v>46100</v>
       </c>
       <c r="E81" t="n">
-        <v>46160</v>
+        <v>45350</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01</v>
+        <v>24.0563</v>
       </c>
       <c r="G81" t="n">
-        <v>45870</v>
+        <v>44922.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3570,14 +3582,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3587,22 +3593,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>45120</v>
+        <v>46160</v>
       </c>
       <c r="C82" t="n">
-        <v>45120</v>
+        <v>46160</v>
       </c>
       <c r="D82" t="n">
-        <v>45120</v>
+        <v>46160</v>
       </c>
       <c r="E82" t="n">
-        <v>45120</v>
+        <v>46160</v>
       </c>
       <c r="F82" t="n">
-        <v>1.27</v>
+        <v>0.01</v>
       </c>
       <c r="G82" t="n">
-        <v>45543.33333333334</v>
+        <v>44955.83333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3611,14 +3617,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3628,22 +3628,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>45100</v>
+        <v>45120</v>
       </c>
       <c r="C83" t="n">
-        <v>45100</v>
+        <v>45120</v>
       </c>
       <c r="D83" t="n">
-        <v>45100</v>
+        <v>45120</v>
       </c>
       <c r="E83" t="n">
-        <v>45100</v>
+        <v>45120</v>
       </c>
       <c r="F83" t="n">
-        <v>0.885</v>
+        <v>1.27</v>
       </c>
       <c r="G83" t="n">
-        <v>45460</v>
+        <v>44969.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3652,14 +3652,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3669,22 +3663,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>45850</v>
+        <v>45100</v>
       </c>
       <c r="C84" t="n">
-        <v>45110</v>
+        <v>45100</v>
       </c>
       <c r="D84" t="n">
-        <v>45850</v>
+        <v>45100</v>
       </c>
       <c r="E84" t="n">
-        <v>45110</v>
+        <v>45100</v>
       </c>
       <c r="F84" t="n">
-        <v>1.9313</v>
+        <v>0.885</v>
       </c>
       <c r="G84" t="n">
-        <v>45110</v>
+        <v>44977.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3693,14 +3687,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3710,22 +3698,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>45220</v>
+        <v>45850</v>
       </c>
       <c r="C85" t="n">
-        <v>45220</v>
+        <v>45110</v>
       </c>
       <c r="D85" t="n">
-        <v>45220</v>
+        <v>45850</v>
       </c>
       <c r="E85" t="n">
-        <v>45220</v>
+        <v>45110</v>
       </c>
       <c r="F85" t="n">
-        <v>1.0509</v>
+        <v>1.9313</v>
       </c>
       <c r="G85" t="n">
-        <v>45143.33333333334</v>
+        <v>44983.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3734,14 +3722,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3751,22 +3733,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>46010</v>
+        <v>45220</v>
       </c>
       <c r="C86" t="n">
-        <v>46150</v>
+        <v>45220</v>
       </c>
       <c r="D86" t="n">
-        <v>46150</v>
+        <v>45220</v>
       </c>
       <c r="E86" t="n">
-        <v>45950</v>
+        <v>45220</v>
       </c>
       <c r="F86" t="n">
-        <v>57.3808</v>
+        <v>1.0509</v>
       </c>
       <c r="G86" t="n">
-        <v>45493.33333333334</v>
+        <v>44991.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3775,14 +3757,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3792,22 +3768,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C87" t="n">
         <v>46150</v>
       </c>
-      <c r="C87" t="n">
-        <v>46160</v>
-      </c>
       <c r="D87" t="n">
-        <v>46160</v>
+        <v>46150</v>
       </c>
       <c r="E87" t="n">
-        <v>46150</v>
+        <v>45950</v>
       </c>
       <c r="F87" t="n">
-        <v>89.01819999999999</v>
+        <v>57.3808</v>
       </c>
       <c r="G87" t="n">
-        <v>45843.33333333334</v>
+        <v>45015</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3816,14 +3792,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3833,22 +3803,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>46170</v>
+        <v>46150</v>
       </c>
       <c r="C88" t="n">
         <v>46160</v>
       </c>
       <c r="D88" t="n">
-        <v>46170</v>
+        <v>46160</v>
       </c>
       <c r="E88" t="n">
-        <v>46160</v>
+        <v>46150</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>89.01819999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>46156.66666666666</v>
+        <v>45037.66666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3857,14 +3827,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3874,22 +3838,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>46400</v>
+        <v>46170</v>
       </c>
       <c r="C89" t="n">
-        <v>46400</v>
+        <v>46160</v>
       </c>
       <c r="D89" t="n">
-        <v>46400</v>
+        <v>46170</v>
       </c>
       <c r="E89" t="n">
-        <v>46400</v>
+        <v>46160</v>
       </c>
       <c r="F89" t="n">
-        <v>1.0197</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>46240</v>
+        <v>45057.83333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3898,14 +3862,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3927,10 +3885,10 @@
         <v>46400</v>
       </c>
       <c r="F90" t="n">
-        <v>2.5103</v>
+        <v>1.0197</v>
       </c>
       <c r="G90" t="n">
-        <v>46320</v>
+        <v>45089.33333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3939,14 +3897,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3956,22 +3908,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>46820</v>
+        <v>46400</v>
       </c>
       <c r="C91" t="n">
-        <v>46820</v>
+        <v>46400</v>
       </c>
       <c r="D91" t="n">
-        <v>46820</v>
+        <v>46400</v>
       </c>
       <c r="E91" t="n">
-        <v>46820</v>
+        <v>46400</v>
       </c>
       <c r="F91" t="n">
-        <v>14.6467</v>
+        <v>2.5103</v>
       </c>
       <c r="G91" t="n">
-        <v>46540</v>
+        <v>45124</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3980,14 +3932,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3997,22 +3943,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>46890</v>
+        <v>46820</v>
       </c>
       <c r="C92" t="n">
-        <v>46900</v>
+        <v>46820</v>
       </c>
       <c r="D92" t="n">
-        <v>46900</v>
+        <v>46820</v>
       </c>
       <c r="E92" t="n">
-        <v>46890</v>
+        <v>46820</v>
       </c>
       <c r="F92" t="n">
-        <v>68.35446708000001</v>
+        <v>14.6467</v>
       </c>
       <c r="G92" t="n">
-        <v>46706.66666666666</v>
+        <v>45165.66666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4021,14 +3967,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +3978,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>47000</v>
+        <v>46890</v>
       </c>
       <c r="C93" t="n">
-        <v>47100</v>
+        <v>46900</v>
       </c>
       <c r="D93" t="n">
-        <v>47100</v>
+        <v>46900</v>
       </c>
       <c r="E93" t="n">
-        <v>47000</v>
+        <v>46890</v>
       </c>
       <c r="F93" t="n">
-        <v>18.9074</v>
+        <v>68.35446708000001</v>
       </c>
       <c r="G93" t="n">
-        <v>46940</v>
+        <v>45198.16666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4062,14 +4002,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4079,22 +4013,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>47000</v>
+      </c>
+      <c r="C94" t="n">
         <v>47100</v>
-      </c>
-      <c r="C94" t="n">
-        <v>47030</v>
       </c>
       <c r="D94" t="n">
         <v>47100</v>
       </c>
       <c r="E94" t="n">
-        <v>47030</v>
+        <v>47000</v>
       </c>
       <c r="F94" t="n">
-        <v>20.2057</v>
+        <v>18.9074</v>
       </c>
       <c r="G94" t="n">
-        <v>47010</v>
+        <v>45226.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4103,14 +4037,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4120,22 +4048,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>47030</v>
+        <v>47100</v>
       </c>
       <c r="C95" t="n">
         <v>47030</v>
       </c>
       <c r="D95" t="n">
-        <v>47030</v>
+        <v>47100</v>
       </c>
       <c r="E95" t="n">
         <v>47030</v>
       </c>
       <c r="F95" t="n">
-        <v>4.7943</v>
+        <v>20.2057</v>
       </c>
       <c r="G95" t="n">
-        <v>47053.33333333334</v>
+        <v>45268.16666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4144,14 +4072,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4161,22 +4083,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>47090</v>
+        <v>47030</v>
       </c>
       <c r="C96" t="n">
-        <v>47200</v>
+        <v>47030</v>
       </c>
       <c r="D96" t="n">
-        <v>47200</v>
+        <v>47030</v>
       </c>
       <c r="E96" t="n">
-        <v>47090</v>
+        <v>47030</v>
       </c>
       <c r="F96" t="n">
-        <v>14.18</v>
+        <v>4.7943</v>
       </c>
       <c r="G96" t="n">
-        <v>47086.66666666666</v>
+        <v>45297.16666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4185,14 +4107,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4202,22 +4118,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>47090</v>
+      </c>
+      <c r="C97" t="n">
         <v>47200</v>
       </c>
-      <c r="C97" t="n">
-        <v>47590</v>
-      </c>
       <c r="D97" t="n">
-        <v>47590</v>
+        <v>47200</v>
       </c>
       <c r="E97" t="n">
-        <v>47200</v>
+        <v>47090</v>
       </c>
       <c r="F97" t="n">
-        <v>8.9026</v>
+        <v>14.18</v>
       </c>
       <c r="G97" t="n">
-        <v>47273.33333333334</v>
+        <v>45328.83333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4226,14 +4142,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4243,22 +4153,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>47200</v>
+      </c>
+      <c r="C98" t="n">
         <v>47590</v>
       </c>
-      <c r="C98" t="n">
-        <v>47600</v>
-      </c>
       <c r="D98" t="n">
-        <v>47600</v>
+        <v>47590</v>
       </c>
       <c r="E98" t="n">
-        <v>47590</v>
+        <v>47200</v>
       </c>
       <c r="F98" t="n">
-        <v>14.16197136</v>
+        <v>8.9026</v>
       </c>
       <c r="G98" t="n">
-        <v>47463.33333333334</v>
+        <v>45367</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4267,14 +4177,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4284,22 +4188,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>47620</v>
+        <v>47590</v>
       </c>
       <c r="C99" t="n">
-        <v>48210</v>
+        <v>47600</v>
       </c>
       <c r="D99" t="n">
-        <v>48210</v>
+        <v>47600</v>
       </c>
       <c r="E99" t="n">
-        <v>47600</v>
+        <v>47590</v>
       </c>
       <c r="F99" t="n">
-        <v>182.317</v>
+        <v>14.16197136</v>
       </c>
       <c r="G99" t="n">
-        <v>47800</v>
+        <v>45405.33333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4308,14 +4212,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4325,7 +4223,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>48210</v>
+        <v>47620</v>
       </c>
       <c r="C100" t="n">
         <v>48210</v>
@@ -4334,13 +4232,13 @@
         <v>48210</v>
       </c>
       <c r="E100" t="n">
-        <v>48210</v>
+        <v>47600</v>
       </c>
       <c r="F100" t="n">
-        <v>19.9819</v>
+        <v>182.317</v>
       </c>
       <c r="G100" t="n">
-        <v>48006.66666666666</v>
+        <v>45452.16666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4349,14 +4247,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4366,40 +4258,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>48180</v>
+        <v>48210</v>
       </c>
       <c r="C101" t="n">
-        <v>48170</v>
+        <v>48210</v>
       </c>
       <c r="D101" t="n">
-        <v>48180</v>
+        <v>48210</v>
       </c>
       <c r="E101" t="n">
-        <v>48170</v>
+        <v>48210</v>
       </c>
       <c r="F101" t="n">
-        <v>21.107</v>
+        <v>19.9819</v>
       </c>
       <c r="G101" t="n">
-        <v>48196.66666666666</v>
+        <v>45500.66666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>1.071424581005587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4407,22 +4293,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>48160</v>
+        <v>48180</v>
       </c>
       <c r="C102" t="n">
-        <v>48090</v>
+        <v>48170</v>
       </c>
       <c r="D102" t="n">
-        <v>48160</v>
+        <v>48180</v>
       </c>
       <c r="E102" t="n">
-        <v>48060</v>
+        <v>48170</v>
       </c>
       <c r="F102" t="n">
-        <v>37.5278</v>
+        <v>21.107</v>
       </c>
       <c r="G102" t="n">
-        <v>48156.66666666666</v>
+        <v>45546.83333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4442,22 +4328,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>47590</v>
+        <v>48160</v>
       </c>
       <c r="C103" t="n">
-        <v>47580</v>
+        <v>48090</v>
       </c>
       <c r="D103" t="n">
-        <v>47590</v>
+        <v>48160</v>
       </c>
       <c r="E103" t="n">
-        <v>47580</v>
+        <v>48060</v>
       </c>
       <c r="F103" t="n">
-        <v>2.1814</v>
+        <v>37.5278</v>
       </c>
       <c r="G103" t="n">
-        <v>47946.66666666666</v>
+        <v>45591.66666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4477,22 +4363,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>47670</v>
+        <v>47590</v>
       </c>
       <c r="C104" t="n">
-        <v>47330</v>
+        <v>47580</v>
       </c>
       <c r="D104" t="n">
-        <v>47670</v>
+        <v>47590</v>
       </c>
       <c r="E104" t="n">
-        <v>47330</v>
+        <v>47580</v>
       </c>
       <c r="F104" t="n">
-        <v>49.9613</v>
+        <v>2.1814</v>
       </c>
       <c r="G104" t="n">
-        <v>47666.66666666666</v>
+        <v>45642.16666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4512,22 +4398,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>47390</v>
+        <v>47670</v>
       </c>
       <c r="C105" t="n">
-        <v>47390</v>
+        <v>47330</v>
       </c>
       <c r="D105" t="n">
-        <v>47390</v>
+        <v>47670</v>
       </c>
       <c r="E105" t="n">
-        <v>47390</v>
+        <v>47330</v>
       </c>
       <c r="F105" t="n">
-        <v>1.9614</v>
+        <v>49.9613</v>
       </c>
       <c r="G105" t="n">
-        <v>47433.33333333334</v>
+        <v>45697.66666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4547,22 +4433,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>47030</v>
+        <v>47390</v>
       </c>
       <c r="C106" t="n">
-        <v>47030</v>
+        <v>47390</v>
       </c>
       <c r="D106" t="n">
-        <v>47030</v>
+        <v>47390</v>
       </c>
       <c r="E106" t="n">
-        <v>47030</v>
+        <v>47390</v>
       </c>
       <c r="F106" t="n">
-        <v>11.6861</v>
+        <v>1.9614</v>
       </c>
       <c r="G106" t="n">
-        <v>47250</v>
+        <v>45752.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4582,22 +4468,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>47450</v>
+        <v>47030</v>
       </c>
       <c r="C107" t="n">
-        <v>47110</v>
+        <v>47030</v>
       </c>
       <c r="D107" t="n">
-        <v>47450</v>
+        <v>47030</v>
       </c>
       <c r="E107" t="n">
-        <v>47110</v>
+        <v>47030</v>
       </c>
       <c r="F107" t="n">
-        <v>36.0358</v>
+        <v>11.6861</v>
       </c>
       <c r="G107" t="n">
-        <v>47176.66666666666</v>
+        <v>45804.33333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4617,22 +4503,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>47100</v>
+        <v>47450</v>
       </c>
       <c r="C108" t="n">
-        <v>47090</v>
+        <v>47110</v>
       </c>
       <c r="D108" t="n">
-        <v>47100</v>
+        <v>47450</v>
       </c>
       <c r="E108" t="n">
-        <v>47090</v>
+        <v>47110</v>
       </c>
       <c r="F108" t="n">
-        <v>18.0179</v>
+        <v>36.0358</v>
       </c>
       <c r="G108" t="n">
-        <v>47076.66666666666</v>
+        <v>45851.83333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4652,22 +4538,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>47150</v>
+        <v>47100</v>
       </c>
       <c r="C109" t="n">
-        <v>47140</v>
+        <v>47090</v>
       </c>
       <c r="D109" t="n">
-        <v>47150</v>
+        <v>47100</v>
       </c>
       <c r="E109" t="n">
-        <v>47140</v>
+        <v>47090</v>
       </c>
       <c r="F109" t="n">
-        <v>8.0815</v>
+        <v>18.0179</v>
       </c>
       <c r="G109" t="n">
-        <v>47113.33333333334</v>
+        <v>45899</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4687,22 +4573,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>47120</v>
+        <v>47150</v>
       </c>
       <c r="C110" t="n">
-        <v>47170</v>
+        <v>47140</v>
       </c>
       <c r="D110" t="n">
-        <v>47170</v>
+        <v>47150</v>
       </c>
       <c r="E110" t="n">
-        <v>47120</v>
+        <v>47140</v>
       </c>
       <c r="F110" t="n">
-        <v>25.9305</v>
+        <v>8.0815</v>
       </c>
       <c r="G110" t="n">
-        <v>47133.33333333334</v>
+        <v>45947</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4722,22 +4608,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>47190</v>
+        <v>47120</v>
       </c>
       <c r="C111" t="n">
-        <v>47030</v>
+        <v>47170</v>
       </c>
       <c r="D111" t="n">
-        <v>47190</v>
+        <v>47170</v>
       </c>
       <c r="E111" t="n">
-        <v>46960</v>
+        <v>47120</v>
       </c>
       <c r="F111" t="n">
-        <v>12.8404</v>
+        <v>25.9305</v>
       </c>
       <c r="G111" t="n">
-        <v>47113.33333333334</v>
+        <v>46001.16666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4757,22 +4643,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>47160</v>
+        <v>47190</v>
       </c>
       <c r="C112" t="n">
-        <v>47420</v>
+        <v>47030</v>
       </c>
       <c r="D112" t="n">
-        <v>47420</v>
+        <v>47190</v>
       </c>
       <c r="E112" t="n">
-        <v>47160</v>
+        <v>46960</v>
       </c>
       <c r="F112" t="n">
-        <v>2.1164</v>
+        <v>12.8404</v>
       </c>
       <c r="G112" t="n">
-        <v>47206.66666666666</v>
+        <v>46045.83333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4792,22 +4678,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>47300</v>
+        <v>47160</v>
       </c>
       <c r="C113" t="n">
-        <v>47140</v>
+        <v>47420</v>
       </c>
       <c r="D113" t="n">
-        <v>47300</v>
+        <v>47420</v>
       </c>
       <c r="E113" t="n">
-        <v>47140</v>
+        <v>47160</v>
       </c>
       <c r="F113" t="n">
-        <v>1.0842</v>
+        <v>2.1164</v>
       </c>
       <c r="G113" t="n">
-        <v>47196.66666666666</v>
+        <v>46105.33333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4827,22 +4713,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>47470</v>
+        <v>47300</v>
       </c>
       <c r="C114" t="n">
-        <v>47360</v>
+        <v>47140</v>
       </c>
       <c r="D114" t="n">
-        <v>47470</v>
+        <v>47300</v>
       </c>
       <c r="E114" t="n">
-        <v>47360</v>
+        <v>47140</v>
       </c>
       <c r="F114" t="n">
-        <v>19.0024</v>
+        <v>1.0842</v>
       </c>
       <c r="G114" t="n">
-        <v>47306.66666666666</v>
+        <v>46159.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4862,22 +4748,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>47360</v>
+        <v>47470</v>
       </c>
       <c r="C115" t="n">
         <v>47360</v>
       </c>
       <c r="D115" t="n">
-        <v>47360</v>
+        <v>47470</v>
       </c>
       <c r="E115" t="n">
         <v>47360</v>
       </c>
       <c r="F115" t="n">
-        <v>1.9821</v>
+        <v>19.0024</v>
       </c>
       <c r="G115" t="n">
-        <v>47286.66666666666</v>
+        <v>46218</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4897,22 +4783,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>47590</v>
+        <v>47360</v>
       </c>
       <c r="C116" t="n">
-        <v>47500</v>
+        <v>47360</v>
       </c>
       <c r="D116" t="n">
-        <v>47590</v>
+        <v>47360</v>
       </c>
       <c r="E116" t="n">
-        <v>47500</v>
+        <v>47360</v>
       </c>
       <c r="F116" t="n">
-        <v>12.9409</v>
+        <v>1.9821</v>
       </c>
       <c r="G116" t="n">
-        <v>47406.66666666666</v>
+        <v>46276.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4932,22 +4818,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>47400</v>
+        <v>47590</v>
       </c>
       <c r="C117" t="n">
-        <v>47520</v>
+        <v>47500</v>
       </c>
       <c r="D117" t="n">
-        <v>47530</v>
+        <v>47590</v>
       </c>
       <c r="E117" t="n">
-        <v>47400</v>
+        <v>47500</v>
       </c>
       <c r="F117" t="n">
-        <v>75.3519</v>
+        <v>12.9409</v>
       </c>
       <c r="G117" t="n">
-        <v>47460</v>
+        <v>46320.83333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4967,22 +4853,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>47400</v>
+      </c>
+      <c r="C118" t="n">
         <v>47520</v>
       </c>
-      <c r="C118" t="n">
-        <v>47510</v>
-      </c>
       <c r="D118" t="n">
-        <v>47520</v>
+        <v>47530</v>
       </c>
       <c r="E118" t="n">
-        <v>47510</v>
+        <v>47400</v>
       </c>
       <c r="F118" t="n">
-        <v>1.1591</v>
+        <v>75.3519</v>
       </c>
       <c r="G118" t="n">
-        <v>47510</v>
+        <v>46363.66666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5002,22 +4888,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>48400</v>
+        <v>47520</v>
       </c>
       <c r="C119" t="n">
-        <v>48400</v>
+        <v>47510</v>
       </c>
       <c r="D119" t="n">
-        <v>48400</v>
+        <v>47520</v>
       </c>
       <c r="E119" t="n">
-        <v>48400</v>
+        <v>47510</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1</v>
+        <v>1.1591</v>
       </c>
       <c r="G119" t="n">
-        <v>47810</v>
+        <v>46406.33333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5037,22 +4923,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>47520</v>
+        <v>48400</v>
       </c>
       <c r="C120" t="n">
-        <v>47510</v>
+        <v>48400</v>
       </c>
       <c r="D120" t="n">
-        <v>47520</v>
+        <v>48400</v>
       </c>
       <c r="E120" t="n">
-        <v>47510</v>
+        <v>48400</v>
       </c>
       <c r="F120" t="n">
-        <v>21</v>
+        <v>0.1</v>
       </c>
       <c r="G120" t="n">
-        <v>47806.66666666666</v>
+        <v>46457.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5072,22 +4958,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>47500</v>
+        <v>47520</v>
       </c>
       <c r="C121" t="n">
-        <v>47500</v>
+        <v>47510</v>
       </c>
       <c r="D121" t="n">
-        <v>47500</v>
+        <v>47520</v>
       </c>
       <c r="E121" t="n">
-        <v>47500</v>
+        <v>47510</v>
       </c>
       <c r="F121" t="n">
-        <v>34.7109</v>
+        <v>21</v>
       </c>
       <c r="G121" t="n">
-        <v>47803.33333333334</v>
+        <v>46495.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5119,10 +5005,10 @@
         <v>47500</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2365</v>
+        <v>34.7109</v>
       </c>
       <c r="G122" t="n">
-        <v>47503.33333333334</v>
+        <v>46539.83333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5142,22 +5028,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>47000</v>
+        <v>47500</v>
       </c>
       <c r="C123" t="n">
-        <v>47000</v>
+        <v>47500</v>
       </c>
       <c r="D123" t="n">
-        <v>47000</v>
+        <v>47500</v>
       </c>
       <c r="E123" t="n">
-        <v>47000</v>
+        <v>47500</v>
       </c>
       <c r="F123" t="n">
-        <v>34</v>
+        <v>0.2365</v>
       </c>
       <c r="G123" t="n">
-        <v>47333.33333333334</v>
+        <v>46577.16666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5177,22 +5063,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>47330</v>
+        <v>47000</v>
       </c>
       <c r="C124" t="n">
-        <v>47430</v>
+        <v>47000</v>
       </c>
       <c r="D124" t="n">
-        <v>47430</v>
+        <v>47000</v>
       </c>
       <c r="E124" t="n">
-        <v>47330</v>
+        <v>47000</v>
       </c>
       <c r="F124" t="n">
-        <v>162.689</v>
+        <v>34</v>
       </c>
       <c r="G124" t="n">
-        <v>47310</v>
+        <v>46612</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5212,22 +5098,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>47510</v>
+        <v>47330</v>
       </c>
       <c r="C125" t="n">
-        <v>47500</v>
+        <v>47430</v>
       </c>
       <c r="D125" t="n">
-        <v>47510</v>
+        <v>47430</v>
       </c>
       <c r="E125" t="n">
-        <v>47500</v>
+        <v>47330</v>
       </c>
       <c r="F125" t="n">
-        <v>10.4095</v>
+        <v>162.689</v>
       </c>
       <c r="G125" t="n">
-        <v>47310</v>
+        <v>46654</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5247,22 +5133,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>47500</v>
+        <v>47510</v>
       </c>
       <c r="C126" t="n">
         <v>47500</v>
       </c>
       <c r="D126" t="n">
-        <v>47500</v>
+        <v>47510</v>
       </c>
       <c r="E126" t="n">
         <v>47500</v>
       </c>
       <c r="F126" t="n">
-        <v>2.6225</v>
+        <v>10.4095</v>
       </c>
       <c r="G126" t="n">
-        <v>47476.66666666666</v>
+        <v>46696.16666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5294,10 +5180,10 @@
         <v>47500</v>
       </c>
       <c r="F127" t="n">
-        <v>22.589</v>
+        <v>2.6225</v>
       </c>
       <c r="G127" t="n">
-        <v>47500</v>
+        <v>46736</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5317,22 +5203,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>47340</v>
+        <v>47500</v>
       </c>
       <c r="C128" t="n">
-        <v>47340</v>
+        <v>47500</v>
       </c>
       <c r="D128" t="n">
-        <v>47340</v>
+        <v>47500</v>
       </c>
       <c r="E128" t="n">
-        <v>47340</v>
+        <v>47500</v>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>22.589</v>
       </c>
       <c r="G128" t="n">
-        <v>47446.66666666666</v>
+        <v>46774.83333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5364,10 +5250,10 @@
         <v>47340</v>
       </c>
       <c r="F129" t="n">
-        <v>8.8454</v>
+        <v>20</v>
       </c>
       <c r="G129" t="n">
-        <v>47393.33333333334</v>
+        <v>46811</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5387,22 +5273,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>47310</v>
+        <v>47340</v>
       </c>
       <c r="C130" t="n">
-        <v>47310</v>
+        <v>47340</v>
       </c>
       <c r="D130" t="n">
-        <v>47310</v>
+        <v>47340</v>
       </c>
       <c r="E130" t="n">
-        <v>47310</v>
+        <v>47340</v>
       </c>
       <c r="F130" t="n">
-        <v>14</v>
+        <v>8.8454</v>
       </c>
       <c r="G130" t="n">
-        <v>47330</v>
+        <v>46844.16666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5422,22 +5308,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>47150</v>
+        <v>47310</v>
       </c>
       <c r="C131" t="n">
-        <v>47150</v>
+        <v>47310</v>
       </c>
       <c r="D131" t="n">
-        <v>47150</v>
+        <v>47310</v>
       </c>
       <c r="E131" t="n">
-        <v>47150</v>
+        <v>47310</v>
       </c>
       <c r="F131" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G131" t="n">
-        <v>47266.66666666666</v>
+        <v>46876.83333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5460,19 +5346,19 @@
         <v>47150</v>
       </c>
       <c r="C132" t="n">
-        <v>49620</v>
+        <v>47150</v>
       </c>
       <c r="D132" t="n">
-        <v>49620</v>
+        <v>47150</v>
       </c>
       <c r="E132" t="n">
         <v>47150</v>
       </c>
       <c r="F132" t="n">
-        <v>191.06926001</v>
+        <v>12</v>
       </c>
       <c r="G132" t="n">
-        <v>48026.66666666666</v>
+        <v>46906.83333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5492,22 +5378,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>49450</v>
+        <v>47150</v>
       </c>
       <c r="C133" t="n">
-        <v>49450</v>
+        <v>49620</v>
       </c>
       <c r="D133" t="n">
-        <v>49450</v>
+        <v>49620</v>
       </c>
       <c r="E133" t="n">
-        <v>49450</v>
+        <v>47150</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0108</v>
+        <v>191.06926001</v>
       </c>
       <c r="G133" t="n">
-        <v>48740</v>
+        <v>46977.16666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5527,22 +5413,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>49000</v>
+        <v>49450</v>
       </c>
       <c r="C134" t="n">
-        <v>49000</v>
+        <v>49450</v>
       </c>
       <c r="D134" t="n">
-        <v>49000</v>
+        <v>49450</v>
       </c>
       <c r="E134" t="n">
-        <v>49000</v>
+        <v>49450</v>
       </c>
       <c r="F134" t="n">
-        <v>17.0991</v>
+        <v>0.0108</v>
       </c>
       <c r="G134" t="n">
-        <v>49356.66666666666</v>
+        <v>47034</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5562,28 +5448,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>48700</v>
+        <v>49000</v>
       </c>
       <c r="C135" t="n">
-        <v>47910</v>
+        <v>49000</v>
       </c>
       <c r="D135" t="n">
-        <v>49230</v>
+        <v>49000</v>
       </c>
       <c r="E135" t="n">
-        <v>47910</v>
+        <v>49000</v>
       </c>
       <c r="F135" t="n">
-        <v>77.34739999999999</v>
+        <v>17.0991</v>
       </c>
       <c r="G135" t="n">
-        <v>48786.66666666666</v>
+        <v>47087</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5597,22 +5483,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>49230</v>
+        <v>48700</v>
       </c>
       <c r="C136" t="n">
-        <v>49230</v>
+        <v>47910</v>
       </c>
       <c r="D136" t="n">
         <v>49230</v>
       </c>
       <c r="E136" t="n">
-        <v>49230</v>
+        <v>47910</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0426</v>
+        <v>77.34739999999999</v>
       </c>
       <c r="G136" t="n">
-        <v>48713.33333333334</v>
+        <v>47117.83333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5632,22 +5518,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>49090</v>
+        <v>49230</v>
       </c>
       <c r="C137" t="n">
-        <v>49090</v>
+        <v>49230</v>
       </c>
       <c r="D137" t="n">
-        <v>49090</v>
+        <v>49230</v>
       </c>
       <c r="E137" t="n">
-        <v>49090</v>
+        <v>49230</v>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>0.0426</v>
       </c>
       <c r="G137" t="n">
-        <v>48743.33333333334</v>
+        <v>47170.66666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5667,22 +5553,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>48220</v>
+        <v>49090</v>
       </c>
       <c r="C138" t="n">
-        <v>48210</v>
+        <v>49090</v>
       </c>
       <c r="D138" t="n">
-        <v>48220</v>
+        <v>49090</v>
       </c>
       <c r="E138" t="n">
-        <v>48210</v>
+        <v>49090</v>
       </c>
       <c r="F138" t="n">
-        <v>3.7363</v>
+        <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>48843.33333333334</v>
+        <v>47221.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5702,22 +5588,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>48210</v>
+        <v>48220</v>
       </c>
       <c r="C139" t="n">
         <v>48210</v>
       </c>
       <c r="D139" t="n">
-        <v>48210</v>
+        <v>48220</v>
       </c>
       <c r="E139" t="n">
         <v>48210</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0425</v>
+        <v>3.7363</v>
       </c>
       <c r="G139" t="n">
-        <v>48503.33333333334</v>
+        <v>47259.16666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5749,10 +5635,10 @@
         <v>48210</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3</v>
+        <v>0.0425</v>
       </c>
       <c r="G140" t="n">
-        <v>48210</v>
+        <v>47294.33333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5784,10 +5670,10 @@
         <v>48210</v>
       </c>
       <c r="F141" t="n">
-        <v>14.4453</v>
+        <v>0.3</v>
       </c>
       <c r="G141" t="n">
-        <v>48210</v>
+        <v>47342</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5819,10 +5705,10 @@
         <v>48210</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0603</v>
+        <v>14.4453</v>
       </c>
       <c r="G142" t="n">
-        <v>48210</v>
+        <v>47376.16666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5845,19 +5731,19 @@
         <v>48210</v>
       </c>
       <c r="C143" t="n">
-        <v>48600</v>
+        <v>48210</v>
       </c>
       <c r="D143" t="n">
-        <v>48600</v>
+        <v>48210</v>
       </c>
       <c r="E143" t="n">
         <v>48210</v>
       </c>
       <c r="F143" t="n">
-        <v>12.4811</v>
+        <v>0.0603</v>
       </c>
       <c r="G143" t="n">
-        <v>48340</v>
+        <v>47427.66666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5877,22 +5763,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>48410</v>
+        <v>48210</v>
       </c>
       <c r="C144" t="n">
-        <v>48400</v>
+        <v>48600</v>
       </c>
       <c r="D144" t="n">
-        <v>48410</v>
+        <v>48600</v>
       </c>
       <c r="E144" t="n">
-        <v>48400</v>
+        <v>48210</v>
       </c>
       <c r="F144" t="n">
-        <v>19.1503</v>
+        <v>12.4811</v>
       </c>
       <c r="G144" t="n">
-        <v>48403.33333333334</v>
+        <v>47486</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5912,22 +5798,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>48400</v>
+        <v>48410</v>
       </c>
       <c r="C145" t="n">
         <v>48400</v>
       </c>
       <c r="D145" t="n">
-        <v>48400</v>
+        <v>48410</v>
       </c>
       <c r="E145" t="n">
         <v>48400</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>19.1503</v>
       </c>
       <c r="G145" t="n">
-        <v>48466.66666666666</v>
+        <v>47540.83333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5947,22 +5833,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>48340</v>
+        <v>48400</v>
       </c>
       <c r="C146" t="n">
-        <v>48460</v>
+        <v>48400</v>
       </c>
       <c r="D146" t="n">
-        <v>48460</v>
+        <v>48400</v>
       </c>
       <c r="E146" t="n">
-        <v>48340</v>
+        <v>48400</v>
       </c>
       <c r="F146" t="n">
-        <v>1.7946</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>48420</v>
+        <v>47593.83333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5982,22 +5868,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>48440</v>
+        <v>48340</v>
       </c>
       <c r="C147" t="n">
-        <v>48440</v>
+        <v>48460</v>
       </c>
       <c r="D147" t="n">
-        <v>48440</v>
+        <v>48460</v>
       </c>
       <c r="E147" t="n">
-        <v>48440</v>
+        <v>48340</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6034</v>
+        <v>1.7946</v>
       </c>
       <c r="G147" t="n">
-        <v>48433.33333333334</v>
+        <v>47632.33333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6017,22 +5903,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>48470</v>
+        <v>48440</v>
       </c>
       <c r="C148" t="n">
-        <v>48470</v>
+        <v>48440</v>
       </c>
       <c r="D148" t="n">
-        <v>48470</v>
+        <v>48440</v>
       </c>
       <c r="E148" t="n">
-        <v>48470</v>
+        <v>48440</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0624</v>
+        <v>0.6034</v>
       </c>
       <c r="G148" t="n">
-        <v>48456.66666666666</v>
+        <v>47670.33333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6064,10 +5950,10 @@
         <v>48470</v>
       </c>
       <c r="F149" t="n">
-        <v>46.0168</v>
+        <v>0.0624</v>
       </c>
       <c r="G149" t="n">
-        <v>48460</v>
+        <v>47708.83333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6087,22 +5973,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>48270</v>
+        <v>48470</v>
       </c>
       <c r="C150" t="n">
-        <v>48270</v>
+        <v>48470</v>
       </c>
       <c r="D150" t="n">
-        <v>48270</v>
+        <v>48470</v>
       </c>
       <c r="E150" t="n">
-        <v>48270</v>
+        <v>48470</v>
       </c>
       <c r="F150" t="n">
-        <v>10.3325</v>
+        <v>46.0168</v>
       </c>
       <c r="G150" t="n">
-        <v>48403.33333333334</v>
+        <v>47743.33333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6122,22 +6008,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>48200</v>
+        <v>48270</v>
       </c>
       <c r="C151" t="n">
-        <v>48200</v>
+        <v>48270</v>
       </c>
       <c r="D151" t="n">
-        <v>48200</v>
+        <v>48270</v>
       </c>
       <c r="E151" t="n">
-        <v>48200</v>
+        <v>48270</v>
       </c>
       <c r="F151" t="n">
-        <v>0.975</v>
+        <v>10.3325</v>
       </c>
       <c r="G151" t="n">
-        <v>48313.33333333334</v>
+        <v>47774.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6152,6 +6038,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>48200</v>
+      </c>
+      <c r="C152" t="n">
+        <v>48200</v>
+      </c>
+      <c r="D152" t="n">
+        <v>48200</v>
+      </c>
+      <c r="E152" t="n">
+        <v>48200</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G152" t="n">
+        <v>47797.5</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-28 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>9.825200000000001</v>
       </c>
       <c r="G2" t="n">
+        <v>45235.33333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>44777.66666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>0.8218</v>
       </c>
       <c r="G3" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>44784.83333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>45010</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45010</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>0.8218</v>
       </c>
       <c r="G4" t="n">
+        <v>45186.66666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>44788.83333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44930</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45010</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>5.4186</v>
       </c>
       <c r="G5" t="n">
+        <v>45174.66666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>44798.16666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>45010</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,21 @@
         <v>5.6639</v>
       </c>
       <c r="G6" t="n">
+        <v>45148</v>
+      </c>
+      <c r="H6" t="n">
         <v>44802.16666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +661,21 @@
         <v>3.5401</v>
       </c>
       <c r="G7" t="n">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>44805.66666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +699,21 @@
         <v>1.899</v>
       </c>
       <c r="G8" t="n">
+        <v>45061.33333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>44804.66666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +737,21 @@
         <v>0.43</v>
       </c>
       <c r="G9" t="n">
+        <v>44992</v>
+      </c>
+      <c r="H9" t="n">
         <v>44796.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +775,25 @@
         <v>2.4692</v>
       </c>
       <c r="G10" t="n">
+        <v>44920.66666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>44786.33333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44450</v>
+      </c>
+      <c r="L10" t="n">
+        <v>44450</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +817,29 @@
         <v>0.1975</v>
       </c>
       <c r="G11" t="n">
+        <v>44863.33333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>44775.5</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>44360</v>
+      </c>
+      <c r="L11" t="n">
+        <v>44450</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +863,29 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
+        <v>44857.33333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>44772</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>44450</v>
+      </c>
+      <c r="L12" t="n">
+        <v>44450</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +909,21 @@
         <v>0.1975</v>
       </c>
       <c r="G13" t="n">
+        <v>44853.33333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>44770.16666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +947,21 @@
         <v>37.8495</v>
       </c>
       <c r="G14" t="n">
+        <v>44848.66666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>44768.16666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +985,21 @@
         <v>4.5859</v>
       </c>
       <c r="G15" t="n">
+        <v>44848</v>
+      </c>
+      <c r="H15" t="n">
         <v>44763.83333333334</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1023,21 @@
         <v>7.08</v>
       </c>
       <c r="G16" t="n">
+        <v>44843.33333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>44762.33333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1061,21 @@
         <v>0.1</v>
       </c>
       <c r="G17" t="n">
+        <v>44788</v>
+      </c>
+      <c r="H17" t="n">
         <v>44748.33333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,22 +1099,21 @@
         <v>1.6271</v>
       </c>
       <c r="G18" t="n">
+        <v>44740</v>
+      </c>
+      <c r="H18" t="n">
         <v>44728</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>44180</v>
-      </c>
-      <c r="K18" t="n">
-        <v>44180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1047,26 +1137,27 @@
         <v>100</v>
       </c>
       <c r="G19" t="n">
+        <v>44681.33333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>44711.16666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>44210</v>
       </c>
-      <c r="K19" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1090,26 +1181,25 @@
         <v>0.85</v>
       </c>
       <c r="G20" t="n">
+        <v>44622.66666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>44696.33333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44160</v>
-      </c>
-      <c r="K20" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1133,24 +1223,27 @@
         <v>0.9536</v>
       </c>
       <c r="G21" t="n">
+        <v>44564</v>
+      </c>
+      <c r="H21" t="n">
         <v>44681.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+        <v>44160</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1174,26 +1267,27 @@
         <v>5.5755</v>
       </c>
       <c r="G22" t="n">
+        <v>44514.66666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>44666.66666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>44160</v>
       </c>
-      <c r="K22" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1217,26 +1311,27 @@
         <v>10.85</v>
       </c>
       <c r="G23" t="n">
+        <v>44482</v>
+      </c>
+      <c r="H23" t="n">
         <v>44657.5</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>44160</v>
       </c>
-      <c r="K23" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1260,26 +1355,27 @@
         <v>17.0408</v>
       </c>
       <c r="G24" t="n">
+        <v>44493.33333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>44660.5</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>44300</v>
       </c>
-      <c r="K24" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1303,24 +1399,27 @@
         <v>0.1</v>
       </c>
       <c r="G25" t="n">
+        <v>44519.33333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>44665.66666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+        <v>44620</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1344,26 +1443,27 @@
         <v>10.8418</v>
       </c>
       <c r="G26" t="n">
+        <v>44538.66666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>44670.66666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>44750</v>
       </c>
-      <c r="K26" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1387,24 +1487,27 @@
         <v>100</v>
       </c>
       <c r="G27" t="n">
+        <v>44524</v>
+      </c>
+      <c r="H27" t="n">
         <v>44682.33333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+        <v>44740</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,26 +1531,25 @@
         <v>18</v>
       </c>
       <c r="G28" t="n">
+        <v>44515.33333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>44695.33333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>44740</v>
-      </c>
-      <c r="K28" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1471,24 +1573,25 @@
         <v>14</v>
       </c>
       <c r="G29" t="n">
+        <v>44517.33333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>44711</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1512,24 +1615,25 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
+        <v>44490</v>
+      </c>
+      <c r="H30" t="n">
         <v>44717.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,24 +1657,25 @@
         <v>3.316</v>
       </c>
       <c r="G31" t="n">
+        <v>44450.66666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>44722.33333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,24 +1699,25 @@
         <v>2.003</v>
       </c>
       <c r="G32" t="n">
+        <v>44460</v>
+      </c>
+      <c r="H32" t="n">
         <v>44728.16666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1635,26 +1741,25 @@
         <v>7.363</v>
       </c>
       <c r="G33" t="n">
+        <v>44509.33333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>44744.83333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>44320</v>
-      </c>
-      <c r="K33" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,24 +1783,25 @@
         <v>20.259</v>
       </c>
       <c r="G34" t="n">
+        <v>44592</v>
+      </c>
+      <c r="H34" t="n">
         <v>44770.16666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1719,24 +1825,25 @@
         <v>0.924</v>
       </c>
       <c r="G35" t="n">
+        <v>44616.66666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>44783.33333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1760,24 +1867,25 @@
         <v>0.24031795</v>
       </c>
       <c r="G36" t="n">
+        <v>44692</v>
+      </c>
+      <c r="H36" t="n">
         <v>44804.83333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1801,24 +1909,25 @@
         <v>53.4761</v>
       </c>
       <c r="G37" t="n">
+        <v>44768</v>
+      </c>
+      <c r="H37" t="n">
         <v>44823</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,24 +1951,25 @@
         <v>0.2407</v>
       </c>
       <c r="G38" t="n">
+        <v>44834.66666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>44839.16666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,24 +1993,25 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
+        <v>44880</v>
+      </c>
+      <c r="H39" t="n">
         <v>44860.33333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,24 +2035,25 @@
         <v>0.01</v>
       </c>
       <c r="G40" t="n">
+        <v>44923.33333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>44884.66666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1965,24 +2077,25 @@
         <v>164.4437</v>
       </c>
       <c r="G41" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>44898.33333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,24 +2119,25 @@
         <v>7.3427</v>
       </c>
       <c r="G42" t="n">
+        <v>45004.66666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>44903.33333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2047,24 +2161,25 @@
         <v>26.5</v>
       </c>
       <c r="G43" t="n">
+        <v>45044.66666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>44914.5</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2088,24 +2203,25 @@
         <v>0.55</v>
       </c>
       <c r="G44" t="n">
+        <v>45018</v>
+      </c>
+      <c r="H44" t="n">
         <v>44910.5</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2129,24 +2245,25 @@
         <v>80.015</v>
       </c>
       <c r="G45" t="n">
+        <v>44984</v>
+      </c>
+      <c r="H45" t="n">
         <v>44896.66666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,24 +2287,25 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
+        <v>44969.33333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>44876.16666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2211,24 +2329,25 @@
         <v>14.4749</v>
       </c>
       <c r="G47" t="n">
+        <v>44942.66666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>44856.5</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2252,24 +2371,25 @@
         <v>2</v>
       </c>
       <c r="G48" t="n">
+        <v>44896.66666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>44838.33333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2293,24 +2413,25 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
+        <v>44820.66666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>44820.16666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2334,24 +2455,25 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
+        <v>44802.66666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>44804.16666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2375,24 +2497,25 @@
         <v>21.2382</v>
       </c>
       <c r="G51" t="n">
+        <v>44711.33333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>44778.83333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,24 +2539,25 @@
         <v>9.6</v>
       </c>
       <c r="G52" t="n">
+        <v>44648</v>
+      </c>
+      <c r="H52" t="n">
         <v>44759.83333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2457,24 +2581,25 @@
         <v>7.4197</v>
       </c>
       <c r="G53" t="n">
+        <v>44551.33333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>44732.33333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,24 +2623,25 @@
         <v>7</v>
       </c>
       <c r="G54" t="n">
+        <v>44457.33333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>44705.66666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,24 +2665,25 @@
         <v>1.7926</v>
       </c>
       <c r="G55" t="n">
+        <v>44354</v>
+      </c>
+      <c r="H55" t="n">
         <v>44679.33333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2580,24 +2707,25 @@
         <v>0.2408</v>
       </c>
       <c r="G56" t="n">
+        <v>44257.33333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>44655</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2621,26 +2749,25 @@
         <v>25</v>
       </c>
       <c r="G57" t="n">
+        <v>44220</v>
+      </c>
+      <c r="H57" t="n">
         <v>44651.5</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K57" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2664,26 +2791,25 @@
         <v>0.43</v>
       </c>
       <c r="G58" t="n">
+        <v>44190</v>
+      </c>
+      <c r="H58" t="n">
         <v>44650.83333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>44840</v>
-      </c>
-      <c r="K58" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2707,24 +2833,25 @@
         <v>1.875</v>
       </c>
       <c r="G59" t="n">
+        <v>44216.66666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>44650.16666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2748,24 +2875,25 @@
         <v>4.4178</v>
       </c>
       <c r="G60" t="n">
+        <v>44305.33333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>44656.83333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2789,24 +2917,25 @@
         <v>0.5349</v>
       </c>
       <c r="G61" t="n">
+        <v>44380.66666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>44661</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,24 +2959,25 @@
         <v>0.1</v>
       </c>
       <c r="G62" t="n">
+        <v>44442</v>
+      </c>
+      <c r="H62" t="n">
         <v>44658.16666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2871,24 +3001,25 @@
         <v>0.01</v>
       </c>
       <c r="G63" t="n">
+        <v>44508.66666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>44663.66666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,24 +3043,25 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
+        <v>44552</v>
+      </c>
+      <c r="H64" t="n">
         <v>44661.5</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,24 +3085,25 @@
         <v>9.3752</v>
       </c>
       <c r="G65" t="n">
+        <v>44595.33333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>44659.33333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,24 +3127,25 @@
         <v>13</v>
       </c>
       <c r="G66" t="n">
+        <v>44665.33333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>44658.16666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3035,24 +3169,25 @@
         <v>9.333600000000001</v>
       </c>
       <c r="G67" t="n">
+        <v>44716</v>
+      </c>
+      <c r="H67" t="n">
         <v>44661.66666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,24 +3211,25 @@
         <v>4.4277</v>
       </c>
       <c r="G68" t="n">
+        <v>44804</v>
+      </c>
+      <c r="H68" t="n">
         <v>44668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3117,24 +3253,25 @@
         <v>23.1291</v>
       </c>
       <c r="G69" t="n">
+        <v>44889.33333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>44680</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3158,24 +3295,25 @@
         <v>8.588200000000001</v>
       </c>
       <c r="G70" t="n">
+        <v>44989.33333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>44696.5</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,24 +3337,25 @@
         <v>0.1393</v>
       </c>
       <c r="G71" t="n">
+        <v>45089.33333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>44711.5</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,24 +3379,25 @@
         <v>100</v>
       </c>
       <c r="G72" t="n">
+        <v>45123.33333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>44718</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3281,24 +3421,25 @@
         <v>36.4052</v>
       </c>
       <c r="G73" t="n">
+        <v>45153.33333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>44725.83333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3322,25 +3463,26 @@
         <v>24.9425</v>
       </c>
       <c r="G74" t="n">
+        <v>45226</v>
+      </c>
+      <c r="H74" t="n">
         <v>44744.5</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>44180</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1.037100497962879</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3363,18 +3505,25 @@
         <v>2.01</v>
       </c>
       <c r="G75" t="n">
+        <v>45258.66666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>44759.5</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,18 +3547,25 @@
         <v>0.01</v>
       </c>
       <c r="G76" t="n">
+        <v>45314</v>
+      </c>
+      <c r="H76" t="n">
         <v>44778.66666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3433,18 +3589,25 @@
         <v>5</v>
       </c>
       <c r="G77" t="n">
+        <v>45395.33333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>44810</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3468,18 +3631,25 @@
         <v>6</v>
       </c>
       <c r="G78" t="n">
+        <v>45447.33333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>44840.5</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3503,18 +3673,25 @@
         <v>1.23</v>
       </c>
       <c r="G79" t="n">
+        <v>45516.66666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>44870.33333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,18 +3715,25 @@
         <v>21.7755</v>
       </c>
       <c r="G80" t="n">
+        <v>45596</v>
+      </c>
+      <c r="H80" t="n">
         <v>44902.66666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3573,18 +3757,25 @@
         <v>24.0563</v>
       </c>
       <c r="G81" t="n">
+        <v>45621.33333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>44922.5</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,18 +3799,25 @@
         <v>0.01</v>
       </c>
       <c r="G82" t="n">
+        <v>45691.33333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>44955.83333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3643,18 +3841,25 @@
         <v>1.27</v>
       </c>
       <c r="G83" t="n">
+        <v>45688</v>
+      </c>
+      <c r="H83" t="n">
         <v>44969.5</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,18 +3883,25 @@
         <v>0.885</v>
       </c>
       <c r="G84" t="n">
+        <v>45683.33333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>44977.5</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3713,18 +3925,25 @@
         <v>1.9313</v>
       </c>
       <c r="G85" t="n">
+        <v>45667.33333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>44983.5</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,18 +3967,25 @@
         <v>1.0509</v>
       </c>
       <c r="G86" t="n">
+        <v>45658.66666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>44991.5</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3783,18 +4009,25 @@
         <v>57.3808</v>
       </c>
       <c r="G87" t="n">
+        <v>45712</v>
+      </c>
+      <c r="H87" t="n">
         <v>45015</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3818,18 +4051,25 @@
         <v>89.01819999999999</v>
       </c>
       <c r="G88" t="n">
+        <v>45762.66666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>45037.66666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3853,18 +4093,25 @@
         <v>2</v>
       </c>
       <c r="G89" t="n">
+        <v>45770.66666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>45057.83333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,18 +4135,25 @@
         <v>1.0197</v>
       </c>
       <c r="G90" t="n">
+        <v>45809.33333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>45089.33333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3923,18 +4177,25 @@
         <v>2.5103</v>
       </c>
       <c r="G91" t="n">
+        <v>45832</v>
+      </c>
+      <c r="H91" t="n">
         <v>45124</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,18 +4219,25 @@
         <v>14.6467</v>
       </c>
       <c r="G92" t="n">
+        <v>45882.66666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>45165.66666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3993,18 +4261,25 @@
         <v>68.35446708000001</v>
       </c>
       <c r="G93" t="n">
+        <v>45940</v>
+      </c>
+      <c r="H93" t="n">
         <v>45198.16666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,18 +4303,25 @@
         <v>18.9074</v>
       </c>
       <c r="G94" t="n">
+        <v>46016.66666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>45226.5</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4063,18 +4345,25 @@
         <v>20.2057</v>
       </c>
       <c r="G95" t="n">
+        <v>46078.66666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>45268.16666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,18 +4387,25 @@
         <v>4.7943</v>
       </c>
       <c r="G96" t="n">
+        <v>46190.66666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>45297.16666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4133,18 +4429,25 @@
         <v>14.18</v>
       </c>
       <c r="G97" t="n">
+        <v>46260</v>
+      </c>
+      <c r="H97" t="n">
         <v>45328.83333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,18 +4471,25 @@
         <v>8.9026</v>
       </c>
       <c r="G98" t="n">
+        <v>46424.66666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>45367</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4203,18 +4513,25 @@
         <v>14.16197136</v>
       </c>
       <c r="G99" t="n">
+        <v>46591.33333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>45405.33333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,18 +4555,25 @@
         <v>182.317</v>
       </c>
       <c r="G100" t="n">
+        <v>46798</v>
+      </c>
+      <c r="H100" t="n">
         <v>45452.16666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,18 +4597,25 @@
         <v>19.9819</v>
       </c>
       <c r="G101" t="n">
+        <v>46997.33333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>45500.66666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,18 +4639,25 @@
         <v>21.107</v>
       </c>
       <c r="G102" t="n">
+        <v>47132</v>
+      </c>
+      <c r="H102" t="n">
         <v>45546.83333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4343,18 +4681,25 @@
         <v>37.5278</v>
       </c>
       <c r="G103" t="n">
+        <v>47260.66666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>45591.66666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,18 +4723,25 @@
         <v>2.1814</v>
       </c>
       <c r="G104" t="n">
+        <v>47355.33333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>45642.16666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4413,18 +4765,25 @@
         <v>49.9613</v>
       </c>
       <c r="G105" t="n">
+        <v>47417.33333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>45697.66666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,18 +4807,25 @@
         <v>1.9614</v>
       </c>
       <c r="G106" t="n">
+        <v>47483.33333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>45752.5</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4483,18 +4849,25 @@
         <v>11.6861</v>
       </c>
       <c r="G107" t="n">
+        <v>47497.33333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>45804.33333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,18 +4891,25 @@
         <v>36.0358</v>
       </c>
       <c r="G108" t="n">
+        <v>47511.33333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>45851.83333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4553,18 +4933,25 @@
         <v>18.0179</v>
       </c>
       <c r="G109" t="n">
+        <v>47510.66666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>45899</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,18 +4975,25 @@
         <v>8.0815</v>
       </c>
       <c r="G110" t="n">
+        <v>47518</v>
+      </c>
+      <c r="H110" t="n">
         <v>45947</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4623,18 +5017,25 @@
         <v>25.9305</v>
       </c>
       <c r="G111" t="n">
+        <v>47527.33333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>46001.16666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,18 +5059,25 @@
         <v>12.8404</v>
       </c>
       <c r="G112" t="n">
+        <v>47516</v>
+      </c>
+      <c r="H112" t="n">
         <v>46045.83333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4693,18 +5101,25 @@
         <v>2.1164</v>
       </c>
       <c r="G113" t="n">
+        <v>47504.66666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>46105.33333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4728,18 +5143,25 @@
         <v>1.0842</v>
       </c>
       <c r="G114" t="n">
+        <v>47474</v>
+      </c>
+      <c r="H114" t="n">
         <v>46159.5</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4763,18 +5185,25 @@
         <v>19.0024</v>
       </c>
       <c r="G115" t="n">
+        <v>47417.33333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>46218</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4798,18 +5227,25 @@
         <v>1.9821</v>
       </c>
       <c r="G116" t="n">
+        <v>47360.66666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>46276.5</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4833,18 +5269,25 @@
         <v>12.9409</v>
       </c>
       <c r="G117" t="n">
+        <v>47316</v>
+      </c>
+      <c r="H117" t="n">
         <v>46320.83333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4868,18 +5311,25 @@
         <v>75.3519</v>
       </c>
       <c r="G118" t="n">
+        <v>47278</v>
+      </c>
+      <c r="H118" t="n">
         <v>46363.66666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4903,18 +5353,25 @@
         <v>1.1591</v>
       </c>
       <c r="G119" t="n">
+        <v>47273.33333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>46406.33333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,18 +5395,25 @@
         <v>0.1</v>
       </c>
       <c r="G120" t="n">
+        <v>47344.66666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>46457.5</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4973,18 +5437,25 @@
         <v>21</v>
       </c>
       <c r="G121" t="n">
+        <v>47352.66666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>46495.5</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,18 +5479,25 @@
         <v>34.7109</v>
       </c>
       <c r="G122" t="n">
+        <v>47384</v>
+      </c>
+      <c r="H122" t="n">
         <v>46539.83333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5043,18 +5521,25 @@
         <v>0.2365</v>
       </c>
       <c r="G123" t="n">
+        <v>47410</v>
+      </c>
+      <c r="H123" t="n">
         <v>46577.16666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,18 +5563,25 @@
         <v>34</v>
       </c>
       <c r="G124" t="n">
+        <v>47404</v>
+      </c>
+      <c r="H124" t="n">
         <v>46612</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5113,18 +5605,25 @@
         <v>162.689</v>
       </c>
       <c r="G125" t="n">
+        <v>47423.33333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>46654</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5148,18 +5647,25 @@
         <v>10.4095</v>
       </c>
       <c r="G126" t="n">
+        <v>47445.33333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>46696.16666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,18 +5689,25 @@
         <v>2.6225</v>
       </c>
       <c r="G127" t="n">
+        <v>47476.66666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>46736</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5218,18 +5731,25 @@
         <v>22.589</v>
       </c>
       <c r="G128" t="n">
+        <v>47482</v>
+      </c>
+      <c r="H128" t="n">
         <v>46774.83333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5253,18 +5773,25 @@
         <v>20</v>
       </c>
       <c r="G129" t="n">
+        <v>47495.33333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>46811</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,18 +5815,25 @@
         <v>8.8454</v>
       </c>
       <c r="G130" t="n">
+        <v>47494</v>
+      </c>
+      <c r="H130" t="n">
         <v>46844.16666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5323,18 +5857,25 @@
         <v>14</v>
       </c>
       <c r="G131" t="n">
+        <v>47490.66666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>46876.83333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5358,18 +5899,25 @@
         <v>12</v>
       </c>
       <c r="G132" t="n">
+        <v>47467.33333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>46906.83333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5393,18 +5941,25 @@
         <v>191.06926001</v>
       </c>
       <c r="G133" t="n">
+        <v>47607.33333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>46977.16666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,18 +5983,25 @@
         <v>0.0108</v>
       </c>
       <c r="G134" t="n">
+        <v>47736.66666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>47034</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5463,18 +6025,25 @@
         <v>17.0991</v>
       </c>
       <c r="G135" t="n">
+        <v>47776.66666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>47087</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5498,20 +6067,25 @@
         <v>77.34739999999999</v>
       </c>
       <c r="G136" t="n">
+        <v>47803.33333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>47117.83333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5533,18 +6107,21 @@
         <v>0.0426</v>
       </c>
       <c r="G137" t="n">
+        <v>47918.66666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>47170.66666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,18 +6145,21 @@
         <v>10</v>
       </c>
       <c r="G138" t="n">
+        <v>48024.66666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>47221.5</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5603,18 +6183,21 @@
         <v>3.7363</v>
       </c>
       <c r="G139" t="n">
+        <v>48105.33333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>47259.16666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,18 +6221,21 @@
         <v>0.0425</v>
       </c>
       <c r="G140" t="n">
+        <v>48157.33333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>47294.33333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5673,18 +6259,21 @@
         <v>0.3</v>
       </c>
       <c r="G141" t="n">
+        <v>48204.66666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>47342</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5708,18 +6297,21 @@
         <v>14.4453</v>
       </c>
       <c r="G142" t="n">
+        <v>48252</v>
+      </c>
+      <c r="H142" t="n">
         <v>47376.16666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5743,18 +6335,21 @@
         <v>0.0603</v>
       </c>
       <c r="G143" t="n">
+        <v>48299.33333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>47427.66666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,18 +6373,21 @@
         <v>12.4811</v>
       </c>
       <c r="G144" t="n">
+        <v>48383.33333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>47486</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5813,18 +6411,21 @@
         <v>19.1503</v>
       </c>
       <c r="G145" t="n">
+        <v>48454</v>
+      </c>
+      <c r="H145" t="n">
         <v>47540.83333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,18 +6449,21 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
+        <v>48526.66666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>47593.83333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5883,18 +6487,21 @@
         <v>1.7946</v>
       </c>
       <c r="G147" t="n">
+        <v>48614</v>
+      </c>
+      <c r="H147" t="n">
         <v>47632.33333333334</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5918,18 +6525,21 @@
         <v>0.6034</v>
       </c>
       <c r="G148" t="n">
+        <v>48535.33333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>47670.33333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,18 +6563,21 @@
         <v>0.0624</v>
       </c>
       <c r="G149" t="n">
+        <v>48470</v>
+      </c>
+      <c r="H149" t="n">
         <v>47708.83333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,18 +6601,21 @@
         <v>46.0168</v>
       </c>
       <c r="G150" t="n">
+        <v>48434.66666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>47743.33333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6023,18 +6639,21 @@
         <v>10.3325</v>
       </c>
       <c r="G151" t="n">
+        <v>48458.66666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>47774.5</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,18 +6677,401 @@
         <v>0.975</v>
       </c>
       <c r="G152" t="n">
+        <v>48390</v>
+      </c>
+      <c r="H152" t="n">
         <v>47797.5</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>48200</v>
+      </c>
+      <c r="C153" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D153" t="n">
+        <v>48200</v>
+      </c>
+      <c r="E153" t="n">
+        <v>48000</v>
+      </c>
+      <c r="F153" t="n">
+        <v>70.9847</v>
+      </c>
+      <c r="G153" t="n">
+        <v>48317.33333333334</v>
+      </c>
+      <c r="H153" t="n">
+        <v>47815.83333333334</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>47670</v>
+      </c>
+      <c r="C154" t="n">
+        <v>47970</v>
+      </c>
+      <c r="D154" t="n">
+        <v>47970</v>
+      </c>
+      <c r="E154" t="n">
+        <v>47670</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11.8265</v>
+      </c>
+      <c r="G154" t="n">
+        <v>48301.33333333334</v>
+      </c>
+      <c r="H154" t="n">
+        <v>47830.33333333334</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>47790</v>
+      </c>
+      <c r="C155" t="n">
+        <v>47790</v>
+      </c>
+      <c r="D155" t="n">
+        <v>47790</v>
+      </c>
+      <c r="E155" t="n">
+        <v>47790</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.9227</v>
+      </c>
+      <c r="G155" t="n">
+        <v>48273.33333333334</v>
+      </c>
+      <c r="H155" t="n">
+        <v>47843</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>47790</v>
+      </c>
+      <c r="C156" t="n">
+        <v>47790</v>
+      </c>
+      <c r="D156" t="n">
+        <v>47790</v>
+      </c>
+      <c r="E156" t="n">
+        <v>47790</v>
+      </c>
+      <c r="F156" t="n">
+        <v>22.0832</v>
+      </c>
+      <c r="G156" t="n">
+        <v>48245.33333333334</v>
+      </c>
+      <c r="H156" t="n">
+        <v>47855.66666666666</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>47620</v>
+      </c>
+      <c r="C157" t="n">
+        <v>47620</v>
+      </c>
+      <c r="D157" t="n">
+        <v>47620</v>
+      </c>
+      <c r="E157" t="n">
+        <v>47620</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8.158899999999999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>48206</v>
+      </c>
+      <c r="H157" t="n">
+        <v>47862.66666666666</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>47830</v>
+      </c>
+      <c r="C158" t="n">
+        <v>47830</v>
+      </c>
+      <c r="D158" t="n">
+        <v>47830</v>
+      </c>
+      <c r="E158" t="n">
+        <v>47830</v>
+      </c>
+      <c r="F158" t="n">
+        <v>40</v>
+      </c>
+      <c r="G158" t="n">
+        <v>48180.66666666666</v>
+      </c>
+      <c r="H158" t="n">
+        <v>47866.66666666666</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>47700</v>
+      </c>
+      <c r="C159" t="n">
+        <v>47700</v>
+      </c>
+      <c r="D159" t="n">
+        <v>47700</v>
+      </c>
+      <c r="E159" t="n">
+        <v>47700</v>
+      </c>
+      <c r="F159" t="n">
+        <v>16.9982</v>
+      </c>
+      <c r="G159" t="n">
+        <v>48120.66666666666</v>
+      </c>
+      <c r="H159" t="n">
+        <v>47868.33333333334</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>47700</v>
+      </c>
+      <c r="C160" t="n">
+        <v>47700</v>
+      </c>
+      <c r="D160" t="n">
+        <v>47700</v>
+      </c>
+      <c r="E160" t="n">
+        <v>47700</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G160" t="n">
+        <v>48074</v>
+      </c>
+      <c r="H160" t="n">
+        <v>47859.83333333334</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>47700</v>
+      </c>
+      <c r="C161" t="n">
+        <v>47690</v>
+      </c>
+      <c r="D161" t="n">
+        <v>47700</v>
+      </c>
+      <c r="E161" t="n">
+        <v>47690</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>48026.66666666666</v>
+      </c>
+      <c r="H161" t="n">
+        <v>47851.16666666666</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>47690</v>
+      </c>
+      <c r="C162" t="n">
+        <v>47690</v>
+      </c>
+      <c r="D162" t="n">
+        <v>47690</v>
+      </c>
+      <c r="E162" t="n">
+        <v>47690</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="G162" t="n">
+        <v>47975.33333333334</v>
+      </c>
+      <c r="H162" t="n">
+        <v>47843.16666666666</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-28 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>43950</v>
+        <v>44920</v>
       </c>
       <c r="C2" t="n">
-        <v>43950</v>
+        <v>44920</v>
       </c>
       <c r="D2" t="n">
-        <v>43950</v>
+        <v>44920</v>
       </c>
       <c r="E2" t="n">
-        <v>43950</v>
+        <v>44920</v>
       </c>
       <c r="F2" t="n">
-        <v>0.47</v>
+        <v>4.5859</v>
       </c>
       <c r="G2" t="n">
-        <v>-172.46171292</v>
+        <v>44923.33333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,483 +467,597 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>43880</v>
+        <v>44910</v>
       </c>
       <c r="C3" t="n">
-        <v>43880</v>
+        <v>44910</v>
       </c>
       <c r="D3" t="n">
-        <v>43880</v>
+        <v>44910</v>
       </c>
       <c r="E3" t="n">
-        <v>43880</v>
+        <v>44910</v>
       </c>
       <c r="F3" t="n">
-        <v>4.376</v>
+        <v>7.08</v>
       </c>
       <c r="G3" t="n">
-        <v>-176.83771292</v>
+        <v>44916.66666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>44920</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44920</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43880</v>
+        <v>44180</v>
       </c>
       <c r="C4" t="n">
-        <v>43740</v>
+        <v>44180</v>
       </c>
       <c r="D4" t="n">
-        <v>43880</v>
+        <v>44180</v>
       </c>
       <c r="E4" t="n">
-        <v>43740</v>
+        <v>44180</v>
       </c>
       <c r="F4" t="n">
-        <v>7.4099</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-184.24761292</v>
+        <v>44670</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>44910</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43990</v>
+        <v>44210</v>
       </c>
       <c r="C5" t="n">
-        <v>44000</v>
+        <v>44210</v>
       </c>
       <c r="D5" t="n">
-        <v>44000</v>
+        <v>44210</v>
       </c>
       <c r="E5" t="n">
-        <v>43990</v>
+        <v>44210</v>
       </c>
       <c r="F5" t="n">
-        <v>11.9829</v>
+        <v>1.6271</v>
       </c>
       <c r="G5" t="n">
-        <v>-172.26471292</v>
+        <v>44433.33333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>44180</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44220</v>
+        <v>44500</v>
       </c>
       <c r="C6" t="n">
+        <v>44160</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>44160</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44183.33333333334</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>44210</v>
       </c>
-      <c r="D6" t="n">
-        <v>44220</v>
-      </c>
-      <c r="E6" t="n">
-        <v>44210</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.7241</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-164.54061292</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44330</v>
+        <v>44150</v>
       </c>
       <c r="C7" t="n">
-        <v>44330</v>
+        <v>44160</v>
       </c>
       <c r="D7" t="n">
-        <v>44330</v>
+        <v>44160</v>
       </c>
       <c r="E7" t="n">
-        <v>44330</v>
+        <v>44150</v>
       </c>
       <c r="F7" t="n">
-        <v>18.5279</v>
+        <v>0.85</v>
       </c>
       <c r="G7" t="n">
-        <v>-146.01271292</v>
+        <v>44176.66666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>44160</v>
+      </c>
+      <c r="K7" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44030</v>
+        <v>44160</v>
       </c>
       <c r="C8" t="n">
-        <v>44030</v>
+        <v>44160</v>
       </c>
       <c r="D8" t="n">
-        <v>44030</v>
+        <v>44160</v>
       </c>
       <c r="E8" t="n">
-        <v>44030</v>
+        <v>44160</v>
       </c>
       <c r="F8" t="n">
-        <v>3.4001</v>
+        <v>0.9536</v>
       </c>
       <c r="G8" t="n">
-        <v>-149.41281292</v>
+        <v>44160</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>44160</v>
+      </c>
+      <c r="K8" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43980</v>
+        <v>44160</v>
       </c>
       <c r="C9" t="n">
-        <v>43940</v>
+        <v>44160</v>
       </c>
       <c r="D9" t="n">
-        <v>43980</v>
+        <v>44160</v>
       </c>
       <c r="E9" t="n">
-        <v>43940</v>
+        <v>44160</v>
       </c>
       <c r="F9" t="n">
-        <v>1.6488</v>
+        <v>5.5755</v>
       </c>
       <c r="G9" t="n">
-        <v>-151.06161292</v>
+        <v>44160</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>44160</v>
+      </c>
+      <c r="K9" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44400</v>
+        <v>44900</v>
       </c>
       <c r="C10" t="n">
-        <v>44480</v>
+        <v>44300</v>
       </c>
       <c r="D10" t="n">
-        <v>44480</v>
+        <v>44900</v>
       </c>
       <c r="E10" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="F10" t="n">
-        <v>3.9645</v>
+        <v>10.85</v>
       </c>
       <c r="G10" t="n">
-        <v>-147.09711292</v>
+        <v>44206.66666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>44160</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44890</v>
+        <v>44610</v>
       </c>
       <c r="C11" t="n">
-        <v>45100</v>
+        <v>44620</v>
       </c>
       <c r="D11" t="n">
-        <v>45100</v>
+        <v>44620</v>
       </c>
       <c r="E11" t="n">
-        <v>44890</v>
+        <v>44610</v>
       </c>
       <c r="F11" t="n">
-        <v>18.4479</v>
+        <v>17.0408</v>
       </c>
       <c r="G11" t="n">
-        <v>-128.64921292</v>
+        <v>44360</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>44300</v>
+      </c>
+      <c r="K11" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44990</v>
+        <v>44750</v>
       </c>
       <c r="C12" t="n">
-        <v>44730</v>
+        <v>44750</v>
       </c>
       <c r="D12" t="n">
-        <v>44990</v>
+        <v>44750</v>
       </c>
       <c r="E12" t="n">
-        <v>44730</v>
+        <v>44750</v>
       </c>
       <c r="F12" t="n">
-        <v>1.7514</v>
+        <v>0.1</v>
       </c>
       <c r="G12" t="n">
-        <v>-130.40061292</v>
+        <v>44556.66666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>44620</v>
+      </c>
+      <c r="K12" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44790</v>
+        <v>44740</v>
       </c>
       <c r="C13" t="n">
-        <v>44790</v>
+        <v>44740</v>
       </c>
       <c r="D13" t="n">
-        <v>44790</v>
+        <v>44740</v>
       </c>
       <c r="E13" t="n">
-        <v>44790</v>
+        <v>44740</v>
       </c>
       <c r="F13" t="n">
-        <v>21.2914</v>
+        <v>10.8418</v>
       </c>
       <c r="G13" t="n">
-        <v>-109.10921292</v>
+        <v>44703.33333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>44750</v>
+      </c>
+      <c r="K13" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>44830</v>
+        <v>44730</v>
       </c>
       <c r="C14" t="n">
-        <v>44830</v>
+        <v>44740</v>
       </c>
       <c r="D14" t="n">
-        <v>44830</v>
+        <v>44740</v>
       </c>
       <c r="E14" t="n">
-        <v>44830</v>
+        <v>44730</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8757</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>-108.23351292</v>
+        <v>44743.33333333334</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>44740</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>45100</v>
+        <v>44790</v>
       </c>
       <c r="C15" t="n">
-        <v>45330</v>
+        <v>44800</v>
       </c>
       <c r="D15" t="n">
-        <v>45360</v>
+        <v>44800</v>
       </c>
       <c r="E15" t="n">
-        <v>45100</v>
+        <v>44790</v>
       </c>
       <c r="F15" t="n">
-        <v>72.1593</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>-36.07421292000002</v>
+        <v>44760</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>44740</v>
+      </c>
+      <c r="K15" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45330</v>
+        <v>44880</v>
       </c>
       <c r="C16" t="n">
-        <v>45100</v>
+        <v>44950</v>
       </c>
       <c r="D16" t="n">
-        <v>45330</v>
+        <v>44950</v>
       </c>
       <c r="E16" t="n">
-        <v>45100</v>
+        <v>44880</v>
       </c>
       <c r="F16" t="n">
-        <v>28.0319</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>-64.10611292000002</v>
+        <v>44830</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,33 +1066,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45350</v>
+        <v>44510</v>
       </c>
       <c r="C17" t="n">
-        <v>45350</v>
+        <v>44510</v>
       </c>
       <c r="D17" t="n">
-        <v>45350</v>
+        <v>44510</v>
       </c>
       <c r="E17" t="n">
-        <v>45350</v>
+        <v>44510</v>
       </c>
       <c r="F17" t="n">
-        <v>5.4829</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-58.62321292000001</v>
+        <v>44753.33333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,138 +1108,172 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45350</v>
+        <v>44320</v>
       </c>
       <c r="C18" t="n">
-        <v>45350</v>
+        <v>44320</v>
       </c>
       <c r="D18" t="n">
-        <v>45350</v>
+        <v>44320</v>
       </c>
       <c r="E18" t="n">
-        <v>45350</v>
+        <v>44320</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8614000000000001</v>
+        <v>3.316</v>
       </c>
       <c r="G18" t="n">
-        <v>-58.62321292000001</v>
+        <v>44593.33333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>44510</v>
+      </c>
+      <c r="K18" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45320</v>
+        <v>44320</v>
       </c>
       <c r="C19" t="n">
-        <v>45220</v>
+        <v>44320</v>
       </c>
       <c r="D19" t="n">
-        <v>45320</v>
+        <v>44320</v>
       </c>
       <c r="E19" t="n">
-        <v>45220</v>
+        <v>44320</v>
       </c>
       <c r="F19" t="n">
-        <v>21.361</v>
+        <v>2.003</v>
       </c>
       <c r="G19" t="n">
-        <v>-79.98421292000002</v>
+        <v>44383.33333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>44320</v>
+      </c>
+      <c r="K19" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45430</v>
+        <v>44890</v>
       </c>
       <c r="C20" t="n">
-        <v>45440</v>
+        <v>44950</v>
       </c>
       <c r="D20" t="n">
-        <v>45440</v>
+        <v>44950</v>
       </c>
       <c r="E20" t="n">
-        <v>45430</v>
+        <v>44890</v>
       </c>
       <c r="F20" t="n">
-        <v>3.6887</v>
+        <v>7.363</v>
       </c>
       <c r="G20" t="n">
-        <v>-76.29551292000002</v>
+        <v>44530</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>44320</v>
+      </c>
+      <c r="K20" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45490</v>
+        <v>45310</v>
       </c>
       <c r="C21" t="n">
-        <v>45490</v>
+        <v>45400</v>
       </c>
       <c r="D21" t="n">
-        <v>45490</v>
+        <v>45400</v>
       </c>
       <c r="E21" t="n">
-        <v>45490</v>
+        <v>45310</v>
       </c>
       <c r="F21" t="n">
-        <v>2.7636</v>
+        <v>20.259</v>
       </c>
       <c r="G21" t="n">
-        <v>-73.53191292000002</v>
+        <v>44890</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1282,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>45500</v>
+        <v>44530</v>
       </c>
       <c r="C22" t="n">
-        <v>45500</v>
+        <v>44530</v>
       </c>
       <c r="D22" t="n">
-        <v>45500</v>
+        <v>44530</v>
       </c>
       <c r="E22" t="n">
-        <v>45500</v>
+        <v>44530</v>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>0.924</v>
       </c>
       <c r="G22" t="n">
-        <v>-72.49191292000002</v>
+        <v>44960</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1324,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45490</v>
+        <v>45290</v>
       </c>
       <c r="C23" t="n">
-        <v>45490</v>
+        <v>45290</v>
       </c>
       <c r="D23" t="n">
-        <v>45490</v>
+        <v>45290</v>
       </c>
       <c r="E23" t="n">
-        <v>45490</v>
+        <v>45290</v>
       </c>
       <c r="F23" t="n">
-        <v>4.8309</v>
+        <v>0.24031795</v>
       </c>
       <c r="G23" t="n">
-        <v>-77.32281292000002</v>
+        <v>45073.33333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1366,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45430</v>
+        <v>45270</v>
       </c>
       <c r="C24" t="n">
-        <v>45430</v>
+        <v>45300</v>
       </c>
       <c r="D24" t="n">
-        <v>45430</v>
+        <v>45300</v>
       </c>
       <c r="E24" t="n">
-        <v>45430</v>
+        <v>45270</v>
       </c>
       <c r="F24" t="n">
-        <v>6.0219</v>
+        <v>53.4761</v>
       </c>
       <c r="G24" t="n">
-        <v>-83.34471292000002</v>
+        <v>45040</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1408,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45310</v>
+        <v>45300</v>
       </c>
       <c r="C25" t="n">
-        <v>45310</v>
+        <v>45300</v>
       </c>
       <c r="D25" t="n">
-        <v>45310</v>
+        <v>45300</v>
       </c>
       <c r="E25" t="n">
-        <v>45310</v>
+        <v>45300</v>
       </c>
       <c r="F25" t="n">
-        <v>7.7712</v>
+        <v>0.2407</v>
       </c>
       <c r="G25" t="n">
-        <v>-91.11591292000003</v>
+        <v>45296.66666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1450,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>45310</v>
+        <v>45300</v>
       </c>
       <c r="C26" t="n">
-        <v>45050</v>
+        <v>45300</v>
       </c>
       <c r="D26" t="n">
-        <v>45310</v>
+        <v>45300</v>
       </c>
       <c r="E26" t="n">
-        <v>45050</v>
+        <v>45300</v>
       </c>
       <c r="F26" t="n">
-        <v>12.3218</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-103.43771292</v>
+        <v>45300</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1492,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44990</v>
+        <v>45400</v>
       </c>
       <c r="C27" t="n">
-        <v>44990</v>
+        <v>45400</v>
       </c>
       <c r="D27" t="n">
-        <v>44990</v>
+        <v>45400</v>
       </c>
       <c r="E27" t="n">
-        <v>44990</v>
+        <v>45400</v>
       </c>
       <c r="F27" t="n">
-        <v>24.4802</v>
+        <v>0.01</v>
       </c>
       <c r="G27" t="n">
-        <v>-127.91791292</v>
+        <v>45333.33333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1534,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>44990</v>
+        <v>45300</v>
       </c>
       <c r="C28" t="n">
-        <v>44990</v>
+        <v>45300</v>
       </c>
       <c r="D28" t="n">
-        <v>44990</v>
+        <v>45300</v>
       </c>
       <c r="E28" t="n">
-        <v>44990</v>
+        <v>45300</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1602</v>
+        <v>164.4437</v>
       </c>
       <c r="G28" t="n">
-        <v>-127.91791292</v>
+        <v>45333.33333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1576,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>44930</v>
+        <v>45390</v>
       </c>
       <c r="C29" t="n">
-        <v>44930</v>
+        <v>45400</v>
       </c>
       <c r="D29" t="n">
-        <v>44930</v>
+        <v>45400</v>
       </c>
       <c r="E29" t="n">
-        <v>44930</v>
+        <v>45390</v>
       </c>
       <c r="F29" t="n">
-        <v>9.609400000000001</v>
+        <v>7.3427</v>
       </c>
       <c r="G29" t="n">
-        <v>-137.52731292</v>
+        <v>45366.66666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1618,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>44980</v>
+        <v>45390</v>
       </c>
       <c r="C30" t="n">
-        <v>44980</v>
+        <v>45400</v>
       </c>
       <c r="D30" t="n">
-        <v>44980</v>
+        <v>45400</v>
       </c>
       <c r="E30" t="n">
-        <v>44980</v>
+        <v>45390</v>
       </c>
       <c r="F30" t="n">
-        <v>1.8463</v>
+        <v>26.5</v>
       </c>
       <c r="G30" t="n">
-        <v>-135.68101292</v>
+        <v>45366.66666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1660,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>44960</v>
+        <v>44550</v>
       </c>
       <c r="C31" t="n">
-        <v>45010</v>
+        <v>44550</v>
       </c>
       <c r="D31" t="n">
-        <v>45010</v>
+        <v>44550</v>
       </c>
       <c r="E31" t="n">
-        <v>44960</v>
+        <v>44550</v>
       </c>
       <c r="F31" t="n">
-        <v>9.825200000000001</v>
+        <v>0.55</v>
       </c>
       <c r="G31" t="n">
-        <v>-125.85581292</v>
+        <v>45116.66666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1702,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>44930</v>
+        <v>44550</v>
       </c>
       <c r="C32" t="n">
-        <v>44930</v>
+        <v>44000</v>
       </c>
       <c r="D32" t="n">
-        <v>44930</v>
+        <v>44550</v>
       </c>
       <c r="E32" t="n">
-        <v>44930</v>
+        <v>44000</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8218</v>
+        <v>80.015</v>
       </c>
       <c r="G32" t="n">
-        <v>-126.67761292</v>
+        <v>44650</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1744,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>45070</v>
+        <v>44100</v>
       </c>
       <c r="C33" t="n">
-        <v>45040</v>
+        <v>44100</v>
       </c>
       <c r="D33" t="n">
-        <v>45070</v>
+        <v>44100</v>
       </c>
       <c r="E33" t="n">
-        <v>45040</v>
+        <v>44100</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8218</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>-125.85581292</v>
+        <v>44216.66666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1786,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>45030</v>
+        <v>44100</v>
       </c>
       <c r="C34" t="n">
-        <v>45040</v>
+        <v>43920</v>
       </c>
       <c r="D34" t="n">
-        <v>45040</v>
+        <v>44100</v>
       </c>
       <c r="E34" t="n">
-        <v>45030</v>
+        <v>43920</v>
       </c>
       <c r="F34" t="n">
-        <v>5.4186</v>
+        <v>14.4749</v>
       </c>
       <c r="G34" t="n">
-        <v>-125.85581292</v>
+        <v>44006.66666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1828,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>45130</v>
+        <v>44260</v>
       </c>
       <c r="C35" t="n">
-        <v>45040</v>
+        <v>44260</v>
       </c>
       <c r="D35" t="n">
-        <v>45140</v>
+        <v>44260</v>
       </c>
       <c r="E35" t="n">
-        <v>45040</v>
+        <v>44260</v>
       </c>
       <c r="F35" t="n">
-        <v>5.6639</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>-125.85581292</v>
+        <v>44093.33333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1870,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>44900</v>
+        <v>44260</v>
       </c>
       <c r="C36" t="n">
-        <v>44900</v>
+        <v>44260</v>
       </c>
       <c r="D36" t="n">
-        <v>44900</v>
+        <v>44260</v>
       </c>
       <c r="E36" t="n">
-        <v>44900</v>
+        <v>44260</v>
       </c>
       <c r="F36" t="n">
-        <v>3.5401</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>-129.39591292</v>
+        <v>44146.66666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1912,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44790</v>
+        <v>44260</v>
       </c>
       <c r="C37" t="n">
-        <v>44790</v>
+        <v>44260</v>
       </c>
       <c r="D37" t="n">
-        <v>44790</v>
+        <v>44260</v>
       </c>
       <c r="E37" t="n">
-        <v>44790</v>
+        <v>44260</v>
       </c>
       <c r="F37" t="n">
-        <v>1.899</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-131.29491292</v>
+        <v>44260</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1954,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>44450</v>
+        <v>43940</v>
       </c>
       <c r="C38" t="n">
-        <v>44450</v>
+        <v>43920</v>
       </c>
       <c r="D38" t="n">
-        <v>44450</v>
+        <v>43940</v>
       </c>
       <c r="E38" t="n">
-        <v>44450</v>
+        <v>43920</v>
       </c>
       <c r="F38" t="n">
-        <v>0.43</v>
+        <v>21.2382</v>
       </c>
       <c r="G38" t="n">
-        <v>-131.72491292</v>
+        <v>44146.66666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,33 +1996,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>44360</v>
+        <v>44350</v>
       </c>
       <c r="C39" t="n">
-        <v>44360</v>
+        <v>44350</v>
       </c>
       <c r="D39" t="n">
-        <v>44360</v>
+        <v>44350</v>
       </c>
       <c r="E39" t="n">
-        <v>44360</v>
+        <v>44350</v>
       </c>
       <c r="F39" t="n">
-        <v>2.4692</v>
+        <v>9.6</v>
       </c>
       <c r="G39" t="n">
-        <v>-134.19411292</v>
+        <v>44176.66666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +2038,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>44450</v>
+        <v>43930</v>
       </c>
       <c r="C40" t="n">
-        <v>44450</v>
+        <v>43850</v>
       </c>
       <c r="D40" t="n">
-        <v>44450</v>
+        <v>43930</v>
       </c>
       <c r="E40" t="n">
-        <v>44450</v>
+        <v>43850</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1975</v>
+        <v>7.4197</v>
       </c>
       <c r="G40" t="n">
-        <v>-133.99661292</v>
+        <v>44040</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +2080,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>44960</v>
+        <v>43890</v>
       </c>
       <c r="C41" t="n">
-        <v>44960</v>
+        <v>43890</v>
       </c>
       <c r="D41" t="n">
-        <v>44960</v>
+        <v>43890</v>
       </c>
       <c r="E41" t="n">
-        <v>44960</v>
+        <v>43890</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>-131.99661292</v>
+        <v>44030</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +2122,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>44930</v>
+        <v>43850</v>
       </c>
       <c r="C42" t="n">
-        <v>44930</v>
+        <v>43850</v>
       </c>
       <c r="D42" t="n">
-        <v>44930</v>
+        <v>43850</v>
       </c>
       <c r="E42" t="n">
-        <v>44930</v>
+        <v>43850</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1975</v>
+        <v>1.7926</v>
       </c>
       <c r="G42" t="n">
-        <v>-132.19411292</v>
+        <v>43863.33333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +2164,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>44920</v>
+        <v>43850</v>
       </c>
       <c r="C43" t="n">
-        <v>44920</v>
+        <v>43850</v>
       </c>
       <c r="D43" t="n">
-        <v>44920</v>
+        <v>43850</v>
       </c>
       <c r="E43" t="n">
-        <v>44920</v>
+        <v>43850</v>
       </c>
       <c r="F43" t="n">
-        <v>37.8495</v>
+        <v>0.2408</v>
       </c>
       <c r="G43" t="n">
-        <v>-170.04361292</v>
+        <v>43863.33333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,107 +2206,126 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>44920</v>
+        <v>44500</v>
       </c>
       <c r="C44" t="n">
-        <v>44920</v>
+        <v>44840</v>
       </c>
       <c r="D44" t="n">
-        <v>44920</v>
+        <v>44840</v>
       </c>
       <c r="E44" t="n">
-        <v>44920</v>
+        <v>44500</v>
       </c>
       <c r="F44" t="n">
-        <v>4.5859</v>
+        <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>-170.04361292</v>
+        <v>44180</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>43850</v>
+      </c>
+      <c r="K44" t="n">
+        <v>44920</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>44910</v>
+        <v>44950</v>
       </c>
       <c r="C45" t="n">
-        <v>44910</v>
+        <v>44950</v>
       </c>
       <c r="D45" t="n">
-        <v>44910</v>
+        <v>44950</v>
       </c>
       <c r="E45" t="n">
-        <v>44910</v>
+        <v>44950</v>
       </c>
       <c r="F45" t="n">
-        <v>7.08</v>
+        <v>0.43</v>
       </c>
       <c r="G45" t="n">
-        <v>-177.12361292</v>
+        <v>44546.66666666666</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>44920</v>
       </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44180</v>
+        <v>44950</v>
       </c>
       <c r="C46" t="n">
-        <v>44180</v>
+        <v>44950</v>
       </c>
       <c r="D46" t="n">
-        <v>44180</v>
+        <v>44950</v>
       </c>
       <c r="E46" t="n">
-        <v>44180</v>
+        <v>44950</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1</v>
+        <v>1.875</v>
       </c>
       <c r="G46" t="n">
-        <v>-177.22361292</v>
+        <v>44913.33333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2006,34 +2339,35 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44210</v>
+        <v>44950</v>
       </c>
       <c r="C47" t="n">
-        <v>44210</v>
+        <v>45330</v>
       </c>
       <c r="D47" t="n">
-        <v>44210</v>
+        <v>45340</v>
       </c>
       <c r="E47" t="n">
-        <v>44210</v>
+        <v>44790</v>
       </c>
       <c r="F47" t="n">
-        <v>1.6271</v>
+        <v>4.4178</v>
       </c>
       <c r="G47" t="n">
-        <v>-175.59651292</v>
+        <v>45076.66666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2047,34 +2381,35 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>44500</v>
+        <v>45230</v>
       </c>
       <c r="C48" t="n">
-        <v>44160</v>
+        <v>45230</v>
       </c>
       <c r="D48" t="n">
-        <v>44500</v>
+        <v>45230</v>
       </c>
       <c r="E48" t="n">
-        <v>44160</v>
+        <v>45230</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>0.5349</v>
       </c>
       <c r="G48" t="n">
-        <v>-275.59651292</v>
+        <v>45170</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2083,41 +2418,42 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>44210</v>
+        <v>45330</v>
       </c>
       <c r="K48" t="n">
         <v>44920</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>44150</v>
+        <v>44840</v>
       </c>
       <c r="C49" t="n">
-        <v>44160</v>
+        <v>44840</v>
       </c>
       <c r="D49" t="n">
-        <v>44160</v>
+        <v>44840</v>
       </c>
       <c r="E49" t="n">
-        <v>44150</v>
+        <v>44840</v>
       </c>
       <c r="F49" t="n">
-        <v>0.85</v>
+        <v>0.1</v>
       </c>
       <c r="G49" t="n">
-        <v>-275.59651292</v>
+        <v>45133.33333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2137,36 +2473,39 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44160</v>
+        <v>45260</v>
       </c>
       <c r="C50" t="n">
-        <v>44160</v>
+        <v>45260</v>
       </c>
       <c r="D50" t="n">
-        <v>44160</v>
+        <v>45260</v>
       </c>
       <c r="E50" t="n">
-        <v>44160</v>
+        <v>45260</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9536</v>
+        <v>0.01</v>
       </c>
       <c r="G50" t="n">
-        <v>-275.59651292</v>
+        <v>45110</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>44840</v>
+      </c>
       <c r="K50" t="n">
         <v>44920</v>
       </c>
@@ -2178,28 +2517,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>44160</v>
+        <v>44910</v>
       </c>
       <c r="C51" t="n">
-        <v>44160</v>
+        <v>44910</v>
       </c>
       <c r="D51" t="n">
-        <v>44160</v>
+        <v>44910</v>
       </c>
       <c r="E51" t="n">
-        <v>44160</v>
+        <v>44910</v>
       </c>
       <c r="F51" t="n">
-        <v>5.5755</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>-275.59651292</v>
+        <v>45003.33333333334</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2208,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>44160</v>
+        <v>45260</v>
       </c>
       <c r="K51" t="n">
         <v>44920</v>
@@ -2221,36 +2561,39 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>44900</v>
+        <v>44910</v>
       </c>
       <c r="C52" t="n">
-        <v>44300</v>
+        <v>44910</v>
       </c>
       <c r="D52" t="n">
-        <v>44900</v>
+        <v>44910</v>
       </c>
       <c r="E52" t="n">
-        <v>44300</v>
+        <v>44910</v>
       </c>
       <c r="F52" t="n">
-        <v>10.85</v>
+        <v>9.3752</v>
       </c>
       <c r="G52" t="n">
-        <v>-264.74651292</v>
+        <v>45026.66666666666</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>44910</v>
+      </c>
       <c r="K52" t="n">
         <v>44920</v>
       </c>
@@ -2262,28 +2605,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>44610</v>
+        <v>44970</v>
       </c>
       <c r="C53" t="n">
-        <v>44620</v>
+        <v>44970</v>
       </c>
       <c r="D53" t="n">
-        <v>44620</v>
+        <v>44970</v>
       </c>
       <c r="E53" t="n">
-        <v>44610</v>
+        <v>44970</v>
       </c>
       <c r="F53" t="n">
-        <v>17.0408</v>
+        <v>13</v>
       </c>
       <c r="G53" t="n">
-        <v>-247.70571292</v>
+        <v>44930</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2292,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>44300</v>
+        <v>44910</v>
       </c>
       <c r="K53" t="n">
         <v>44920</v>
@@ -2305,28 +2649,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>44750</v>
+        <v>45110</v>
       </c>
       <c r="C54" t="n">
-        <v>44750</v>
+        <v>45110</v>
       </c>
       <c r="D54" t="n">
-        <v>44750</v>
+        <v>45110</v>
       </c>
       <c r="E54" t="n">
-        <v>44750</v>
+        <v>45110</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1</v>
+        <v>9.333600000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>-247.60571292</v>
+        <v>44996.66666666666</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2335,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>44620</v>
+        <v>44970</v>
       </c>
       <c r="K54" t="n">
         <v>44920</v>
@@ -2348,28 +2693,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>44740</v>
+        <v>45170</v>
       </c>
       <c r="C55" t="n">
-        <v>44740</v>
+        <v>45170</v>
       </c>
       <c r="D55" t="n">
-        <v>44740</v>
+        <v>45170</v>
       </c>
       <c r="E55" t="n">
-        <v>44740</v>
+        <v>45170</v>
       </c>
       <c r="F55" t="n">
-        <v>10.8418</v>
+        <v>4.4277</v>
       </c>
       <c r="G55" t="n">
-        <v>-258.44751292</v>
+        <v>45083.33333333334</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2378,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>44750</v>
+        <v>45110</v>
       </c>
       <c r="K55" t="n">
         <v>44920</v>
@@ -2391,38 +2737,37 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>44730</v>
+        <v>45170</v>
       </c>
       <c r="C56" t="n">
-        <v>44740</v>
+        <v>45170</v>
       </c>
       <c r="D56" t="n">
-        <v>44740</v>
+        <v>45170</v>
       </c>
       <c r="E56" t="n">
-        <v>44730</v>
+        <v>45170</v>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>23.1291</v>
       </c>
       <c r="G56" t="n">
-        <v>-258.44751292</v>
+        <v>45150</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>44740</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>44920</v>
       </c>
@@ -2434,28 +2779,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>44790</v>
+        <v>45230</v>
       </c>
       <c r="C57" t="n">
-        <v>44800</v>
+        <v>45350</v>
       </c>
       <c r="D57" t="n">
-        <v>44800</v>
+        <v>45350</v>
       </c>
       <c r="E57" t="n">
-        <v>44790</v>
+        <v>45230</v>
       </c>
       <c r="F57" t="n">
-        <v>18</v>
+        <v>8.588200000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-240.44751292</v>
+        <v>45230</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2475,28 +2821,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>44880</v>
+        <v>45350</v>
       </c>
       <c r="C58" t="n">
-        <v>44950</v>
+        <v>45350</v>
       </c>
       <c r="D58" t="n">
-        <v>44950</v>
+        <v>45350</v>
       </c>
       <c r="E58" t="n">
-        <v>44880</v>
+        <v>45350</v>
       </c>
       <c r="F58" t="n">
-        <v>14</v>
+        <v>0.1393</v>
       </c>
       <c r="G58" t="n">
-        <v>-226.44751292</v>
+        <v>45290</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2516,28 +2863,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>44510</v>
+        <v>45350</v>
       </c>
       <c r="C59" t="n">
-        <v>44510</v>
+        <v>45350</v>
       </c>
       <c r="D59" t="n">
-        <v>44510</v>
+        <v>45350</v>
       </c>
       <c r="E59" t="n">
-        <v>44510</v>
+        <v>45350</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>-227.44751292</v>
+        <v>45350</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2557,28 +2905,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>44320</v>
+        <v>45350</v>
       </c>
       <c r="C60" t="n">
-        <v>44320</v>
+        <v>45400</v>
       </c>
       <c r="D60" t="n">
-        <v>44320</v>
+        <v>45400</v>
       </c>
       <c r="E60" t="n">
-        <v>44320</v>
+        <v>45350</v>
       </c>
       <c r="F60" t="n">
-        <v>3.316</v>
+        <v>36.4052</v>
       </c>
       <c r="G60" t="n">
-        <v>-230.76351292</v>
+        <v>45366.66666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2598,28 +2947,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>44320</v>
+        <v>45770</v>
       </c>
       <c r="C61" t="n">
-        <v>44320</v>
+        <v>46040</v>
       </c>
       <c r="D61" t="n">
-        <v>44320</v>
+        <v>46040</v>
       </c>
       <c r="E61" t="n">
-        <v>44320</v>
+        <v>45770</v>
       </c>
       <c r="F61" t="n">
-        <v>2.003</v>
+        <v>24.9425</v>
       </c>
       <c r="G61" t="n">
-        <v>-230.76351292</v>
+        <v>45596.66666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2639,28 +2989,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>44890</v>
+        <v>45830</v>
       </c>
       <c r="C62" t="n">
-        <v>44950</v>
+        <v>45820</v>
       </c>
       <c r="D62" t="n">
-        <v>44950</v>
+        <v>46240</v>
       </c>
       <c r="E62" t="n">
-        <v>44890</v>
+        <v>45820</v>
       </c>
       <c r="F62" t="n">
-        <v>7.363</v>
+        <v>2.01</v>
       </c>
       <c r="G62" t="n">
-        <v>-223.40051292</v>
+        <v>45753.33333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2680,38 +3031,37 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>45310</v>
+        <v>46060</v>
       </c>
       <c r="C63" t="n">
-        <v>45400</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="n">
-        <v>45400</v>
+        <v>46060</v>
       </c>
       <c r="E63" t="n">
-        <v>45310</v>
+        <v>46060</v>
       </c>
       <c r="F63" t="n">
-        <v>20.259</v>
+        <v>0.01</v>
       </c>
       <c r="G63" t="n">
-        <v>-203.14151292</v>
+        <v>45973.33333333334</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>44950</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>44920</v>
       </c>
@@ -2723,38 +3073,37 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>44530</v>
+        <v>46060</v>
       </c>
       <c r="C64" t="n">
-        <v>44530</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="n">
-        <v>44530</v>
+        <v>46060</v>
       </c>
       <c r="E64" t="n">
-        <v>44530</v>
+        <v>46060</v>
       </c>
       <c r="F64" t="n">
-        <v>0.924</v>
+        <v>5</v>
       </c>
       <c r="G64" t="n">
-        <v>-204.06551292</v>
+        <v>45980</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>45400</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>44920</v>
       </c>
@@ -2766,38 +3115,37 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>45290</v>
+        <v>46040</v>
       </c>
       <c r="C65" t="n">
-        <v>45290</v>
+        <v>46040</v>
       </c>
       <c r="D65" t="n">
-        <v>45290</v>
+        <v>46040</v>
       </c>
       <c r="E65" t="n">
-        <v>45290</v>
+        <v>46040</v>
       </c>
       <c r="F65" t="n">
-        <v>0.24031795</v>
+        <v>6</v>
       </c>
       <c r="G65" t="n">
-        <v>-203.82519497</v>
+        <v>46053.33333333334</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>44530</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>44920</v>
       </c>
@@ -2809,28 +3157,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>45270</v>
+        <v>45950</v>
       </c>
       <c r="C66" t="n">
-        <v>45300</v>
+        <v>45950</v>
       </c>
       <c r="D66" t="n">
-        <v>45300</v>
+        <v>45950</v>
       </c>
       <c r="E66" t="n">
-        <v>45270</v>
+        <v>45950</v>
       </c>
       <c r="F66" t="n">
-        <v>53.4761</v>
+        <v>1.23</v>
       </c>
       <c r="G66" t="n">
-        <v>-150.34909497</v>
+        <v>46016.66666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2850,28 +3199,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>45300</v>
+        <v>45870</v>
       </c>
       <c r="C67" t="n">
-        <v>45300</v>
+        <v>46100</v>
       </c>
       <c r="D67" t="n">
-        <v>45300</v>
+        <v>46100</v>
       </c>
       <c r="E67" t="n">
-        <v>45300</v>
+        <v>45860</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2407</v>
+        <v>21.7755</v>
       </c>
       <c r="G67" t="n">
-        <v>-150.34909497</v>
+        <v>46030</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2891,28 +3241,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>45300</v>
+        <v>46100</v>
       </c>
       <c r="C68" t="n">
-        <v>45300</v>
+        <v>45350</v>
       </c>
       <c r="D68" t="n">
-        <v>45300</v>
+        <v>46100</v>
       </c>
       <c r="E68" t="n">
-        <v>45300</v>
+        <v>45350</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>24.0563</v>
       </c>
       <c r="G68" t="n">
-        <v>-150.34909497</v>
+        <v>45800</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2932,28 +3283,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>45400</v>
+        <v>46160</v>
       </c>
       <c r="C69" t="n">
-        <v>45400</v>
+        <v>46160</v>
       </c>
       <c r="D69" t="n">
-        <v>45400</v>
+        <v>46160</v>
       </c>
       <c r="E69" t="n">
-        <v>45400</v>
+        <v>46160</v>
       </c>
       <c r="F69" t="n">
         <v>0.01</v>
       </c>
       <c r="G69" t="n">
-        <v>-150.33909497</v>
+        <v>45870</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2973,28 +3325,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>45300</v>
+        <v>45120</v>
       </c>
       <c r="C70" t="n">
-        <v>45300</v>
+        <v>45120</v>
       </c>
       <c r="D70" t="n">
-        <v>45300</v>
+        <v>45120</v>
       </c>
       <c r="E70" t="n">
-        <v>45300</v>
+        <v>45120</v>
       </c>
       <c r="F70" t="n">
-        <v>164.4437</v>
+        <v>1.27</v>
       </c>
       <c r="G70" t="n">
-        <v>-314.7827949700001</v>
+        <v>45543.33333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3014,28 +3367,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>45390</v>
+        <v>45100</v>
       </c>
       <c r="C71" t="n">
-        <v>45400</v>
+        <v>45100</v>
       </c>
       <c r="D71" t="n">
-        <v>45400</v>
+        <v>45100</v>
       </c>
       <c r="E71" t="n">
-        <v>45390</v>
+        <v>45100</v>
       </c>
       <c r="F71" t="n">
-        <v>7.3427</v>
+        <v>0.885</v>
       </c>
       <c r="G71" t="n">
-        <v>-307.4400949700001</v>
+        <v>45460</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3055,28 +3409,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>45390</v>
+        <v>45850</v>
       </c>
       <c r="C72" t="n">
-        <v>45400</v>
+        <v>45110</v>
       </c>
       <c r="D72" t="n">
-        <v>45400</v>
+        <v>45850</v>
       </c>
       <c r="E72" t="n">
-        <v>45390</v>
+        <v>45110</v>
       </c>
       <c r="F72" t="n">
-        <v>26.5</v>
+        <v>1.9313</v>
       </c>
       <c r="G72" t="n">
-        <v>-307.4400949700001</v>
+        <v>45110</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3096,28 +3451,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>44550</v>
+        <v>45220</v>
       </c>
       <c r="C73" t="n">
-        <v>44550</v>
+        <v>45220</v>
       </c>
       <c r="D73" t="n">
-        <v>44550</v>
+        <v>45220</v>
       </c>
       <c r="E73" t="n">
-        <v>44550</v>
+        <v>45220</v>
       </c>
       <c r="F73" t="n">
-        <v>0.55</v>
+        <v>1.0509</v>
       </c>
       <c r="G73" t="n">
-        <v>-307.9900949700001</v>
+        <v>45143.33333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3137,28 +3493,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>44550</v>
+        <v>46010</v>
       </c>
       <c r="C74" t="n">
-        <v>44000</v>
+        <v>46150</v>
       </c>
       <c r="D74" t="n">
-        <v>44550</v>
+        <v>46150</v>
       </c>
       <c r="E74" t="n">
-        <v>44000</v>
+        <v>45950</v>
       </c>
       <c r="F74" t="n">
-        <v>80.015</v>
+        <v>57.3808</v>
       </c>
       <c r="G74" t="n">
-        <v>-388.0050949700001</v>
+        <v>45493.33333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3178,28 +3535,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>44100</v>
+        <v>46150</v>
       </c>
       <c r="C75" t="n">
-        <v>44100</v>
+        <v>46160</v>
       </c>
       <c r="D75" t="n">
-        <v>44100</v>
+        <v>46160</v>
       </c>
       <c r="E75" t="n">
-        <v>44100</v>
+        <v>46150</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>89.01819999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>-378.0050949700001</v>
+        <v>45843.33333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3219,28 +3577,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>44100</v>
+        <v>46170</v>
       </c>
       <c r="C76" t="n">
-        <v>43920</v>
+        <v>46160</v>
       </c>
       <c r="D76" t="n">
-        <v>44100</v>
+        <v>46170</v>
       </c>
       <c r="E76" t="n">
-        <v>43920</v>
+        <v>46160</v>
       </c>
       <c r="F76" t="n">
-        <v>14.4749</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>-392.4799949700001</v>
+        <v>46156.66666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3260,28 +3619,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>44260</v>
+        <v>46400</v>
       </c>
       <c r="C77" t="n">
-        <v>44260</v>
+        <v>46400</v>
       </c>
       <c r="D77" t="n">
-        <v>44260</v>
+        <v>46400</v>
       </c>
       <c r="E77" t="n">
-        <v>44260</v>
+        <v>46400</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1.0197</v>
       </c>
       <c r="G77" t="n">
-        <v>-390.4799949700001</v>
+        <v>46240</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3301,28 +3661,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>44260</v>
+        <v>46400</v>
       </c>
       <c r="C78" t="n">
-        <v>44260</v>
+        <v>46400</v>
       </c>
       <c r="D78" t="n">
-        <v>44260</v>
+        <v>46400</v>
       </c>
       <c r="E78" t="n">
-        <v>44260</v>
+        <v>46400</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2.5103</v>
       </c>
       <c r="G78" t="n">
-        <v>-390.4799949700001</v>
+        <v>46320</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3342,38 +3703,37 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44260</v>
+        <v>46820</v>
       </c>
       <c r="C79" t="n">
-        <v>44260</v>
+        <v>46820</v>
       </c>
       <c r="D79" t="n">
-        <v>44260</v>
+        <v>46820</v>
       </c>
       <c r="E79" t="n">
-        <v>44260</v>
+        <v>46820</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>14.6467</v>
       </c>
       <c r="G79" t="n">
-        <v>-390.4799949700001</v>
+        <v>46540</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>44260</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>44920</v>
       </c>
@@ -3385,28 +3745,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>43940</v>
+        <v>46890</v>
       </c>
       <c r="C80" t="n">
-        <v>43920</v>
+        <v>46900</v>
       </c>
       <c r="D80" t="n">
-        <v>43940</v>
+        <v>46900</v>
       </c>
       <c r="E80" t="n">
-        <v>43920</v>
+        <v>46890</v>
       </c>
       <c r="F80" t="n">
-        <v>21.2382</v>
+        <v>68.35446708000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-411.7181949700001</v>
+        <v>46706.66666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3426,28 +3787,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>44350</v>
+        <v>47000</v>
       </c>
       <c r="C81" t="n">
-        <v>44350</v>
+        <v>47100</v>
       </c>
       <c r="D81" t="n">
-        <v>44350</v>
+        <v>47100</v>
       </c>
       <c r="E81" t="n">
-        <v>44350</v>
+        <v>47000</v>
       </c>
       <c r="F81" t="n">
-        <v>9.6</v>
+        <v>18.9074</v>
       </c>
       <c r="G81" t="n">
-        <v>-402.11819497</v>
+        <v>46940</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3467,28 +3829,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>43930</v>
+        <v>47100</v>
       </c>
       <c r="C82" t="n">
-        <v>43850</v>
+        <v>47030</v>
       </c>
       <c r="D82" t="n">
-        <v>43930</v>
+        <v>47100</v>
       </c>
       <c r="E82" t="n">
-        <v>43850</v>
+        <v>47030</v>
       </c>
       <c r="F82" t="n">
-        <v>7.4197</v>
+        <v>20.2057</v>
       </c>
       <c r="G82" t="n">
-        <v>-409.53789497</v>
+        <v>47010</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3508,28 +3871,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>43890</v>
+        <v>47030</v>
       </c>
       <c r="C83" t="n">
-        <v>43890</v>
+        <v>47030</v>
       </c>
       <c r="D83" t="n">
-        <v>43890</v>
+        <v>47030</v>
       </c>
       <c r="E83" t="n">
-        <v>43890</v>
+        <v>47030</v>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>4.7943</v>
       </c>
       <c r="G83" t="n">
-        <v>-402.53789497</v>
+        <v>47053.33333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3549,28 +3913,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>43850</v>
+        <v>47090</v>
       </c>
       <c r="C84" t="n">
-        <v>43850</v>
+        <v>47200</v>
       </c>
       <c r="D84" t="n">
-        <v>43850</v>
+        <v>47200</v>
       </c>
       <c r="E84" t="n">
-        <v>43850</v>
+        <v>47090</v>
       </c>
       <c r="F84" t="n">
-        <v>1.7926</v>
+        <v>14.18</v>
       </c>
       <c r="G84" t="n">
-        <v>-404.33049497</v>
+        <v>47086.66666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3590,38 +3955,37 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>43850</v>
+        <v>47200</v>
       </c>
       <c r="C85" t="n">
-        <v>43850</v>
+        <v>47590</v>
       </c>
       <c r="D85" t="n">
-        <v>43850</v>
+        <v>47590</v>
       </c>
       <c r="E85" t="n">
-        <v>43850</v>
+        <v>47200</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2408</v>
+        <v>8.9026</v>
       </c>
       <c r="G85" t="n">
-        <v>-404.33049497</v>
+        <v>47273.33333333334</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>43850</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>44920</v>
       </c>
@@ -3633,38 +3997,37 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>44500</v>
+        <v>47590</v>
       </c>
       <c r="C86" t="n">
-        <v>44840</v>
+        <v>47600</v>
       </c>
       <c r="D86" t="n">
-        <v>44840</v>
+        <v>47600</v>
       </c>
       <c r="E86" t="n">
-        <v>44500</v>
+        <v>47590</v>
       </c>
       <c r="F86" t="n">
-        <v>25</v>
+        <v>14.16197136</v>
       </c>
       <c r="G86" t="n">
-        <v>-379.33049497</v>
+        <v>47463.33333333334</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>43850</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>44920</v>
       </c>
@@ -3676,38 +4039,37 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>44950</v>
+        <v>47620</v>
       </c>
       <c r="C87" t="n">
-        <v>44950</v>
+        <v>48210</v>
       </c>
       <c r="D87" t="n">
-        <v>44950</v>
+        <v>48210</v>
       </c>
       <c r="E87" t="n">
-        <v>44950</v>
+        <v>47600</v>
       </c>
       <c r="F87" t="n">
-        <v>0.43</v>
+        <v>182.317</v>
       </c>
       <c r="G87" t="n">
-        <v>-378.90049497</v>
+        <v>47800</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>44840</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>44920</v>
       </c>
@@ -3719,28 +4081,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>44950</v>
+        <v>48210</v>
       </c>
       <c r="C88" t="n">
-        <v>44950</v>
+        <v>48210</v>
       </c>
       <c r="D88" t="n">
-        <v>44950</v>
+        <v>48210</v>
       </c>
       <c r="E88" t="n">
-        <v>44950</v>
+        <v>48210</v>
       </c>
       <c r="F88" t="n">
-        <v>1.875</v>
+        <v>19.9819</v>
       </c>
       <c r="G88" t="n">
-        <v>-378.90049497</v>
+        <v>48006.66666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3760,38 +4123,37 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>44950</v>
+        <v>48180</v>
       </c>
       <c r="C89" t="n">
-        <v>45330</v>
+        <v>48170</v>
       </c>
       <c r="D89" t="n">
-        <v>45340</v>
+        <v>48180</v>
       </c>
       <c r="E89" t="n">
-        <v>44790</v>
+        <v>48170</v>
       </c>
       <c r="F89" t="n">
-        <v>4.4178</v>
+        <v>21.107</v>
       </c>
       <c r="G89" t="n">
-        <v>-374.48269497</v>
+        <v>48196.66666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>44950</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>44920</v>
       </c>
@@ -3803,28 +4165,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>45230</v>
+        <v>48160</v>
       </c>
       <c r="C90" t="n">
-        <v>45230</v>
+        <v>48090</v>
       </c>
       <c r="D90" t="n">
-        <v>45230</v>
+        <v>48160</v>
       </c>
       <c r="E90" t="n">
-        <v>45230</v>
+        <v>48060</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5349</v>
+        <v>37.5278</v>
       </c>
       <c r="G90" t="n">
-        <v>-375.01759497</v>
+        <v>48156.66666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3844,28 +4207,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>44840</v>
+        <v>47590</v>
       </c>
       <c r="C91" t="n">
-        <v>44840</v>
+        <v>47580</v>
       </c>
       <c r="D91" t="n">
-        <v>44840</v>
+        <v>47590</v>
       </c>
       <c r="E91" t="n">
-        <v>44840</v>
+        <v>47580</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1</v>
+        <v>2.1814</v>
       </c>
       <c r="G91" t="n">
-        <v>-375.11759497</v>
+        <v>47946.66666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3885,28 +4249,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>45260</v>
+        <v>47670</v>
       </c>
       <c r="C92" t="n">
-        <v>45260</v>
+        <v>47330</v>
       </c>
       <c r="D92" t="n">
-        <v>45260</v>
+        <v>47670</v>
       </c>
       <c r="E92" t="n">
-        <v>45260</v>
+        <v>47330</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01</v>
+        <v>49.9613</v>
       </c>
       <c r="G92" t="n">
-        <v>-375.10759497</v>
+        <v>47666.66666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3926,28 +4291,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>44910</v>
+        <v>47390</v>
       </c>
       <c r="C93" t="n">
-        <v>44910</v>
+        <v>47390</v>
       </c>
       <c r="D93" t="n">
-        <v>44910</v>
+        <v>47390</v>
       </c>
       <c r="E93" t="n">
-        <v>44910</v>
+        <v>47390</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>1.9614</v>
       </c>
       <c r="G93" t="n">
-        <v>-376.10759497</v>
+        <v>47433.33333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3967,28 +4333,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>44910</v>
+        <v>47030</v>
       </c>
       <c r="C94" t="n">
-        <v>44910</v>
+        <v>47030</v>
       </c>
       <c r="D94" t="n">
-        <v>44910</v>
+        <v>47030</v>
       </c>
       <c r="E94" t="n">
-        <v>44910</v>
+        <v>47030</v>
       </c>
       <c r="F94" t="n">
-        <v>9.3752</v>
+        <v>11.6861</v>
       </c>
       <c r="G94" t="n">
-        <v>-376.10759497</v>
+        <v>47250</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4008,28 +4375,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>44970</v>
+        <v>47450</v>
       </c>
       <c r="C95" t="n">
-        <v>44970</v>
+        <v>47110</v>
       </c>
       <c r="D95" t="n">
-        <v>44970</v>
+        <v>47450</v>
       </c>
       <c r="E95" t="n">
-        <v>44970</v>
+        <v>47110</v>
       </c>
       <c r="F95" t="n">
-        <v>13</v>
+        <v>36.0358</v>
       </c>
       <c r="G95" t="n">
-        <v>-363.10759497</v>
+        <v>47176.66666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4049,28 +4417,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>45110</v>
+        <v>47100</v>
       </c>
       <c r="C96" t="n">
-        <v>45110</v>
+        <v>47090</v>
       </c>
       <c r="D96" t="n">
-        <v>45110</v>
+        <v>47100</v>
       </c>
       <c r="E96" t="n">
-        <v>45110</v>
+        <v>47090</v>
       </c>
       <c r="F96" t="n">
-        <v>9.333600000000001</v>
+        <v>18.0179</v>
       </c>
       <c r="G96" t="n">
-        <v>-353.77399497</v>
+        <v>47076.66666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4090,28 +4459,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>45170</v>
+        <v>47150</v>
       </c>
       <c r="C97" t="n">
-        <v>45170</v>
+        <v>47140</v>
       </c>
       <c r="D97" t="n">
-        <v>45170</v>
+        <v>47150</v>
       </c>
       <c r="E97" t="n">
-        <v>45170</v>
+        <v>47140</v>
       </c>
       <c r="F97" t="n">
-        <v>4.4277</v>
+        <v>8.0815</v>
       </c>
       <c r="G97" t="n">
-        <v>-349.34629497</v>
+        <v>47113.33333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4131,28 +4501,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>45170</v>
+        <v>47120</v>
       </c>
       <c r="C98" t="n">
-        <v>45170</v>
+        <v>47170</v>
       </c>
       <c r="D98" t="n">
-        <v>45170</v>
+        <v>47170</v>
       </c>
       <c r="E98" t="n">
-        <v>45170</v>
+        <v>47120</v>
       </c>
       <c r="F98" t="n">
-        <v>23.1291</v>
+        <v>25.9305</v>
       </c>
       <c r="G98" t="n">
-        <v>-349.34629497</v>
+        <v>47133.33333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4172,28 +4543,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>45230</v>
+        <v>47190</v>
       </c>
       <c r="C99" t="n">
-        <v>45350</v>
+        <v>47030</v>
       </c>
       <c r="D99" t="n">
-        <v>45350</v>
+        <v>47190</v>
       </c>
       <c r="E99" t="n">
-        <v>45230</v>
+        <v>46960</v>
       </c>
       <c r="F99" t="n">
-        <v>8.588200000000001</v>
+        <v>12.8404</v>
       </c>
       <c r="G99" t="n">
-        <v>-340.75809497</v>
+        <v>47113.33333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4213,28 +4585,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>45350</v>
+        <v>47160</v>
       </c>
       <c r="C100" t="n">
-        <v>45350</v>
+        <v>47420</v>
       </c>
       <c r="D100" t="n">
-        <v>45350</v>
+        <v>47420</v>
       </c>
       <c r="E100" t="n">
-        <v>45350</v>
+        <v>47160</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1393</v>
+        <v>2.1164</v>
       </c>
       <c r="G100" t="n">
-        <v>-340.75809497</v>
+        <v>47206.66666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4254,28 +4627,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>45350</v>
+        <v>47300</v>
       </c>
       <c r="C101" t="n">
-        <v>45350</v>
+        <v>47140</v>
       </c>
       <c r="D101" t="n">
-        <v>45350</v>
+        <v>47300</v>
       </c>
       <c r="E101" t="n">
-        <v>45350</v>
+        <v>47140</v>
       </c>
       <c r="F101" t="n">
-        <v>100</v>
+        <v>1.0842</v>
       </c>
       <c r="G101" t="n">
-        <v>-340.75809497</v>
+        <v>47196.66666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4295,28 +4669,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>45350</v>
+        <v>47470</v>
       </c>
       <c r="C102" t="n">
-        <v>45400</v>
+        <v>47360</v>
       </c>
       <c r="D102" t="n">
-        <v>45400</v>
+        <v>47470</v>
       </c>
       <c r="E102" t="n">
-        <v>45350</v>
+        <v>47360</v>
       </c>
       <c r="F102" t="n">
-        <v>36.4052</v>
+        <v>19.0024</v>
       </c>
       <c r="G102" t="n">
-        <v>-304.35289497</v>
+        <v>47306.66666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4336,28 +4711,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>45770</v>
+        <v>47360</v>
       </c>
       <c r="C103" t="n">
-        <v>46040</v>
+        <v>47360</v>
       </c>
       <c r="D103" t="n">
-        <v>46040</v>
+        <v>47360</v>
       </c>
       <c r="E103" t="n">
-        <v>45770</v>
+        <v>47360</v>
       </c>
       <c r="F103" t="n">
-        <v>24.9425</v>
+        <v>1.9821</v>
       </c>
       <c r="G103" t="n">
-        <v>-279.41039497</v>
+        <v>47286.66666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4377,28 +4753,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>45830</v>
+        <v>47590</v>
       </c>
       <c r="C104" t="n">
-        <v>45820</v>
+        <v>47500</v>
       </c>
       <c r="D104" t="n">
-        <v>46240</v>
+        <v>47590</v>
       </c>
       <c r="E104" t="n">
-        <v>45820</v>
+        <v>47500</v>
       </c>
       <c r="F104" t="n">
-        <v>2.01</v>
+        <v>12.9409</v>
       </c>
       <c r="G104" t="n">
-        <v>-281.42039497</v>
+        <v>47406.66666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4418,28 +4795,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>46060</v>
+        <v>47400</v>
       </c>
       <c r="C105" t="n">
-        <v>46060</v>
+        <v>47520</v>
       </c>
       <c r="D105" t="n">
-        <v>46060</v>
+        <v>47530</v>
       </c>
       <c r="E105" t="n">
-        <v>46060</v>
+        <v>47400</v>
       </c>
       <c r="F105" t="n">
-        <v>0.01</v>
+        <v>75.3519</v>
       </c>
       <c r="G105" t="n">
-        <v>-281.41039497</v>
+        <v>47460</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4459,28 +4837,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>46060</v>
+        <v>47520</v>
       </c>
       <c r="C106" t="n">
-        <v>46060</v>
+        <v>47510</v>
       </c>
       <c r="D106" t="n">
-        <v>46060</v>
+        <v>47520</v>
       </c>
       <c r="E106" t="n">
-        <v>46060</v>
+        <v>47510</v>
       </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>1.1591</v>
       </c>
       <c r="G106" t="n">
-        <v>-281.41039497</v>
+        <v>47510</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4500,28 +4879,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>46040</v>
+        <v>48400</v>
       </c>
       <c r="C107" t="n">
-        <v>46040</v>
+        <v>48400</v>
       </c>
       <c r="D107" t="n">
-        <v>46040</v>
+        <v>48400</v>
       </c>
       <c r="E107" t="n">
-        <v>46040</v>
+        <v>48400</v>
       </c>
       <c r="F107" t="n">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="G107" t="n">
-        <v>-287.41039497</v>
+        <v>47810</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4541,28 +4921,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>45950</v>
+        <v>47520</v>
       </c>
       <c r="C108" t="n">
-        <v>45950</v>
+        <v>47510</v>
       </c>
       <c r="D108" t="n">
-        <v>45950</v>
+        <v>47520</v>
       </c>
       <c r="E108" t="n">
-        <v>45950</v>
+        <v>47510</v>
       </c>
       <c r="F108" t="n">
-        <v>1.23</v>
+        <v>21</v>
       </c>
       <c r="G108" t="n">
-        <v>-288.64039497</v>
+        <v>47806.66666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4582,28 +4963,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>45870</v>
+        <v>47500</v>
       </c>
       <c r="C109" t="n">
-        <v>46100</v>
+        <v>47500</v>
       </c>
       <c r="D109" t="n">
-        <v>46100</v>
+        <v>47500</v>
       </c>
       <c r="E109" t="n">
-        <v>45860</v>
+        <v>47500</v>
       </c>
       <c r="F109" t="n">
-        <v>21.7755</v>
+        <v>34.7109</v>
       </c>
       <c r="G109" t="n">
-        <v>-266.86489497</v>
+        <v>47803.33333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4623,28 +5005,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>46100</v>
+        <v>47500</v>
       </c>
       <c r="C110" t="n">
-        <v>45350</v>
+        <v>47500</v>
       </c>
       <c r="D110" t="n">
-        <v>46100</v>
+        <v>47500</v>
       </c>
       <c r="E110" t="n">
-        <v>45350</v>
+        <v>47500</v>
       </c>
       <c r="F110" t="n">
-        <v>24.0563</v>
+        <v>0.2365</v>
       </c>
       <c r="G110" t="n">
-        <v>-290.92119497</v>
+        <v>47503.33333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4664,28 +5047,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>46160</v>
+        <v>47000</v>
       </c>
       <c r="C111" t="n">
-        <v>46160</v>
+        <v>47000</v>
       </c>
       <c r="D111" t="n">
-        <v>46160</v>
+        <v>47000</v>
       </c>
       <c r="E111" t="n">
-        <v>46160</v>
+        <v>47000</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01</v>
+        <v>34</v>
       </c>
       <c r="G111" t="n">
-        <v>-290.9111949700001</v>
+        <v>47333.33333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4705,28 +5089,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>45120</v>
+        <v>47330</v>
       </c>
       <c r="C112" t="n">
-        <v>45120</v>
+        <v>47430</v>
       </c>
       <c r="D112" t="n">
-        <v>45120</v>
+        <v>47430</v>
       </c>
       <c r="E112" t="n">
-        <v>45120</v>
+        <v>47330</v>
       </c>
       <c r="F112" t="n">
-        <v>1.27</v>
+        <v>162.689</v>
       </c>
       <c r="G112" t="n">
-        <v>-292.18119497</v>
+        <v>47310</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4746,28 +5131,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>45100</v>
+        <v>47510</v>
       </c>
       <c r="C113" t="n">
-        <v>45100</v>
+        <v>47500</v>
       </c>
       <c r="D113" t="n">
-        <v>45100</v>
+        <v>47510</v>
       </c>
       <c r="E113" t="n">
-        <v>45100</v>
+        <v>47500</v>
       </c>
       <c r="F113" t="n">
-        <v>0.885</v>
+        <v>10.4095</v>
       </c>
       <c r="G113" t="n">
-        <v>-293.06619497</v>
+        <v>47310</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4787,28 +5173,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>45850</v>
+        <v>47500</v>
       </c>
       <c r="C114" t="n">
-        <v>45110</v>
+        <v>47500</v>
       </c>
       <c r="D114" t="n">
-        <v>45850</v>
+        <v>47500</v>
       </c>
       <c r="E114" t="n">
-        <v>45110</v>
+        <v>47500</v>
       </c>
       <c r="F114" t="n">
-        <v>1.9313</v>
+        <v>2.6225</v>
       </c>
       <c r="G114" t="n">
-        <v>-291.13489497</v>
+        <v>47476.66666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4828,28 +5215,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>45220</v>
+        <v>47500</v>
       </c>
       <c r="C115" t="n">
-        <v>45220</v>
+        <v>47500</v>
       </c>
       <c r="D115" t="n">
-        <v>45220</v>
+        <v>47500</v>
       </c>
       <c r="E115" t="n">
-        <v>45220</v>
+        <v>47500</v>
       </c>
       <c r="F115" t="n">
-        <v>1.0509</v>
+        <v>22.589</v>
       </c>
       <c r="G115" t="n">
-        <v>-290.08399497</v>
+        <v>47500</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4869,28 +5257,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>46010</v>
+        <v>47340</v>
       </c>
       <c r="C116" t="n">
-        <v>46150</v>
+        <v>47340</v>
       </c>
       <c r="D116" t="n">
-        <v>46150</v>
+        <v>47340</v>
       </c>
       <c r="E116" t="n">
-        <v>45950</v>
+        <v>47340</v>
       </c>
       <c r="F116" t="n">
-        <v>57.3808</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>-232.70319497</v>
+        <v>47446.66666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4910,28 +5299,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>46150</v>
+        <v>47340</v>
       </c>
       <c r="C117" t="n">
-        <v>46160</v>
+        <v>47340</v>
       </c>
       <c r="D117" t="n">
-        <v>46160</v>
+        <v>47340</v>
       </c>
       <c r="E117" t="n">
-        <v>46150</v>
+        <v>47340</v>
       </c>
       <c r="F117" t="n">
-        <v>89.01819999999999</v>
+        <v>8.8454</v>
       </c>
       <c r="G117" t="n">
-        <v>-143.68499497</v>
+        <v>47393.33333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4951,38 +5341,37 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>46170</v>
+        <v>47310</v>
       </c>
       <c r="C118" t="n">
-        <v>46160</v>
+        <v>47310</v>
       </c>
       <c r="D118" t="n">
-        <v>46170</v>
+        <v>47310</v>
       </c>
       <c r="E118" t="n">
-        <v>46160</v>
+        <v>47310</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G118" t="n">
-        <v>-143.68499497</v>
+        <v>47330</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>46160</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
         <v>44920</v>
       </c>
@@ -4994,28 +5383,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>46400</v>
+        <v>47150</v>
       </c>
       <c r="C119" t="n">
-        <v>46400</v>
+        <v>47150</v>
       </c>
       <c r="D119" t="n">
-        <v>46400</v>
+        <v>47150</v>
       </c>
       <c r="E119" t="n">
-        <v>46400</v>
+        <v>47150</v>
       </c>
       <c r="F119" t="n">
-        <v>1.0197</v>
+        <v>12</v>
       </c>
       <c r="G119" t="n">
-        <v>-142.66529497</v>
+        <v>47266.66666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5035,28 +5425,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>46400</v>
+        <v>47150</v>
       </c>
       <c r="C120" t="n">
-        <v>46400</v>
+        <v>49620</v>
       </c>
       <c r="D120" t="n">
-        <v>46400</v>
+        <v>49620</v>
       </c>
       <c r="E120" t="n">
-        <v>46400</v>
+        <v>47150</v>
       </c>
       <c r="F120" t="n">
-        <v>2.5103</v>
+        <v>191.06926001</v>
       </c>
       <c r="G120" t="n">
-        <v>-142.66529497</v>
+        <v>48026.66666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5076,28 +5467,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>46820</v>
+        <v>49450</v>
       </c>
       <c r="C121" t="n">
-        <v>46820</v>
+        <v>49450</v>
       </c>
       <c r="D121" t="n">
-        <v>46820</v>
+        <v>49450</v>
       </c>
       <c r="E121" t="n">
-        <v>46820</v>
+        <v>49450</v>
       </c>
       <c r="F121" t="n">
-        <v>14.6467</v>
+        <v>0.0108</v>
       </c>
       <c r="G121" t="n">
-        <v>-128.01859497</v>
+        <v>48740</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5117,28 +5509,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>46890</v>
+        <v>49000</v>
       </c>
       <c r="C122" t="n">
-        <v>46900</v>
+        <v>49000</v>
       </c>
       <c r="D122" t="n">
-        <v>46900</v>
+        <v>49000</v>
       </c>
       <c r="E122" t="n">
-        <v>46890</v>
+        <v>49000</v>
       </c>
       <c r="F122" t="n">
-        <v>68.35446708000001</v>
+        <v>17.0991</v>
       </c>
       <c r="G122" t="n">
-        <v>-59.66412788999997</v>
+        <v>49356.66666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5158,34 +5551,35 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>47000</v>
+        <v>48700</v>
       </c>
       <c r="C123" t="n">
-        <v>47100</v>
+        <v>47910</v>
       </c>
       <c r="D123" t="n">
-        <v>47100</v>
+        <v>49230</v>
       </c>
       <c r="E123" t="n">
-        <v>47000</v>
+        <v>47910</v>
       </c>
       <c r="F123" t="n">
-        <v>18.9074</v>
+        <v>77.34739999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>-40.75672788999998</v>
+        <v>48786.66666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
@@ -5193,11 +5587,14 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>1.061562778272485</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1.016749660479855</v>
       </c>
     </row>
     <row r="124">
@@ -5205,212 +5602,187 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>47100</v>
+        <v>49230</v>
       </c>
       <c r="C124" t="n">
-        <v>47030</v>
+        <v>49230</v>
       </c>
       <c r="D124" t="n">
-        <v>47100</v>
+        <v>49230</v>
       </c>
       <c r="E124" t="n">
-        <v>47030</v>
+        <v>49230</v>
       </c>
       <c r="F124" t="n">
-        <v>20.2057</v>
+        <v>0.0426</v>
       </c>
       <c r="G124" t="n">
-        <v>-60.96242788999998</v>
+        <v>48713.33333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>47030</v>
+        <v>49090</v>
       </c>
       <c r="C125" t="n">
-        <v>47030</v>
+        <v>49090</v>
       </c>
       <c r="D125" t="n">
-        <v>47030</v>
+        <v>49090</v>
       </c>
       <c r="E125" t="n">
-        <v>47030</v>
+        <v>49090</v>
       </c>
       <c r="F125" t="n">
-        <v>4.7943</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>-60.96242788999998</v>
+        <v>48743.33333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>47090</v>
+        <v>48220</v>
       </c>
       <c r="C126" t="n">
-        <v>47200</v>
+        <v>48210</v>
       </c>
       <c r="D126" t="n">
-        <v>47200</v>
+        <v>48220</v>
       </c>
       <c r="E126" t="n">
-        <v>47090</v>
+        <v>48210</v>
       </c>
       <c r="F126" t="n">
-        <v>14.18</v>
+        <v>3.7363</v>
       </c>
       <c r="G126" t="n">
-        <v>-46.78242788999998</v>
+        <v>48843.33333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>47200</v>
+        <v>48210</v>
       </c>
       <c r="C127" t="n">
-        <v>47590</v>
+        <v>48210</v>
       </c>
       <c r="D127" t="n">
-        <v>47590</v>
+        <v>48210</v>
       </c>
       <c r="E127" t="n">
-        <v>47200</v>
+        <v>48210</v>
       </c>
       <c r="F127" t="n">
-        <v>8.9026</v>
+        <v>0.0425</v>
       </c>
       <c r="G127" t="n">
-        <v>-37.87982788999998</v>
+        <v>48503.33333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>47590</v>
+        <v>48210</v>
       </c>
       <c r="C128" t="n">
-        <v>47600</v>
+        <v>48210</v>
       </c>
       <c r="D128" t="n">
-        <v>47600</v>
+        <v>48210</v>
       </c>
       <c r="E128" t="n">
-        <v>47590</v>
+        <v>48210</v>
       </c>
       <c r="F128" t="n">
-        <v>14.16197136</v>
+        <v>0.3</v>
       </c>
       <c r="G128" t="n">
-        <v>-23.71785652999998</v>
+        <v>48210</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>47620</v>
+        <v>48210</v>
       </c>
       <c r="C129" t="n">
         <v>48210</v>
@@ -5419,32 +5791,27 @@
         <v>48210</v>
       </c>
       <c r="E129" t="n">
-        <v>47600</v>
+        <v>48210</v>
       </c>
       <c r="F129" t="n">
-        <v>182.317</v>
+        <v>14.4453</v>
       </c>
       <c r="G129" t="n">
-        <v>158.59914347</v>
+        <v>48210</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5463,174 +5830,154 @@
         <v>48210</v>
       </c>
       <c r="F130" t="n">
-        <v>19.9819</v>
+        <v>0.0603</v>
       </c>
       <c r="G130" t="n">
-        <v>158.59914347</v>
+        <v>48210</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>48180</v>
+        <v>48210</v>
       </c>
       <c r="C131" t="n">
-        <v>48170</v>
+        <v>48600</v>
       </c>
       <c r="D131" t="n">
-        <v>48180</v>
+        <v>48600</v>
       </c>
       <c r="E131" t="n">
-        <v>48170</v>
+        <v>48210</v>
       </c>
       <c r="F131" t="n">
-        <v>21.107</v>
+        <v>12.4811</v>
       </c>
       <c r="G131" t="n">
-        <v>137.49214347</v>
+        <v>48340</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>48160</v>
+        <v>48410</v>
       </c>
       <c r="C132" t="n">
-        <v>48090</v>
+        <v>48400</v>
       </c>
       <c r="D132" t="n">
-        <v>48160</v>
+        <v>48410</v>
       </c>
       <c r="E132" t="n">
-        <v>48060</v>
+        <v>48400</v>
       </c>
       <c r="F132" t="n">
-        <v>37.5278</v>
+        <v>19.1503</v>
       </c>
       <c r="G132" t="n">
-        <v>99.96434347000003</v>
+        <v>48403.33333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>47590</v>
+        <v>48400</v>
       </c>
       <c r="C133" t="n">
-        <v>47580</v>
+        <v>48400</v>
       </c>
       <c r="D133" t="n">
-        <v>47590</v>
+        <v>48400</v>
       </c>
       <c r="E133" t="n">
-        <v>47580</v>
+        <v>48400</v>
       </c>
       <c r="F133" t="n">
-        <v>2.1814</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>97.78294347000003</v>
+        <v>48466.66666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>47670</v>
+        <v>48340</v>
       </c>
       <c r="C134" t="n">
-        <v>47330</v>
+        <v>48460</v>
       </c>
       <c r="D134" t="n">
-        <v>47670</v>
+        <v>48460</v>
       </c>
       <c r="E134" t="n">
-        <v>47330</v>
+        <v>48340</v>
       </c>
       <c r="F134" t="n">
-        <v>49.9613</v>
+        <v>1.7946</v>
       </c>
       <c r="G134" t="n">
-        <v>47.82164347000003</v>
+        <v>48420</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5639,39 +5986,34 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>47390</v>
+        <v>48440</v>
       </c>
       <c r="C135" t="n">
-        <v>47390</v>
+        <v>48440</v>
       </c>
       <c r="D135" t="n">
-        <v>47390</v>
+        <v>48440</v>
       </c>
       <c r="E135" t="n">
-        <v>47390</v>
+        <v>48440</v>
       </c>
       <c r="F135" t="n">
-        <v>1.9614</v>
+        <v>0.6034</v>
       </c>
       <c r="G135" t="n">
-        <v>49.78304347000003</v>
+        <v>48433.33333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5680,244 +6022,214 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>47030</v>
+        <v>48470</v>
       </c>
       <c r="C136" t="n">
-        <v>47030</v>
+        <v>48470</v>
       </c>
       <c r="D136" t="n">
-        <v>47030</v>
+        <v>48470</v>
       </c>
       <c r="E136" t="n">
-        <v>47030</v>
+        <v>48470</v>
       </c>
       <c r="F136" t="n">
-        <v>11.6861</v>
+        <v>0.0624</v>
       </c>
       <c r="G136" t="n">
-        <v>38.09694347000003</v>
+        <v>48456.66666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>47450</v>
+        <v>48470</v>
       </c>
       <c r="C137" t="n">
-        <v>47110</v>
+        <v>48470</v>
       </c>
       <c r="D137" t="n">
-        <v>47450</v>
+        <v>48470</v>
       </c>
       <c r="E137" t="n">
-        <v>47110</v>
+        <v>48470</v>
       </c>
       <c r="F137" t="n">
-        <v>36.0358</v>
+        <v>46.0168</v>
       </c>
       <c r="G137" t="n">
-        <v>74.13274347000004</v>
+        <v>48460</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>47100</v>
+        <v>48270</v>
       </c>
       <c r="C138" t="n">
-        <v>47090</v>
+        <v>48270</v>
       </c>
       <c r="D138" t="n">
-        <v>47100</v>
+        <v>48270</v>
       </c>
       <c r="E138" t="n">
-        <v>47090</v>
+        <v>48270</v>
       </c>
       <c r="F138" t="n">
-        <v>18.0179</v>
+        <v>10.3325</v>
       </c>
       <c r="G138" t="n">
-        <v>56.11484347000004</v>
+        <v>48403.33333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>47150</v>
+        <v>48200</v>
       </c>
       <c r="C139" t="n">
-        <v>47140</v>
+        <v>48200</v>
       </c>
       <c r="D139" t="n">
-        <v>47150</v>
+        <v>48200</v>
       </c>
       <c r="E139" t="n">
-        <v>47140</v>
+        <v>48200</v>
       </c>
       <c r="F139" t="n">
-        <v>8.0815</v>
+        <v>0.975</v>
       </c>
       <c r="G139" t="n">
-        <v>64.19634347000004</v>
+        <v>48313.33333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>47120</v>
+        <v>48200</v>
       </c>
       <c r="C140" t="n">
-        <v>47170</v>
+        <v>48000</v>
       </c>
       <c r="D140" t="n">
-        <v>47170</v>
+        <v>48200</v>
       </c>
       <c r="E140" t="n">
-        <v>47120</v>
+        <v>48000</v>
       </c>
       <c r="F140" t="n">
-        <v>25.9305</v>
+        <v>70.9847</v>
       </c>
       <c r="G140" t="n">
-        <v>90.12684347000004</v>
+        <v>48156.66666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>47190</v>
+        <v>47670</v>
       </c>
       <c r="C141" t="n">
-        <v>47030</v>
+        <v>47970</v>
       </c>
       <c r="D141" t="n">
-        <v>47190</v>
+        <v>47970</v>
       </c>
       <c r="E141" t="n">
-        <v>46960</v>
+        <v>47670</v>
       </c>
       <c r="F141" t="n">
-        <v>12.8404</v>
+        <v>11.8265</v>
       </c>
       <c r="G141" t="n">
-        <v>77.28644347000004</v>
+        <v>48056.66666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5926,39 +6238,34 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>47160</v>
+        <v>47790</v>
       </c>
       <c r="C142" t="n">
-        <v>47420</v>
+        <v>47790</v>
       </c>
       <c r="D142" t="n">
-        <v>47420</v>
+        <v>47790</v>
       </c>
       <c r="E142" t="n">
-        <v>47160</v>
+        <v>47790</v>
       </c>
       <c r="F142" t="n">
-        <v>2.1164</v>
+        <v>0.9227</v>
       </c>
       <c r="G142" t="n">
-        <v>79.40284347000004</v>
+        <v>47920</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5967,39 +6274,34 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>47300</v>
+        <v>47790</v>
       </c>
       <c r="C143" t="n">
-        <v>47140</v>
+        <v>47790</v>
       </c>
       <c r="D143" t="n">
-        <v>47300</v>
+        <v>47790</v>
       </c>
       <c r="E143" t="n">
-        <v>47140</v>
+        <v>47790</v>
       </c>
       <c r="F143" t="n">
-        <v>1.0842</v>
+        <v>22.0832</v>
       </c>
       <c r="G143" t="n">
-        <v>78.31864347000004</v>
+        <v>47850</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6008,39 +6310,34 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>47470</v>
+        <v>47620</v>
       </c>
       <c r="C144" t="n">
-        <v>47360</v>
+        <v>47620</v>
       </c>
       <c r="D144" t="n">
-        <v>47470</v>
+        <v>47620</v>
       </c>
       <c r="E144" t="n">
-        <v>47360</v>
+        <v>47620</v>
       </c>
       <c r="F144" t="n">
-        <v>19.0024</v>
+        <v>8.158899999999999</v>
       </c>
       <c r="G144" t="n">
-        <v>97.32104347000003</v>
+        <v>47733.33333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6049,39 +6346,34 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>47360</v>
+        <v>47830</v>
       </c>
       <c r="C145" t="n">
-        <v>47360</v>
+        <v>47830</v>
       </c>
       <c r="D145" t="n">
-        <v>47360</v>
+        <v>47830</v>
       </c>
       <c r="E145" t="n">
-        <v>47360</v>
+        <v>47830</v>
       </c>
       <c r="F145" t="n">
-        <v>1.9821</v>
+        <v>40</v>
       </c>
       <c r="G145" t="n">
-        <v>97.32104347000003</v>
+        <v>47746.66666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6090,1737 +6382,156 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>47590</v>
+        <v>47700</v>
       </c>
       <c r="C146" t="n">
-        <v>47500</v>
+        <v>47700</v>
       </c>
       <c r="D146" t="n">
-        <v>47590</v>
+        <v>47700</v>
       </c>
       <c r="E146" t="n">
-        <v>47500</v>
+        <v>47700</v>
       </c>
       <c r="F146" t="n">
-        <v>12.9409</v>
+        <v>16.9982</v>
       </c>
       <c r="G146" t="n">
-        <v>110.26194347</v>
+        <v>47716.66666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="C147" t="n">
-        <v>47520</v>
+        <v>47700</v>
       </c>
       <c r="D147" t="n">
-        <v>47530</v>
+        <v>47700</v>
       </c>
       <c r="E147" t="n">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="F147" t="n">
-        <v>75.3519</v>
+        <v>1.5</v>
       </c>
       <c r="G147" t="n">
-        <v>185.61384347</v>
+        <v>47743.33333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>47520</v>
+        <v>47700</v>
       </c>
       <c r="C148" t="n">
-        <v>47510</v>
+        <v>47690</v>
       </c>
       <c r="D148" t="n">
-        <v>47520</v>
+        <v>47700</v>
       </c>
       <c r="E148" t="n">
-        <v>47510</v>
+        <v>47690</v>
       </c>
       <c r="F148" t="n">
-        <v>1.1591</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>184.45474347</v>
+        <v>47696.66666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>48400</v>
+        <v>47690</v>
       </c>
       <c r="C149" t="n">
-        <v>48400</v>
+        <v>47690</v>
       </c>
       <c r="D149" t="n">
-        <v>48400</v>
+        <v>47690</v>
       </c>
       <c r="E149" t="n">
-        <v>48400</v>
+        <v>47690</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1</v>
+        <v>0.913</v>
       </c>
       <c r="G149" t="n">
-        <v>184.55474347</v>
+        <v>47693.33333333334</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>47510</v>
-      </c>
-      <c r="K149" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>47520</v>
-      </c>
-      <c r="C150" t="n">
-        <v>47510</v>
-      </c>
-      <c r="D150" t="n">
-        <v>47520</v>
-      </c>
-      <c r="E150" t="n">
-        <v>47510</v>
-      </c>
-      <c r="F150" t="n">
-        <v>21</v>
-      </c>
-      <c r="G150" t="n">
-        <v>163.55474347</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>47500</v>
-      </c>
-      <c r="C151" t="n">
-        <v>47500</v>
-      </c>
-      <c r="D151" t="n">
-        <v>47500</v>
-      </c>
-      <c r="E151" t="n">
-        <v>47500</v>
-      </c>
-      <c r="F151" t="n">
-        <v>34.7109</v>
-      </c>
-      <c r="G151" t="n">
-        <v>128.84384347</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>47500</v>
-      </c>
-      <c r="C152" t="n">
-        <v>47500</v>
-      </c>
-      <c r="D152" t="n">
-        <v>47500</v>
-      </c>
-      <c r="E152" t="n">
-        <v>47500</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.2365</v>
-      </c>
-      <c r="G152" t="n">
-        <v>128.84384347</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>47000</v>
-      </c>
-      <c r="C153" t="n">
-        <v>47000</v>
-      </c>
-      <c r="D153" t="n">
-        <v>47000</v>
-      </c>
-      <c r="E153" t="n">
-        <v>47000</v>
-      </c>
-      <c r="F153" t="n">
-        <v>34</v>
-      </c>
-      <c r="G153" t="n">
-        <v>94.84384347000002</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>47330</v>
-      </c>
-      <c r="C154" t="n">
-        <v>47430</v>
-      </c>
-      <c r="D154" t="n">
-        <v>47430</v>
-      </c>
-      <c r="E154" t="n">
-        <v>47330</v>
-      </c>
-      <c r="F154" t="n">
-        <v>162.689</v>
-      </c>
-      <c r="G154" t="n">
-        <v>257.53284347</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>47510</v>
-      </c>
-      <c r="C155" t="n">
-        <v>47500</v>
-      </c>
-      <c r="D155" t="n">
-        <v>47510</v>
-      </c>
-      <c r="E155" t="n">
-        <v>47500</v>
-      </c>
-      <c r="F155" t="n">
-        <v>10.4095</v>
-      </c>
-      <c r="G155" t="n">
-        <v>267.94234347</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>47500</v>
-      </c>
-      <c r="C156" t="n">
-        <v>47500</v>
-      </c>
-      <c r="D156" t="n">
-        <v>47500</v>
-      </c>
-      <c r="E156" t="n">
-        <v>47500</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2.6225</v>
-      </c>
-      <c r="G156" t="n">
-        <v>267.94234347</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>47500</v>
-      </c>
-      <c r="C157" t="n">
-        <v>47500</v>
-      </c>
-      <c r="D157" t="n">
-        <v>47500</v>
-      </c>
-      <c r="E157" t="n">
-        <v>47500</v>
-      </c>
-      <c r="F157" t="n">
-        <v>22.589</v>
-      </c>
-      <c r="G157" t="n">
-        <v>267.94234347</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>47340</v>
-      </c>
-      <c r="C158" t="n">
-        <v>47340</v>
-      </c>
-      <c r="D158" t="n">
-        <v>47340</v>
-      </c>
-      <c r="E158" t="n">
-        <v>47340</v>
-      </c>
-      <c r="F158" t="n">
-        <v>20</v>
-      </c>
-      <c r="G158" t="n">
-        <v>247.94234347</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>47340</v>
-      </c>
-      <c r="C159" t="n">
-        <v>47340</v>
-      </c>
-      <c r="D159" t="n">
-        <v>47340</v>
-      </c>
-      <c r="E159" t="n">
-        <v>47340</v>
-      </c>
-      <c r="F159" t="n">
-        <v>8.8454</v>
-      </c>
-      <c r="G159" t="n">
-        <v>247.94234347</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>47310</v>
-      </c>
-      <c r="C160" t="n">
-        <v>47310</v>
-      </c>
-      <c r="D160" t="n">
-        <v>47310</v>
-      </c>
-      <c r="E160" t="n">
-        <v>47310</v>
-      </c>
-      <c r="F160" t="n">
-        <v>14</v>
-      </c>
-      <c r="G160" t="n">
-        <v>233.94234347</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>47150</v>
-      </c>
-      <c r="C161" t="n">
-        <v>47150</v>
-      </c>
-      <c r="D161" t="n">
-        <v>47150</v>
-      </c>
-      <c r="E161" t="n">
-        <v>47150</v>
-      </c>
-      <c r="F161" t="n">
-        <v>12</v>
-      </c>
-      <c r="G161" t="n">
-        <v>221.94234347</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>47150</v>
-      </c>
-      <c r="C162" t="n">
-        <v>49620</v>
-      </c>
-      <c r="D162" t="n">
-        <v>49620</v>
-      </c>
-      <c r="E162" t="n">
-        <v>47150</v>
-      </c>
-      <c r="F162" t="n">
-        <v>191.06926001</v>
-      </c>
-      <c r="G162" t="n">
-        <v>413.01160348</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>49450</v>
-      </c>
-      <c r="C163" t="n">
-        <v>49450</v>
-      </c>
-      <c r="D163" t="n">
-        <v>49450</v>
-      </c>
-      <c r="E163" t="n">
-        <v>49450</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.0108</v>
-      </c>
-      <c r="G163" t="n">
-        <v>413.0008034799999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1.095845948352627</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>49000</v>
-      </c>
-      <c r="C164" t="n">
-        <v>49000</v>
-      </c>
-      <c r="D164" t="n">
-        <v>49000</v>
-      </c>
-      <c r="E164" t="n">
-        <v>49000</v>
-      </c>
-      <c r="F164" t="n">
-        <v>17.0991</v>
-      </c>
-      <c r="G164" t="n">
-        <v>395.9017034799999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>48700</v>
-      </c>
-      <c r="C165" t="n">
-        <v>47910</v>
-      </c>
-      <c r="D165" t="n">
-        <v>49230</v>
-      </c>
-      <c r="E165" t="n">
-        <v>47910</v>
-      </c>
-      <c r="F165" t="n">
-        <v>77.34739999999999</v>
-      </c>
-      <c r="G165" t="n">
-        <v>318.5543034799999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>49230</v>
-      </c>
-      <c r="C166" t="n">
-        <v>49230</v>
-      </c>
-      <c r="D166" t="n">
-        <v>49230</v>
-      </c>
-      <c r="E166" t="n">
-        <v>49230</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.0426</v>
-      </c>
-      <c r="G166" t="n">
-        <v>318.5969034799999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>49090</v>
-      </c>
-      <c r="C167" t="n">
-        <v>49090</v>
-      </c>
-      <c r="D167" t="n">
-        <v>49090</v>
-      </c>
-      <c r="E167" t="n">
-        <v>49090</v>
-      </c>
-      <c r="F167" t="n">
-        <v>10</v>
-      </c>
-      <c r="G167" t="n">
-        <v>308.5969034799999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>48220</v>
-      </c>
-      <c r="C168" t="n">
-        <v>48210</v>
-      </c>
-      <c r="D168" t="n">
-        <v>48220</v>
-      </c>
-      <c r="E168" t="n">
-        <v>48210</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3.7363</v>
-      </c>
-      <c r="G168" t="n">
-        <v>304.8606034799999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>48210</v>
-      </c>
-      <c r="C169" t="n">
-        <v>48210</v>
-      </c>
-      <c r="D169" t="n">
-        <v>48210</v>
-      </c>
-      <c r="E169" t="n">
-        <v>48210</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="G169" t="n">
-        <v>304.8606034799999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>48210</v>
-      </c>
-      <c r="C170" t="n">
-        <v>48210</v>
-      </c>
-      <c r="D170" t="n">
-        <v>48210</v>
-      </c>
-      <c r="E170" t="n">
-        <v>48210</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G170" t="n">
-        <v>304.8606034799999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>48210</v>
-      </c>
-      <c r="C171" t="n">
-        <v>48210</v>
-      </c>
-      <c r="D171" t="n">
-        <v>48210</v>
-      </c>
-      <c r="E171" t="n">
-        <v>48210</v>
-      </c>
-      <c r="F171" t="n">
-        <v>14.4453</v>
-      </c>
-      <c r="G171" t="n">
-        <v>304.8606034799999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>48210</v>
-      </c>
-      <c r="C172" t="n">
-        <v>48210</v>
-      </c>
-      <c r="D172" t="n">
-        <v>48210</v>
-      </c>
-      <c r="E172" t="n">
-        <v>48210</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.0603</v>
-      </c>
-      <c r="G172" t="n">
-        <v>304.8606034799999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>48210</v>
-      </c>
-      <c r="C173" t="n">
-        <v>48600</v>
-      </c>
-      <c r="D173" t="n">
-        <v>48600</v>
-      </c>
-      <c r="E173" t="n">
-        <v>48210</v>
-      </c>
-      <c r="F173" t="n">
-        <v>12.4811</v>
-      </c>
-      <c r="G173" t="n">
-        <v>317.3417034799999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>48410</v>
-      </c>
-      <c r="C174" t="n">
-        <v>48400</v>
-      </c>
-      <c r="D174" t="n">
-        <v>48410</v>
-      </c>
-      <c r="E174" t="n">
-        <v>48400</v>
-      </c>
-      <c r="F174" t="n">
-        <v>19.1503</v>
-      </c>
-      <c r="G174" t="n">
-        <v>298.1914034799999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>48400</v>
-      </c>
-      <c r="C175" t="n">
-        <v>48400</v>
-      </c>
-      <c r="D175" t="n">
-        <v>48400</v>
-      </c>
-      <c r="E175" t="n">
-        <v>48400</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1</v>
-      </c>
-      <c r="G175" t="n">
-        <v>298.1914034799999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>48340</v>
-      </c>
-      <c r="C176" t="n">
-        <v>48460</v>
-      </c>
-      <c r="D176" t="n">
-        <v>48460</v>
-      </c>
-      <c r="E176" t="n">
-        <v>48340</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1.7946</v>
-      </c>
-      <c r="G176" t="n">
-        <v>299.9860034799999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>48440</v>
-      </c>
-      <c r="C177" t="n">
-        <v>48440</v>
-      </c>
-      <c r="D177" t="n">
-        <v>48440</v>
-      </c>
-      <c r="E177" t="n">
-        <v>48440</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="G177" t="n">
-        <v>299.3826034799999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>48470</v>
-      </c>
-      <c r="C178" t="n">
-        <v>48470</v>
-      </c>
-      <c r="D178" t="n">
-        <v>48470</v>
-      </c>
-      <c r="E178" t="n">
-        <v>48470</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.0624</v>
-      </c>
-      <c r="G178" t="n">
-        <v>299.4450034799999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>48470</v>
-      </c>
-      <c r="C179" t="n">
-        <v>48470</v>
-      </c>
-      <c r="D179" t="n">
-        <v>48470</v>
-      </c>
-      <c r="E179" t="n">
-        <v>48470</v>
-      </c>
-      <c r="F179" t="n">
-        <v>46.0168</v>
-      </c>
-      <c r="G179" t="n">
-        <v>299.4450034799999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>48270</v>
-      </c>
-      <c r="C180" t="n">
-        <v>48270</v>
-      </c>
-      <c r="D180" t="n">
-        <v>48270</v>
-      </c>
-      <c r="E180" t="n">
-        <v>48270</v>
-      </c>
-      <c r="F180" t="n">
-        <v>10.3325</v>
-      </c>
-      <c r="G180" t="n">
-        <v>289.1125034799999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>48200</v>
-      </c>
-      <c r="C181" t="n">
-        <v>48200</v>
-      </c>
-      <c r="D181" t="n">
-        <v>48200</v>
-      </c>
-      <c r="E181" t="n">
-        <v>48200</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="G181" t="n">
-        <v>288.1375034799999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>48200</v>
-      </c>
-      <c r="C182" t="n">
-        <v>48000</v>
-      </c>
-      <c r="D182" t="n">
-        <v>48200</v>
-      </c>
-      <c r="E182" t="n">
-        <v>48000</v>
-      </c>
-      <c r="F182" t="n">
-        <v>70.9847</v>
-      </c>
-      <c r="G182" t="n">
-        <v>217.1528034799999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>47670</v>
-      </c>
-      <c r="C183" t="n">
-        <v>47970</v>
-      </c>
-      <c r="D183" t="n">
-        <v>47970</v>
-      </c>
-      <c r="E183" t="n">
-        <v>47670</v>
-      </c>
-      <c r="F183" t="n">
-        <v>11.8265</v>
-      </c>
-      <c r="G183" t="n">
-        <v>205.3263034799999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>47790</v>
-      </c>
-      <c r="C184" t="n">
-        <v>47790</v>
-      </c>
-      <c r="D184" t="n">
-        <v>47790</v>
-      </c>
-      <c r="E184" t="n">
-        <v>47790</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.9227</v>
-      </c>
-      <c r="G184" t="n">
-        <v>204.4036034799999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>47790</v>
-      </c>
-      <c r="C185" t="n">
-        <v>47790</v>
-      </c>
-      <c r="D185" t="n">
-        <v>47790</v>
-      </c>
-      <c r="E185" t="n">
-        <v>47790</v>
-      </c>
-      <c r="F185" t="n">
-        <v>22.0832</v>
-      </c>
-      <c r="G185" t="n">
-        <v>204.4036034799999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>47620</v>
-      </c>
-      <c r="C186" t="n">
-        <v>47620</v>
-      </c>
-      <c r="D186" t="n">
-        <v>47620</v>
-      </c>
-      <c r="E186" t="n">
-        <v>47620</v>
-      </c>
-      <c r="F186" t="n">
-        <v>8.158899999999999</v>
-      </c>
-      <c r="G186" t="n">
-        <v>196.2447034799999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>47830</v>
-      </c>
-      <c r="C187" t="n">
-        <v>47830</v>
-      </c>
-      <c r="D187" t="n">
-        <v>47830</v>
-      </c>
-      <c r="E187" t="n">
-        <v>47830</v>
-      </c>
-      <c r="F187" t="n">
-        <v>40</v>
-      </c>
-      <c r="G187" t="n">
-        <v>236.2447034799999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>47700</v>
-      </c>
-      <c r="C188" t="n">
-        <v>47700</v>
-      </c>
-      <c r="D188" t="n">
-        <v>47700</v>
-      </c>
-      <c r="E188" t="n">
-        <v>47700</v>
-      </c>
-      <c r="F188" t="n">
-        <v>16.9982</v>
-      </c>
-      <c r="G188" t="n">
-        <v>219.2465034799999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>47700</v>
-      </c>
-      <c r="C189" t="n">
-        <v>47700</v>
-      </c>
-      <c r="D189" t="n">
-        <v>47700</v>
-      </c>
-      <c r="E189" t="n">
-        <v>47700</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G189" t="n">
-        <v>219.2465034799999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>47700</v>
-      </c>
-      <c r="C190" t="n">
-        <v>47690</v>
-      </c>
-      <c r="D190" t="n">
-        <v>47700</v>
-      </c>
-      <c r="E190" t="n">
-        <v>47690</v>
-      </c>
-      <c r="F190" t="n">
-        <v>10</v>
-      </c>
-      <c r="G190" t="n">
-        <v>209.2465034799999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>47690</v>
-      </c>
-      <c r="C191" t="n">
-        <v>47690</v>
-      </c>
-      <c r="D191" t="n">
-        <v>47690</v>
-      </c>
-      <c r="E191" t="n">
-        <v>47690</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="G191" t="n">
-        <v>209.2465034799999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-28 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:N220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>44920</v>
+        <v>44520</v>
       </c>
       <c r="C2" t="n">
-        <v>44920</v>
+        <v>44800</v>
       </c>
       <c r="D2" t="n">
-        <v>44920</v>
+        <v>44800</v>
       </c>
       <c r="E2" t="n">
-        <v>44920</v>
+        <v>44510</v>
       </c>
       <c r="F2" t="n">
-        <v>4.5859</v>
+        <v>59.4314</v>
       </c>
       <c r="G2" t="n">
-        <v>44923.33333333334</v>
+        <v>-21.05811291999999</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>44910</v>
+        <v>44700</v>
       </c>
       <c r="C3" t="n">
-        <v>44910</v>
+        <v>44480</v>
       </c>
       <c r="D3" t="n">
-        <v>44910</v>
+        <v>44700</v>
       </c>
       <c r="E3" t="n">
-        <v>44910</v>
+        <v>44480</v>
       </c>
       <c r="F3" t="n">
-        <v>7.08</v>
+        <v>14.5772</v>
       </c>
       <c r="G3" t="n">
-        <v>44916.66666666666</v>
+        <v>-35.63531291999998</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,12 +498,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>44920</v>
-      </c>
-      <c r="K3" t="n">
-        <v>44920</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>44800</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -514,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44180</v>
+        <v>44640</v>
       </c>
       <c r="C4" t="n">
-        <v>44180</v>
+        <v>44800</v>
       </c>
       <c r="D4" t="n">
-        <v>44180</v>
+        <v>44800</v>
       </c>
       <c r="E4" t="n">
-        <v>44180</v>
+        <v>44640</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>38.3708</v>
       </c>
       <c r="G4" t="n">
-        <v>44670</v>
+        <v>2.73548708000002</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,14 +540,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44910</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44920</v>
-      </c>
+        <v>44480</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,38 +558,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44210</v>
+        <v>44730</v>
       </c>
       <c r="C5" t="n">
-        <v>44210</v>
+        <v>44690</v>
       </c>
       <c r="D5" t="n">
-        <v>44210</v>
+        <v>44730</v>
       </c>
       <c r="E5" t="n">
-        <v>44210</v>
+        <v>44690</v>
       </c>
       <c r="F5" t="n">
-        <v>1.6271</v>
+        <v>3.7368</v>
       </c>
       <c r="G5" t="n">
-        <v>44433.33333333334</v>
+        <v>-1.00131291999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>44180</v>
-      </c>
-      <c r="K5" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -602,38 +598,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44500</v>
+        <v>44800</v>
       </c>
       <c r="C6" t="n">
-        <v>44160</v>
+        <v>44850</v>
       </c>
       <c r="D6" t="n">
-        <v>44500</v>
+        <v>44850</v>
       </c>
       <c r="E6" t="n">
-        <v>44160</v>
+        <v>44790</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>13.0704</v>
       </c>
       <c r="G6" t="n">
-        <v>44183.33333333334</v>
+        <v>12.06908708000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>44210</v>
-      </c>
-      <c r="K6" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -646,35 +638,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44150</v>
+        <v>44900</v>
       </c>
       <c r="C7" t="n">
-        <v>44160</v>
+        <v>44940</v>
       </c>
       <c r="D7" t="n">
-        <v>44160</v>
+        <v>44940</v>
       </c>
       <c r="E7" t="n">
-        <v>44150</v>
+        <v>44900</v>
       </c>
       <c r="F7" t="n">
-        <v>0.85</v>
+        <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>44176.66666666666</v>
+        <v>13.91908708000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>44160</v>
-      </c>
-      <c r="K7" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -690,35 +678,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44160</v>
+        <v>44970</v>
       </c>
       <c r="C8" t="n">
-        <v>44160</v>
+        <v>44970</v>
       </c>
       <c r="D8" t="n">
-        <v>44160</v>
+        <v>44970</v>
       </c>
       <c r="E8" t="n">
-        <v>44160</v>
+        <v>44970</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9536</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>44160</v>
+        <v>14.91908708000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>44160</v>
-      </c>
-      <c r="K8" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -734,35 +718,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44160</v>
+        <v>45010</v>
       </c>
       <c r="C9" t="n">
-        <v>44160</v>
+        <v>45100</v>
       </c>
       <c r="D9" t="n">
-        <v>44160</v>
+        <v>45340</v>
       </c>
       <c r="E9" t="n">
-        <v>44160</v>
+        <v>45010</v>
       </c>
       <c r="F9" t="n">
-        <v>5.5755</v>
+        <v>20.2028</v>
       </c>
       <c r="G9" t="n">
-        <v>44160</v>
+        <v>35.12188708000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>44160</v>
-      </c>
-      <c r="K9" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -778,35 +758,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44900</v>
+        <v>45130</v>
       </c>
       <c r="C10" t="n">
-        <v>44300</v>
+        <v>45170</v>
       </c>
       <c r="D10" t="n">
-        <v>44900</v>
+        <v>45290</v>
       </c>
       <c r="E10" t="n">
-        <v>44300</v>
+        <v>45130</v>
       </c>
       <c r="F10" t="n">
-        <v>10.85</v>
+        <v>15.5284</v>
       </c>
       <c r="G10" t="n">
-        <v>44206.66666666666</v>
+        <v>50.65028708000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>44160</v>
-      </c>
-      <c r="K10" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -822,35 +798,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44610</v>
+        <v>45170</v>
       </c>
       <c r="C11" t="n">
-        <v>44620</v>
+        <v>45040</v>
       </c>
       <c r="D11" t="n">
-        <v>44620</v>
+        <v>45170</v>
       </c>
       <c r="E11" t="n">
-        <v>44610</v>
+        <v>45040</v>
       </c>
       <c r="F11" t="n">
-        <v>17.0408</v>
+        <v>17.86</v>
       </c>
       <c r="G11" t="n">
-        <v>44360</v>
+        <v>32.79028708000002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>44300</v>
-      </c>
-      <c r="K11" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -866,35 +838,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44750</v>
+        <v>45040</v>
       </c>
       <c r="C12" t="n">
-        <v>44750</v>
+        <v>45040</v>
       </c>
       <c r="D12" t="n">
-        <v>44750</v>
+        <v>45040</v>
       </c>
       <c r="E12" t="n">
-        <v>44750</v>
+        <v>45040</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1</v>
+        <v>57.7675</v>
       </c>
       <c r="G12" t="n">
-        <v>44556.66666666666</v>
+        <v>32.79028708000002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>44620</v>
-      </c>
-      <c r="K12" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -910,35 +878,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44740</v>
+        <v>45180</v>
       </c>
       <c r="C13" t="n">
-        <v>44740</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="n">
-        <v>44740</v>
+        <v>45180</v>
       </c>
       <c r="E13" t="n">
-        <v>44740</v>
+        <v>45180</v>
       </c>
       <c r="F13" t="n">
-        <v>10.8418</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>44703.33333333334</v>
+        <v>33.79028708000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>44750</v>
-      </c>
-      <c r="K13" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -954,35 +918,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>44730</v>
+        <v>45090</v>
       </c>
       <c r="C14" t="n">
-        <v>44740</v>
+        <v>45000</v>
       </c>
       <c r="D14" t="n">
-        <v>44740</v>
+        <v>45090</v>
       </c>
       <c r="E14" t="n">
-        <v>44730</v>
+        <v>45000</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>85.422</v>
       </c>
       <c r="G14" t="n">
-        <v>44743.33333333334</v>
+        <v>-51.63171291999998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>44740</v>
-      </c>
-      <c r="K14" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -998,35 +958,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44790</v>
+        <v>45020</v>
       </c>
       <c r="C15" t="n">
-        <v>44800</v>
+        <v>45020</v>
       </c>
       <c r="D15" t="n">
-        <v>44800</v>
+        <v>45020</v>
       </c>
       <c r="E15" t="n">
-        <v>44790</v>
+        <v>45020</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>22.4446</v>
       </c>
       <c r="G15" t="n">
-        <v>44760</v>
+        <v>-29.18711291999998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>44740</v>
-      </c>
-      <c r="K15" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1042,22 +998,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44880</v>
+        <v>45200</v>
       </c>
       <c r="C16" t="n">
-        <v>44950</v>
+        <v>45430</v>
       </c>
       <c r="D16" t="n">
-        <v>44950</v>
+        <v>45430</v>
       </c>
       <c r="E16" t="n">
-        <v>44880</v>
+        <v>45200</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>3.967</v>
       </c>
       <c r="G16" t="n">
-        <v>44830</v>
+        <v>-25.22011291999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1066,9 +1022,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1084,22 +1038,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>44510</v>
+        <v>45280</v>
       </c>
       <c r="C17" t="n">
-        <v>44510</v>
+        <v>45170</v>
       </c>
       <c r="D17" t="n">
-        <v>44510</v>
+        <v>45280</v>
       </c>
       <c r="E17" t="n">
-        <v>44510</v>
+        <v>45170</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>9.6983</v>
       </c>
       <c r="G17" t="n">
-        <v>44753.33333333334</v>
+        <v>-34.91841291999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1108,9 +1062,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1126,35 +1078,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>44320</v>
+        <v>45050</v>
       </c>
       <c r="C18" t="n">
-        <v>44320</v>
+        <v>45050</v>
       </c>
       <c r="D18" t="n">
-        <v>44320</v>
+        <v>45050</v>
       </c>
       <c r="E18" t="n">
-        <v>44320</v>
+        <v>45050</v>
       </c>
       <c r="F18" t="n">
-        <v>3.316</v>
+        <v>31.4654</v>
       </c>
       <c r="G18" t="n">
-        <v>44593.33333333334</v>
+        <v>-66.38381291999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>44510</v>
-      </c>
-      <c r="K18" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1170,35 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44320</v>
+        <v>45050</v>
       </c>
       <c r="C19" t="n">
-        <v>44320</v>
+        <v>45050</v>
       </c>
       <c r="D19" t="n">
-        <v>44320</v>
+        <v>45050</v>
       </c>
       <c r="E19" t="n">
-        <v>44320</v>
+        <v>45050</v>
       </c>
       <c r="F19" t="n">
-        <v>2.003</v>
+        <v>7.809</v>
       </c>
       <c r="G19" t="n">
-        <v>44383.33333333334</v>
+        <v>-66.38381291999998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>44320</v>
-      </c>
-      <c r="K19" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1214,35 +1158,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44890</v>
+        <v>45060</v>
       </c>
       <c r="C20" t="n">
-        <v>44950</v>
+        <v>45050</v>
       </c>
       <c r="D20" t="n">
-        <v>44950</v>
+        <v>45060</v>
       </c>
       <c r="E20" t="n">
-        <v>44890</v>
+        <v>45050</v>
       </c>
       <c r="F20" t="n">
-        <v>7.363</v>
+        <v>5.9071</v>
       </c>
       <c r="G20" t="n">
-        <v>44530</v>
+        <v>-66.38381291999998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>44320</v>
-      </c>
-      <c r="K20" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1258,22 +1198,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45310</v>
+        <v>44850</v>
       </c>
       <c r="C21" t="n">
-        <v>45400</v>
+        <v>44850</v>
       </c>
       <c r="D21" t="n">
-        <v>45400</v>
+        <v>44850</v>
       </c>
       <c r="E21" t="n">
-        <v>45310</v>
+        <v>44850</v>
       </c>
       <c r="F21" t="n">
-        <v>20.259</v>
+        <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>44890</v>
+        <v>-66.78381291999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1282,9 +1222,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1300,22 +1238,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44530</v>
+        <v>44450</v>
       </c>
       <c r="C22" t="n">
-        <v>44530</v>
+        <v>44440</v>
       </c>
       <c r="D22" t="n">
-        <v>44530</v>
+        <v>44450</v>
       </c>
       <c r="E22" t="n">
-        <v>44530</v>
+        <v>44440</v>
       </c>
       <c r="F22" t="n">
-        <v>0.924</v>
+        <v>9.697900000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>44960</v>
+        <v>-76.48171291999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1324,9 +1262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1342,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45290</v>
+        <v>44440</v>
       </c>
       <c r="C23" t="n">
-        <v>45290</v>
+        <v>44440</v>
       </c>
       <c r="D23" t="n">
-        <v>45290</v>
+        <v>44440</v>
       </c>
       <c r="E23" t="n">
-        <v>45290</v>
+        <v>44440</v>
       </c>
       <c r="F23" t="n">
-        <v>0.24031795</v>
+        <v>7.13</v>
       </c>
       <c r="G23" t="n">
-        <v>45073.33333333334</v>
+        <v>-76.48171291999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1366,9 +1302,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1384,33 +1318,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45270</v>
+        <v>44440</v>
       </c>
       <c r="C24" t="n">
-        <v>45300</v>
+        <v>44440</v>
       </c>
       <c r="D24" t="n">
-        <v>45300</v>
+        <v>44440</v>
       </c>
       <c r="E24" t="n">
-        <v>45270</v>
+        <v>44440</v>
       </c>
       <c r="F24" t="n">
-        <v>53.4761</v>
+        <v>7.0206</v>
       </c>
       <c r="G24" t="n">
-        <v>45040</v>
+        <v>-76.48171291999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J24" t="n">
+        <v>44440</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1426,33 +1360,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45300</v>
+        <v>44440</v>
       </c>
       <c r="C25" t="n">
-        <v>45300</v>
+        <v>44040</v>
       </c>
       <c r="D25" t="n">
-        <v>45300</v>
+        <v>44440</v>
       </c>
       <c r="E25" t="n">
-        <v>45300</v>
+        <v>43880</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2407</v>
+        <v>38.9091</v>
       </c>
       <c r="G25" t="n">
-        <v>45296.66666666666</v>
+        <v>-115.39081292</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J25" t="n">
+        <v>44440</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1468,33 +1402,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>45300</v>
+        <v>44020</v>
       </c>
       <c r="C26" t="n">
-        <v>45300</v>
+        <v>44020</v>
       </c>
       <c r="D26" t="n">
-        <v>45300</v>
+        <v>44020</v>
       </c>
       <c r="E26" t="n">
-        <v>45300</v>
+        <v>44020</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>50.8877</v>
       </c>
       <c r="G26" t="n">
-        <v>45300</v>
+        <v>-166.27851292</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J26" t="n">
+        <v>44040</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1510,33 +1444,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>45400</v>
+        <v>44010</v>
       </c>
       <c r="C27" t="n">
-        <v>45400</v>
+        <v>44010</v>
       </c>
       <c r="D27" t="n">
-        <v>45400</v>
+        <v>44010</v>
       </c>
       <c r="E27" t="n">
-        <v>45400</v>
+        <v>44010</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01</v>
+        <v>2.7032</v>
       </c>
       <c r="G27" t="n">
-        <v>45333.33333333334</v>
+        <v>-168.98171292</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J27" t="n">
+        <v>44020</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1552,33 +1486,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>45300</v>
+        <v>44120</v>
       </c>
       <c r="C28" t="n">
-        <v>45300</v>
+        <v>44120</v>
       </c>
       <c r="D28" t="n">
-        <v>45300</v>
+        <v>44120</v>
       </c>
       <c r="E28" t="n">
-        <v>45300</v>
+        <v>44120</v>
       </c>
       <c r="F28" t="n">
-        <v>164.4437</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>45333.33333333334</v>
+        <v>-153.98171292</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J28" t="n">
+        <v>44010</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1594,33 +1528,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>45390</v>
+        <v>44030</v>
       </c>
       <c r="C29" t="n">
-        <v>45400</v>
+        <v>44030</v>
       </c>
       <c r="D29" t="n">
-        <v>45400</v>
+        <v>44030</v>
       </c>
       <c r="E29" t="n">
-        <v>45390</v>
+        <v>44030</v>
       </c>
       <c r="F29" t="n">
-        <v>7.3427</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>45366.66666666666</v>
+        <v>-171.98171292</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J29" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1636,33 +1570,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>45390</v>
+        <v>43970</v>
       </c>
       <c r="C30" t="n">
-        <v>45400</v>
+        <v>43970</v>
       </c>
       <c r="D30" t="n">
-        <v>45400</v>
+        <v>43970</v>
       </c>
       <c r="E30" t="n">
-        <v>45390</v>
+        <v>43970</v>
       </c>
       <c r="F30" t="n">
-        <v>26.5</v>
+        <v>0.01</v>
       </c>
       <c r="G30" t="n">
-        <v>45366.66666666666</v>
+        <v>-171.99171292</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J30" t="n">
+        <v>44030</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1678,33 +1612,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>44550</v>
+        <v>43950</v>
       </c>
       <c r="C31" t="n">
-        <v>44550</v>
+        <v>43950</v>
       </c>
       <c r="D31" t="n">
-        <v>44550</v>
+        <v>43950</v>
       </c>
       <c r="E31" t="n">
-        <v>44550</v>
+        <v>43950</v>
       </c>
       <c r="F31" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="G31" t="n">
-        <v>45116.66666666666</v>
+        <v>-172.46171292</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J31" t="n">
+        <v>43970</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1720,33 +1654,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>44550</v>
+        <v>43880</v>
       </c>
       <c r="C32" t="n">
-        <v>44000</v>
+        <v>43880</v>
       </c>
       <c r="D32" t="n">
-        <v>44550</v>
+        <v>43880</v>
       </c>
       <c r="E32" t="n">
-        <v>44000</v>
+        <v>43880</v>
       </c>
       <c r="F32" t="n">
-        <v>80.015</v>
+        <v>4.376</v>
       </c>
       <c r="G32" t="n">
-        <v>44650</v>
+        <v>-176.83771292</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J32" t="n">
+        <v>43950</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1762,33 +1696,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>44100</v>
+        <v>43880</v>
       </c>
       <c r="C33" t="n">
-        <v>44100</v>
+        <v>43740</v>
       </c>
       <c r="D33" t="n">
-        <v>44100</v>
+        <v>43880</v>
       </c>
       <c r="E33" t="n">
-        <v>44100</v>
+        <v>43740</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>7.4099</v>
       </c>
       <c r="G33" t="n">
-        <v>44216.66666666666</v>
+        <v>-184.24761292</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J33" t="n">
+        <v>43880</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1804,33 +1738,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>44100</v>
+        <v>43990</v>
       </c>
       <c r="C34" t="n">
-        <v>43920</v>
+        <v>44000</v>
       </c>
       <c r="D34" t="n">
-        <v>44100</v>
+        <v>44000</v>
       </c>
       <c r="E34" t="n">
-        <v>43920</v>
+        <v>43990</v>
       </c>
       <c r="F34" t="n">
-        <v>14.4749</v>
+        <v>11.9829</v>
       </c>
       <c r="G34" t="n">
-        <v>44006.66666666666</v>
+        <v>-172.26471292</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J34" t="n">
+        <v>43740</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1846,33 +1780,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>44260</v>
+        <v>44220</v>
       </c>
       <c r="C35" t="n">
-        <v>44260</v>
+        <v>44210</v>
       </c>
       <c r="D35" t="n">
-        <v>44260</v>
+        <v>44220</v>
       </c>
       <c r="E35" t="n">
-        <v>44260</v>
+        <v>44210</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>7.7241</v>
       </c>
       <c r="G35" t="n">
-        <v>44093.33333333334</v>
+        <v>-164.54061292</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J35" t="n">
+        <v>44000</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1888,33 +1822,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>44260</v>
+        <v>44330</v>
       </c>
       <c r="C36" t="n">
-        <v>44260</v>
+        <v>44330</v>
       </c>
       <c r="D36" t="n">
-        <v>44260</v>
+        <v>44330</v>
       </c>
       <c r="E36" t="n">
-        <v>44260</v>
+        <v>44330</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>18.5279</v>
       </c>
       <c r="G36" t="n">
-        <v>44146.66666666666</v>
+        <v>-146.01271292</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J36" t="n">
+        <v>44210</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1930,33 +1864,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44260</v>
+        <v>44030</v>
       </c>
       <c r="C37" t="n">
-        <v>44260</v>
+        <v>44030</v>
       </c>
       <c r="D37" t="n">
-        <v>44260</v>
+        <v>44030</v>
       </c>
       <c r="E37" t="n">
-        <v>44260</v>
+        <v>44030</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>3.4001</v>
       </c>
       <c r="G37" t="n">
-        <v>44260</v>
+        <v>-149.41281292</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J37" t="n">
+        <v>44330</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1972,33 +1906,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>43980</v>
+      </c>
+      <c r="C38" t="n">
         <v>43940</v>
       </c>
-      <c r="C38" t="n">
-        <v>43920</v>
-      </c>
       <c r="D38" t="n">
+        <v>43980</v>
+      </c>
+      <c r="E38" t="n">
         <v>43940</v>
       </c>
-      <c r="E38" t="n">
-        <v>43920</v>
-      </c>
       <c r="F38" t="n">
-        <v>21.2382</v>
+        <v>1.6488</v>
       </c>
       <c r="G38" t="n">
-        <v>44146.66666666666</v>
+        <v>-151.06161292</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J38" t="n">
+        <v>44030</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2014,33 +1948,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>44350</v>
+        <v>44400</v>
       </c>
       <c r="C39" t="n">
-        <v>44350</v>
+        <v>44480</v>
       </c>
       <c r="D39" t="n">
-        <v>44350</v>
+        <v>44480</v>
       </c>
       <c r="E39" t="n">
-        <v>44350</v>
+        <v>44400</v>
       </c>
       <c r="F39" t="n">
-        <v>9.6</v>
+        <v>3.9645</v>
       </c>
       <c r="G39" t="n">
-        <v>44176.66666666666</v>
+        <v>-147.09711292</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J39" t="n">
+        <v>43940</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2056,33 +1990,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>43930</v>
+        <v>44890</v>
       </c>
       <c r="C40" t="n">
-        <v>43850</v>
+        <v>45100</v>
       </c>
       <c r="D40" t="n">
-        <v>43930</v>
+        <v>45100</v>
       </c>
       <c r="E40" t="n">
-        <v>43850</v>
+        <v>44890</v>
       </c>
       <c r="F40" t="n">
-        <v>7.4197</v>
+        <v>18.4479</v>
       </c>
       <c r="G40" t="n">
-        <v>44040</v>
+        <v>-128.64921292</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J40" t="n">
+        <v>44480</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2098,22 +2032,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>43890</v>
+        <v>44990</v>
       </c>
       <c r="C41" t="n">
-        <v>43890</v>
+        <v>44730</v>
       </c>
       <c r="D41" t="n">
-        <v>43890</v>
+        <v>44990</v>
       </c>
       <c r="E41" t="n">
-        <v>43890</v>
+        <v>44730</v>
       </c>
       <c r="F41" t="n">
-        <v>7</v>
+        <v>1.7514</v>
       </c>
       <c r="G41" t="n">
-        <v>44030</v>
+        <v>-130.40061292</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2122,9 +2056,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2140,33 +2072,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>43850</v>
+        <v>44790</v>
       </c>
       <c r="C42" t="n">
-        <v>43850</v>
+        <v>44790</v>
       </c>
       <c r="D42" t="n">
-        <v>43850</v>
+        <v>44790</v>
       </c>
       <c r="E42" t="n">
-        <v>43850</v>
+        <v>44790</v>
       </c>
       <c r="F42" t="n">
-        <v>1.7926</v>
+        <v>21.2914</v>
       </c>
       <c r="G42" t="n">
-        <v>43863.33333333334</v>
+        <v>-109.10921292</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J42" t="n">
+        <v>44730</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2182,33 +2114,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>43850</v>
+        <v>44830</v>
       </c>
       <c r="C43" t="n">
-        <v>43850</v>
+        <v>44830</v>
       </c>
       <c r="D43" t="n">
-        <v>43850</v>
+        <v>44830</v>
       </c>
       <c r="E43" t="n">
-        <v>43850</v>
+        <v>44830</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2408</v>
+        <v>0.8757</v>
       </c>
       <c r="G43" t="n">
-        <v>43863.33333333334</v>
+        <v>-108.23351292</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J43" t="n">
+        <v>44790</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2224,35 +2156,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>44500</v>
+        <v>45100</v>
       </c>
       <c r="C44" t="n">
-        <v>44840</v>
+        <v>45330</v>
       </c>
       <c r="D44" t="n">
-        <v>44840</v>
+        <v>45360</v>
       </c>
       <c r="E44" t="n">
-        <v>44500</v>
+        <v>45100</v>
       </c>
       <c r="F44" t="n">
-        <v>25</v>
+        <v>72.1593</v>
       </c>
       <c r="G44" t="n">
-        <v>44180</v>
+        <v>-36.07421292000002</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K44" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2268,22 +2196,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>44950</v>
+        <v>45330</v>
       </c>
       <c r="C45" t="n">
-        <v>44950</v>
+        <v>45100</v>
       </c>
       <c r="D45" t="n">
-        <v>44950</v>
+        <v>45330</v>
       </c>
       <c r="E45" t="n">
-        <v>44950</v>
+        <v>45100</v>
       </c>
       <c r="F45" t="n">
-        <v>0.43</v>
+        <v>28.0319</v>
       </c>
       <c r="G45" t="n">
-        <v>44546.66666666666</v>
+        <v>-64.10611292000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2292,9 +2220,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2310,22 +2236,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44950</v>
+        <v>45350</v>
       </c>
       <c r="C46" t="n">
-        <v>44950</v>
+        <v>45350</v>
       </c>
       <c r="D46" t="n">
-        <v>44950</v>
+        <v>45350</v>
       </c>
       <c r="E46" t="n">
-        <v>44950</v>
+        <v>45350</v>
       </c>
       <c r="F46" t="n">
-        <v>1.875</v>
+        <v>5.4829</v>
       </c>
       <c r="G46" t="n">
-        <v>44913.33333333334</v>
+        <v>-58.62321292000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2334,9 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2352,22 +2276,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44950</v>
+        <v>45350</v>
       </c>
       <c r="C47" t="n">
-        <v>45330</v>
+        <v>45350</v>
       </c>
       <c r="D47" t="n">
-        <v>45340</v>
+        <v>45350</v>
       </c>
       <c r="E47" t="n">
-        <v>44790</v>
+        <v>45350</v>
       </c>
       <c r="F47" t="n">
-        <v>4.4178</v>
+        <v>0.8614000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>45076.66666666666</v>
+        <v>-58.62321292000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2376,9 +2300,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2394,35 +2316,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>45230</v>
+        <v>45320</v>
       </c>
       <c r="C48" t="n">
-        <v>45230</v>
+        <v>45220</v>
       </c>
       <c r="D48" t="n">
-        <v>45230</v>
+        <v>45320</v>
       </c>
       <c r="E48" t="n">
-        <v>45230</v>
+        <v>45220</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5349</v>
+        <v>21.361</v>
       </c>
       <c r="G48" t="n">
-        <v>45170</v>
+        <v>-79.98421292000002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>45330</v>
-      </c>
-      <c r="K48" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2438,22 +2356,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>44840</v>
+        <v>45430</v>
       </c>
       <c r="C49" t="n">
-        <v>44840</v>
+        <v>45440</v>
       </c>
       <c r="D49" t="n">
-        <v>44840</v>
+        <v>45440</v>
       </c>
       <c r="E49" t="n">
-        <v>44840</v>
+        <v>45430</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1</v>
+        <v>3.6887</v>
       </c>
       <c r="G49" t="n">
-        <v>45133.33333333334</v>
+        <v>-76.29551292000002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2462,9 +2380,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2480,35 +2396,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>45260</v>
+        <v>45490</v>
       </c>
       <c r="C50" t="n">
-        <v>45260</v>
+        <v>45490</v>
       </c>
       <c r="D50" t="n">
-        <v>45260</v>
+        <v>45490</v>
       </c>
       <c r="E50" t="n">
-        <v>45260</v>
+        <v>45490</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01</v>
+        <v>2.7636</v>
       </c>
       <c r="G50" t="n">
-        <v>45110</v>
+        <v>-73.53191292000002</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>44840</v>
-      </c>
-      <c r="K50" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2524,35 +2436,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>44910</v>
+        <v>45500</v>
       </c>
       <c r="C51" t="n">
-        <v>44910</v>
+        <v>45500</v>
       </c>
       <c r="D51" t="n">
-        <v>44910</v>
+        <v>45500</v>
       </c>
       <c r="E51" t="n">
-        <v>44910</v>
+        <v>45500</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="G51" t="n">
-        <v>45003.33333333334</v>
+        <v>-72.49191292000002</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>45260</v>
-      </c>
-      <c r="K51" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,35 +2476,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>44910</v>
+        <v>45490</v>
       </c>
       <c r="C52" t="n">
-        <v>44910</v>
+        <v>45490</v>
       </c>
       <c r="D52" t="n">
-        <v>44910</v>
+        <v>45490</v>
       </c>
       <c r="E52" t="n">
-        <v>44910</v>
+        <v>45490</v>
       </c>
       <c r="F52" t="n">
-        <v>9.3752</v>
+        <v>4.8309</v>
       </c>
       <c r="G52" t="n">
-        <v>45026.66666666666</v>
+        <v>-77.32281292000002</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>44910</v>
-      </c>
-      <c r="K52" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2612,35 +2516,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>44970</v>
+        <v>45430</v>
       </c>
       <c r="C53" t="n">
-        <v>44970</v>
+        <v>45430</v>
       </c>
       <c r="D53" t="n">
-        <v>44970</v>
+        <v>45430</v>
       </c>
       <c r="E53" t="n">
-        <v>44970</v>
+        <v>45430</v>
       </c>
       <c r="F53" t="n">
-        <v>13</v>
+        <v>6.0219</v>
       </c>
       <c r="G53" t="n">
-        <v>44930</v>
+        <v>-83.34471292000002</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>44910</v>
-      </c>
-      <c r="K53" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,35 +2556,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>45110</v>
+        <v>45310</v>
       </c>
       <c r="C54" t="n">
-        <v>45110</v>
+        <v>45310</v>
       </c>
       <c r="D54" t="n">
-        <v>45110</v>
+        <v>45310</v>
       </c>
       <c r="E54" t="n">
-        <v>45110</v>
+        <v>45310</v>
       </c>
       <c r="F54" t="n">
-        <v>9.333600000000001</v>
+        <v>7.7712</v>
       </c>
       <c r="G54" t="n">
-        <v>44996.66666666666</v>
+        <v>-91.11591292000003</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>44970</v>
-      </c>
-      <c r="K54" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2700,35 +2596,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>45170</v>
+        <v>45310</v>
       </c>
       <c r="C55" t="n">
-        <v>45170</v>
+        <v>45050</v>
       </c>
       <c r="D55" t="n">
-        <v>45170</v>
+        <v>45310</v>
       </c>
       <c r="E55" t="n">
-        <v>45170</v>
+        <v>45050</v>
       </c>
       <c r="F55" t="n">
-        <v>4.4277</v>
+        <v>12.3218</v>
       </c>
       <c r="G55" t="n">
-        <v>45083.33333333334</v>
+        <v>-103.43771292</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>45110</v>
-      </c>
-      <c r="K55" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2744,22 +2636,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>45170</v>
+        <v>44990</v>
       </c>
       <c r="C56" t="n">
-        <v>45170</v>
+        <v>44990</v>
       </c>
       <c r="D56" t="n">
-        <v>45170</v>
+        <v>44990</v>
       </c>
       <c r="E56" t="n">
-        <v>45170</v>
+        <v>44990</v>
       </c>
       <c r="F56" t="n">
-        <v>23.1291</v>
+        <v>24.4802</v>
       </c>
       <c r="G56" t="n">
-        <v>45150</v>
+        <v>-127.91791292</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2768,9 +2660,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2786,22 +2676,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>45230</v>
+        <v>44990</v>
       </c>
       <c r="C57" t="n">
-        <v>45350</v>
+        <v>44990</v>
       </c>
       <c r="D57" t="n">
-        <v>45350</v>
+        <v>44990</v>
       </c>
       <c r="E57" t="n">
-        <v>45230</v>
+        <v>44990</v>
       </c>
       <c r="F57" t="n">
-        <v>8.588200000000001</v>
+        <v>0.1602</v>
       </c>
       <c r="G57" t="n">
-        <v>45230</v>
+        <v>-127.91791292</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2810,9 +2700,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,22 +2716,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>45350</v>
+        <v>44930</v>
       </c>
       <c r="C58" t="n">
-        <v>45350</v>
+        <v>44930</v>
       </c>
       <c r="D58" t="n">
-        <v>45350</v>
+        <v>44930</v>
       </c>
       <c r="E58" t="n">
-        <v>45350</v>
+        <v>44930</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1393</v>
+        <v>9.609400000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>45290</v>
+        <v>-137.52731292</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2852,9 +2740,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2870,22 +2756,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>45350</v>
+        <v>44980</v>
       </c>
       <c r="C59" t="n">
-        <v>45350</v>
+        <v>44980</v>
       </c>
       <c r="D59" t="n">
-        <v>45350</v>
+        <v>44980</v>
       </c>
       <c r="E59" t="n">
-        <v>45350</v>
+        <v>44980</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>1.8463</v>
       </c>
       <c r="G59" t="n">
-        <v>45350</v>
+        <v>-135.68101292</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2894,9 +2780,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2912,22 +2796,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>45350</v>
+        <v>44960</v>
       </c>
       <c r="C60" t="n">
-        <v>45400</v>
+        <v>45010</v>
       </c>
       <c r="D60" t="n">
-        <v>45400</v>
+        <v>45010</v>
       </c>
       <c r="E60" t="n">
-        <v>45350</v>
+        <v>44960</v>
       </c>
       <c r="F60" t="n">
-        <v>36.4052</v>
+        <v>9.825200000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>45366.66666666666</v>
+        <v>-125.85581292</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2936,9 +2820,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2954,22 +2836,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>45770</v>
+        <v>44930</v>
       </c>
       <c r="C61" t="n">
-        <v>46040</v>
+        <v>44930</v>
       </c>
       <c r="D61" t="n">
-        <v>46040</v>
+        <v>44930</v>
       </c>
       <c r="E61" t="n">
-        <v>45770</v>
+        <v>44930</v>
       </c>
       <c r="F61" t="n">
-        <v>24.9425</v>
+        <v>0.8218</v>
       </c>
       <c r="G61" t="n">
-        <v>45596.66666666666</v>
+        <v>-126.67761292</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2978,9 +2860,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2996,22 +2876,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>45830</v>
+        <v>45070</v>
       </c>
       <c r="C62" t="n">
-        <v>45820</v>
+        <v>45040</v>
       </c>
       <c r="D62" t="n">
-        <v>46240</v>
+        <v>45070</v>
       </c>
       <c r="E62" t="n">
-        <v>45820</v>
+        <v>45040</v>
       </c>
       <c r="F62" t="n">
-        <v>2.01</v>
+        <v>0.8218</v>
       </c>
       <c r="G62" t="n">
-        <v>45753.33333333334</v>
+        <v>-125.85581292</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3020,9 +2900,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3038,22 +2916,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>46060</v>
+        <v>45030</v>
       </c>
       <c r="C63" t="n">
-        <v>46060</v>
+        <v>45040</v>
       </c>
       <c r="D63" t="n">
-        <v>46060</v>
+        <v>45040</v>
       </c>
       <c r="E63" t="n">
-        <v>46060</v>
+        <v>45030</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01</v>
+        <v>5.4186</v>
       </c>
       <c r="G63" t="n">
-        <v>45973.33333333334</v>
+        <v>-125.85581292</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3062,9 +2940,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3080,22 +2956,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>46060</v>
+        <v>45130</v>
       </c>
       <c r="C64" t="n">
-        <v>46060</v>
+        <v>45040</v>
       </c>
       <c r="D64" t="n">
-        <v>46060</v>
+        <v>45140</v>
       </c>
       <c r="E64" t="n">
-        <v>46060</v>
+        <v>45040</v>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>5.6639</v>
       </c>
       <c r="G64" t="n">
-        <v>45980</v>
+        <v>-125.85581292</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3104,9 +2980,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3122,22 +2996,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>46040</v>
+        <v>44900</v>
       </c>
       <c r="C65" t="n">
-        <v>46040</v>
+        <v>44900</v>
       </c>
       <c r="D65" t="n">
-        <v>46040</v>
+        <v>44900</v>
       </c>
       <c r="E65" t="n">
-        <v>46040</v>
+        <v>44900</v>
       </c>
       <c r="F65" t="n">
-        <v>6</v>
+        <v>3.5401</v>
       </c>
       <c r="G65" t="n">
-        <v>46053.33333333334</v>
+        <v>-129.39591292</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3146,9 +3020,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3164,22 +3036,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>45950</v>
+        <v>44790</v>
       </c>
       <c r="C66" t="n">
-        <v>45950</v>
+        <v>44790</v>
       </c>
       <c r="D66" t="n">
-        <v>45950</v>
+        <v>44790</v>
       </c>
       <c r="E66" t="n">
-        <v>45950</v>
+        <v>44790</v>
       </c>
       <c r="F66" t="n">
-        <v>1.23</v>
+        <v>1.899</v>
       </c>
       <c r="G66" t="n">
-        <v>46016.66666666666</v>
+        <v>-131.29491292</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3188,9 +3060,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3206,33 +3076,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>45870</v>
+        <v>44450</v>
       </c>
       <c r="C67" t="n">
-        <v>46100</v>
+        <v>44450</v>
       </c>
       <c r="D67" t="n">
-        <v>46100</v>
+        <v>44450</v>
       </c>
       <c r="E67" t="n">
-        <v>45860</v>
+        <v>44450</v>
       </c>
       <c r="F67" t="n">
-        <v>21.7755</v>
+        <v>0.43</v>
       </c>
       <c r="G67" t="n">
-        <v>46030</v>
+        <v>-131.72491292</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J67" t="n">
+        <v>44790</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3248,33 +3118,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>46100</v>
+        <v>44360</v>
       </c>
       <c r="C68" t="n">
-        <v>45350</v>
+        <v>44360</v>
       </c>
       <c r="D68" t="n">
-        <v>46100</v>
+        <v>44360</v>
       </c>
       <c r="E68" t="n">
-        <v>45350</v>
+        <v>44360</v>
       </c>
       <c r="F68" t="n">
-        <v>24.0563</v>
+        <v>2.4692</v>
       </c>
       <c r="G68" t="n">
-        <v>45800</v>
+        <v>-134.19411292</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J68" t="n">
+        <v>44450</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,33 +3160,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>46160</v>
+        <v>44450</v>
       </c>
       <c r="C69" t="n">
-        <v>46160</v>
+        <v>44450</v>
       </c>
       <c r="D69" t="n">
-        <v>46160</v>
+        <v>44450</v>
       </c>
       <c r="E69" t="n">
-        <v>46160</v>
+        <v>44450</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01</v>
+        <v>0.1975</v>
       </c>
       <c r="G69" t="n">
-        <v>45870</v>
+        <v>-133.99661292</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J69" t="n">
+        <v>44360</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3332,33 +3202,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>45120</v>
+        <v>44960</v>
       </c>
       <c r="C70" t="n">
-        <v>45120</v>
+        <v>44960</v>
       </c>
       <c r="D70" t="n">
-        <v>45120</v>
+        <v>44960</v>
       </c>
       <c r="E70" t="n">
-        <v>45120</v>
+        <v>44960</v>
       </c>
       <c r="F70" t="n">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>45543.33333333334</v>
+        <v>-131.99661292</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J70" t="n">
+        <v>44450</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3374,33 +3244,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>45100</v>
+        <v>44930</v>
       </c>
       <c r="C71" t="n">
-        <v>45100</v>
+        <v>44930</v>
       </c>
       <c r="D71" t="n">
-        <v>45100</v>
+        <v>44930</v>
       </c>
       <c r="E71" t="n">
-        <v>45100</v>
+        <v>44930</v>
       </c>
       <c r="F71" t="n">
-        <v>0.885</v>
+        <v>0.1975</v>
       </c>
       <c r="G71" t="n">
-        <v>45460</v>
+        <v>-132.19411292</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J71" t="n">
+        <v>44960</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3416,33 +3286,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>45850</v>
+        <v>44920</v>
       </c>
       <c r="C72" t="n">
-        <v>45110</v>
+        <v>44920</v>
       </c>
       <c r="D72" t="n">
-        <v>45850</v>
+        <v>44920</v>
       </c>
       <c r="E72" t="n">
-        <v>45110</v>
+        <v>44920</v>
       </c>
       <c r="F72" t="n">
-        <v>1.9313</v>
+        <v>37.8495</v>
       </c>
       <c r="G72" t="n">
-        <v>45110</v>
+        <v>-170.04361292</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J72" t="n">
+        <v>44930</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,33 +3328,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>45220</v>
+        <v>44920</v>
       </c>
       <c r="C73" t="n">
-        <v>45220</v>
+        <v>44920</v>
       </c>
       <c r="D73" t="n">
-        <v>45220</v>
+        <v>44920</v>
       </c>
       <c r="E73" t="n">
-        <v>45220</v>
+        <v>44920</v>
       </c>
       <c r="F73" t="n">
-        <v>1.0509</v>
+        <v>4.5859</v>
       </c>
       <c r="G73" t="n">
-        <v>45143.33333333334</v>
+        <v>-170.04361292</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
+      <c r="J73" t="n">
         <v>44920</v>
       </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,33 +3370,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>46010</v>
+        <v>44910</v>
       </c>
       <c r="C74" t="n">
-        <v>46150</v>
+        <v>44910</v>
       </c>
       <c r="D74" t="n">
-        <v>46150</v>
+        <v>44910</v>
       </c>
       <c r="E74" t="n">
-        <v>45950</v>
+        <v>44910</v>
       </c>
       <c r="F74" t="n">
-        <v>57.3808</v>
+        <v>7.08</v>
       </c>
       <c r="G74" t="n">
-        <v>45493.33333333334</v>
+        <v>-177.12361292</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
+      <c r="J74" t="n">
         <v>44920</v>
       </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,33 +3412,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>46150</v>
+        <v>44180</v>
       </c>
       <c r="C75" t="n">
-        <v>46160</v>
+        <v>44180</v>
       </c>
       <c r="D75" t="n">
-        <v>46160</v>
+        <v>44180</v>
       </c>
       <c r="E75" t="n">
-        <v>46150</v>
+        <v>44180</v>
       </c>
       <c r="F75" t="n">
-        <v>89.01819999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G75" t="n">
-        <v>45843.33333333334</v>
+        <v>-177.22361292</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J75" t="n">
+        <v>44910</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3584,33 +3454,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>46170</v>
+        <v>44210</v>
       </c>
       <c r="C76" t="n">
-        <v>46160</v>
+        <v>44210</v>
       </c>
       <c r="D76" t="n">
-        <v>46170</v>
+        <v>44210</v>
       </c>
       <c r="E76" t="n">
-        <v>46160</v>
+        <v>44210</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>1.6271</v>
       </c>
       <c r="G76" t="n">
-        <v>46156.66666666666</v>
+        <v>-175.59651292</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J76" t="n">
+        <v>44180</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3626,33 +3496,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>46400</v>
+        <v>44500</v>
       </c>
       <c r="C77" t="n">
-        <v>46400</v>
+        <v>44160</v>
       </c>
       <c r="D77" t="n">
-        <v>46400</v>
+        <v>44500</v>
       </c>
       <c r="E77" t="n">
-        <v>46400</v>
+        <v>44160</v>
       </c>
       <c r="F77" t="n">
-        <v>1.0197</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>46240</v>
+        <v>-275.59651292</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J77" t="n">
+        <v>44210</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3668,33 +3538,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>46400</v>
+        <v>44150</v>
       </c>
       <c r="C78" t="n">
-        <v>46400</v>
+        <v>44160</v>
       </c>
       <c r="D78" t="n">
-        <v>46400</v>
+        <v>44160</v>
       </c>
       <c r="E78" t="n">
-        <v>46400</v>
+        <v>44150</v>
       </c>
       <c r="F78" t="n">
-        <v>2.5103</v>
+        <v>0.85</v>
       </c>
       <c r="G78" t="n">
-        <v>46320</v>
+        <v>-275.59651292</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J78" t="n">
+        <v>44160</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3710,33 +3580,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>46820</v>
+        <v>44160</v>
       </c>
       <c r="C79" t="n">
-        <v>46820</v>
+        <v>44160</v>
       </c>
       <c r="D79" t="n">
-        <v>46820</v>
+        <v>44160</v>
       </c>
       <c r="E79" t="n">
-        <v>46820</v>
+        <v>44160</v>
       </c>
       <c r="F79" t="n">
-        <v>14.6467</v>
+        <v>0.9536</v>
       </c>
       <c r="G79" t="n">
-        <v>46540</v>
+        <v>-275.59651292</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J79" t="n">
+        <v>44160</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3752,33 +3622,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>46890</v>
+        <v>44160</v>
       </c>
       <c r="C80" t="n">
-        <v>46900</v>
+        <v>44160</v>
       </c>
       <c r="D80" t="n">
-        <v>46900</v>
+        <v>44160</v>
       </c>
       <c r="E80" t="n">
-        <v>46890</v>
+        <v>44160</v>
       </c>
       <c r="F80" t="n">
-        <v>68.35446708000001</v>
+        <v>5.5755</v>
       </c>
       <c r="G80" t="n">
-        <v>46706.66666666666</v>
+        <v>-275.59651292</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J80" t="n">
+        <v>44160</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3794,33 +3664,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>47000</v>
+        <v>44900</v>
       </c>
       <c r="C81" t="n">
-        <v>47100</v>
+        <v>44300</v>
       </c>
       <c r="D81" t="n">
-        <v>47100</v>
+        <v>44900</v>
       </c>
       <c r="E81" t="n">
-        <v>47000</v>
+        <v>44300</v>
       </c>
       <c r="F81" t="n">
-        <v>18.9074</v>
+        <v>10.85</v>
       </c>
       <c r="G81" t="n">
-        <v>46940</v>
+        <v>-264.74651292</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J81" t="n">
+        <v>44160</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,33 +3706,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>47100</v>
+        <v>44610</v>
       </c>
       <c r="C82" t="n">
-        <v>47030</v>
+        <v>44620</v>
       </c>
       <c r="D82" t="n">
-        <v>47100</v>
+        <v>44620</v>
       </c>
       <c r="E82" t="n">
-        <v>47030</v>
+        <v>44610</v>
       </c>
       <c r="F82" t="n">
-        <v>20.2057</v>
+        <v>17.0408</v>
       </c>
       <c r="G82" t="n">
-        <v>47010</v>
+        <v>-247.70571292</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J82" t="n">
+        <v>44300</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3878,33 +3748,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>47030</v>
+        <v>44750</v>
       </c>
       <c r="C83" t="n">
-        <v>47030</v>
+        <v>44750</v>
       </c>
       <c r="D83" t="n">
-        <v>47030</v>
+        <v>44750</v>
       </c>
       <c r="E83" t="n">
-        <v>47030</v>
+        <v>44750</v>
       </c>
       <c r="F83" t="n">
-        <v>4.7943</v>
+        <v>0.1</v>
       </c>
       <c r="G83" t="n">
-        <v>47053.33333333334</v>
+        <v>-247.60571292</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J83" t="n">
+        <v>44620</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3920,33 +3790,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>47090</v>
+        <v>44740</v>
       </c>
       <c r="C84" t="n">
-        <v>47200</v>
+        <v>44740</v>
       </c>
       <c r="D84" t="n">
-        <v>47200</v>
+        <v>44740</v>
       </c>
       <c r="E84" t="n">
-        <v>47090</v>
+        <v>44740</v>
       </c>
       <c r="F84" t="n">
-        <v>14.18</v>
+        <v>10.8418</v>
       </c>
       <c r="G84" t="n">
-        <v>47086.66666666666</v>
+        <v>-258.44751292</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J84" t="n">
+        <v>44750</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3962,33 +3832,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>47200</v>
+        <v>44730</v>
       </c>
       <c r="C85" t="n">
-        <v>47590</v>
+        <v>44740</v>
       </c>
       <c r="D85" t="n">
-        <v>47590</v>
+        <v>44740</v>
       </c>
       <c r="E85" t="n">
-        <v>47200</v>
+        <v>44730</v>
       </c>
       <c r="F85" t="n">
-        <v>8.9026</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>47273.33333333334</v>
+        <v>-258.44751292</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J85" t="n">
+        <v>44740</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,33 +3874,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>47590</v>
+        <v>44790</v>
       </c>
       <c r="C86" t="n">
-        <v>47600</v>
+        <v>44800</v>
       </c>
       <c r="D86" t="n">
-        <v>47600</v>
+        <v>44800</v>
       </c>
       <c r="E86" t="n">
-        <v>47590</v>
+        <v>44790</v>
       </c>
       <c r="F86" t="n">
-        <v>14.16197136</v>
+        <v>18</v>
       </c>
       <c r="G86" t="n">
-        <v>47463.33333333334</v>
+        <v>-240.44751292</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J86" t="n">
+        <v>44740</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,33 +3916,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>47620</v>
+        <v>44880</v>
       </c>
       <c r="C87" t="n">
-        <v>48210</v>
+        <v>44950</v>
       </c>
       <c r="D87" t="n">
-        <v>48210</v>
+        <v>44950</v>
       </c>
       <c r="E87" t="n">
-        <v>47600</v>
+        <v>44880</v>
       </c>
       <c r="F87" t="n">
-        <v>182.317</v>
+        <v>14</v>
       </c>
       <c r="G87" t="n">
-        <v>47800</v>
+        <v>-226.44751292</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J87" t="n">
+        <v>44800</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4088,33 +3958,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>48210</v>
+        <v>44510</v>
       </c>
       <c r="C88" t="n">
-        <v>48210</v>
+        <v>44510</v>
       </c>
       <c r="D88" t="n">
-        <v>48210</v>
+        <v>44510</v>
       </c>
       <c r="E88" t="n">
-        <v>48210</v>
+        <v>44510</v>
       </c>
       <c r="F88" t="n">
-        <v>19.9819</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>48006.66666666666</v>
+        <v>-227.44751292</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J88" t="n">
+        <v>44950</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4130,33 +4000,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>48180</v>
+        <v>44320</v>
       </c>
       <c r="C89" t="n">
-        <v>48170</v>
+        <v>44320</v>
       </c>
       <c r="D89" t="n">
-        <v>48180</v>
+        <v>44320</v>
       </c>
       <c r="E89" t="n">
-        <v>48170</v>
+        <v>44320</v>
       </c>
       <c r="F89" t="n">
-        <v>21.107</v>
+        <v>3.316</v>
       </c>
       <c r="G89" t="n">
-        <v>48196.66666666666</v>
+        <v>-230.76351292</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J89" t="n">
+        <v>44510</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,33 +4042,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>48160</v>
+        <v>44320</v>
       </c>
       <c r="C90" t="n">
-        <v>48090</v>
+        <v>44320</v>
       </c>
       <c r="D90" t="n">
-        <v>48160</v>
+        <v>44320</v>
       </c>
       <c r="E90" t="n">
-        <v>48060</v>
+        <v>44320</v>
       </c>
       <c r="F90" t="n">
-        <v>37.5278</v>
+        <v>2.003</v>
       </c>
       <c r="G90" t="n">
-        <v>48156.66666666666</v>
+        <v>-230.76351292</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J90" t="n">
+        <v>44320</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4214,33 +4084,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>47590</v>
+        <v>44890</v>
       </c>
       <c r="C91" t="n">
-        <v>47580</v>
+        <v>44950</v>
       </c>
       <c r="D91" t="n">
-        <v>47590</v>
+        <v>44950</v>
       </c>
       <c r="E91" t="n">
-        <v>47580</v>
+        <v>44890</v>
       </c>
       <c r="F91" t="n">
-        <v>2.1814</v>
+        <v>7.363</v>
       </c>
       <c r="G91" t="n">
-        <v>47946.66666666666</v>
+        <v>-223.40051292</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J91" t="n">
+        <v>44320</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4256,33 +4126,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>47670</v>
+        <v>45310</v>
       </c>
       <c r="C92" t="n">
-        <v>47330</v>
+        <v>45400</v>
       </c>
       <c r="D92" t="n">
-        <v>47670</v>
+        <v>45400</v>
       </c>
       <c r="E92" t="n">
-        <v>47330</v>
+        <v>45310</v>
       </c>
       <c r="F92" t="n">
-        <v>49.9613</v>
+        <v>20.259</v>
       </c>
       <c r="G92" t="n">
-        <v>47666.66666666666</v>
+        <v>-203.14151292</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J92" t="n">
+        <v>44950</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4298,33 +4168,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>47390</v>
+        <v>44530</v>
       </c>
       <c r="C93" t="n">
-        <v>47390</v>
+        <v>44530</v>
       </c>
       <c r="D93" t="n">
-        <v>47390</v>
+        <v>44530</v>
       </c>
       <c r="E93" t="n">
-        <v>47390</v>
+        <v>44530</v>
       </c>
       <c r="F93" t="n">
-        <v>1.9614</v>
+        <v>0.924</v>
       </c>
       <c r="G93" t="n">
-        <v>47433.33333333334</v>
+        <v>-204.06551292</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J93" t="n">
+        <v>45400</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4340,33 +4210,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>47030</v>
+        <v>45290</v>
       </c>
       <c r="C94" t="n">
-        <v>47030</v>
+        <v>45290</v>
       </c>
       <c r="D94" t="n">
-        <v>47030</v>
+        <v>45290</v>
       </c>
       <c r="E94" t="n">
-        <v>47030</v>
+        <v>45290</v>
       </c>
       <c r="F94" t="n">
-        <v>11.6861</v>
+        <v>0.24031795</v>
       </c>
       <c r="G94" t="n">
-        <v>47250</v>
+        <v>-203.82519497</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J94" t="n">
+        <v>44530</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,22 +4252,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>47450</v>
+        <v>45270</v>
       </c>
       <c r="C95" t="n">
-        <v>47110</v>
+        <v>45300</v>
       </c>
       <c r="D95" t="n">
-        <v>47450</v>
+        <v>45300</v>
       </c>
       <c r="E95" t="n">
-        <v>47110</v>
+        <v>45270</v>
       </c>
       <c r="F95" t="n">
-        <v>36.0358</v>
+        <v>53.4761</v>
       </c>
       <c r="G95" t="n">
-        <v>47176.66666666666</v>
+        <v>-150.34909497</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4406,9 +4276,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4424,22 +4292,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>47100</v>
+        <v>45300</v>
       </c>
       <c r="C96" t="n">
-        <v>47090</v>
+        <v>45300</v>
       </c>
       <c r="D96" t="n">
-        <v>47100</v>
+        <v>45300</v>
       </c>
       <c r="E96" t="n">
-        <v>47090</v>
+        <v>45300</v>
       </c>
       <c r="F96" t="n">
-        <v>18.0179</v>
+        <v>0.2407</v>
       </c>
       <c r="G96" t="n">
-        <v>47076.66666666666</v>
+        <v>-150.34909497</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4448,9 +4316,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4466,22 +4332,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>47150</v>
+        <v>45300</v>
       </c>
       <c r="C97" t="n">
-        <v>47140</v>
+        <v>45300</v>
       </c>
       <c r="D97" t="n">
-        <v>47150</v>
+        <v>45300</v>
       </c>
       <c r="E97" t="n">
-        <v>47140</v>
+        <v>45300</v>
       </c>
       <c r="F97" t="n">
-        <v>8.0815</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>47113.33333333334</v>
+        <v>-150.34909497</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4490,9 +4356,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4508,22 +4372,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>47120</v>
+        <v>45400</v>
       </c>
       <c r="C98" t="n">
-        <v>47170</v>
+        <v>45400</v>
       </c>
       <c r="D98" t="n">
-        <v>47170</v>
+        <v>45400</v>
       </c>
       <c r="E98" t="n">
-        <v>47120</v>
+        <v>45400</v>
       </c>
       <c r="F98" t="n">
-        <v>25.9305</v>
+        <v>0.01</v>
       </c>
       <c r="G98" t="n">
-        <v>47133.33333333334</v>
+        <v>-150.33909497</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4532,9 +4396,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,22 +4412,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>47190</v>
+        <v>45300</v>
       </c>
       <c r="C99" t="n">
-        <v>47030</v>
+        <v>45300</v>
       </c>
       <c r="D99" t="n">
-        <v>47190</v>
+        <v>45300</v>
       </c>
       <c r="E99" t="n">
-        <v>46960</v>
+        <v>45300</v>
       </c>
       <c r="F99" t="n">
-        <v>12.8404</v>
+        <v>164.4437</v>
       </c>
       <c r="G99" t="n">
-        <v>47113.33333333334</v>
+        <v>-314.7827949700001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4574,9 +4436,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4592,22 +4452,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>47160</v>
+        <v>45390</v>
       </c>
       <c r="C100" t="n">
-        <v>47420</v>
+        <v>45400</v>
       </c>
       <c r="D100" t="n">
-        <v>47420</v>
+        <v>45400</v>
       </c>
       <c r="E100" t="n">
-        <v>47160</v>
+        <v>45390</v>
       </c>
       <c r="F100" t="n">
-        <v>2.1164</v>
+        <v>7.3427</v>
       </c>
       <c r="G100" t="n">
-        <v>47206.66666666666</v>
+        <v>-307.4400949700001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4616,9 +4476,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4634,22 +4492,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>47300</v>
+        <v>45390</v>
       </c>
       <c r="C101" t="n">
-        <v>47140</v>
+        <v>45400</v>
       </c>
       <c r="D101" t="n">
-        <v>47300</v>
+        <v>45400</v>
       </c>
       <c r="E101" t="n">
-        <v>47140</v>
+        <v>45390</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0842</v>
+        <v>26.5</v>
       </c>
       <c r="G101" t="n">
-        <v>47196.66666666666</v>
+        <v>-307.4400949700001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4658,9 +4516,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4676,22 +4532,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>47470</v>
+        <v>44550</v>
       </c>
       <c r="C102" t="n">
-        <v>47360</v>
+        <v>44550</v>
       </c>
       <c r="D102" t="n">
-        <v>47470</v>
+        <v>44550</v>
       </c>
       <c r="E102" t="n">
-        <v>47360</v>
+        <v>44550</v>
       </c>
       <c r="F102" t="n">
-        <v>19.0024</v>
+        <v>0.55</v>
       </c>
       <c r="G102" t="n">
-        <v>47306.66666666666</v>
+        <v>-307.9900949700001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4700,9 +4556,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4718,22 +4572,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>47360</v>
+        <v>44550</v>
       </c>
       <c r="C103" t="n">
-        <v>47360</v>
+        <v>44000</v>
       </c>
       <c r="D103" t="n">
-        <v>47360</v>
+        <v>44550</v>
       </c>
       <c r="E103" t="n">
-        <v>47360</v>
+        <v>44000</v>
       </c>
       <c r="F103" t="n">
-        <v>1.9821</v>
+        <v>80.015</v>
       </c>
       <c r="G103" t="n">
-        <v>47286.66666666666</v>
+        <v>-388.0050949700001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4742,9 +4596,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,22 +4612,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>47590</v>
+        <v>44100</v>
       </c>
       <c r="C104" t="n">
-        <v>47500</v>
+        <v>44100</v>
       </c>
       <c r="D104" t="n">
-        <v>47590</v>
+        <v>44100</v>
       </c>
       <c r="E104" t="n">
-        <v>47500</v>
+        <v>44100</v>
       </c>
       <c r="F104" t="n">
-        <v>12.9409</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>47406.66666666666</v>
+        <v>-378.0050949700001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4784,9 +4636,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,22 +4652,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>47400</v>
+        <v>44100</v>
       </c>
       <c r="C105" t="n">
-        <v>47520</v>
+        <v>43920</v>
       </c>
       <c r="D105" t="n">
-        <v>47530</v>
+        <v>44100</v>
       </c>
       <c r="E105" t="n">
-        <v>47400</v>
+        <v>43920</v>
       </c>
       <c r="F105" t="n">
-        <v>75.3519</v>
+        <v>14.4749</v>
       </c>
       <c r="G105" t="n">
-        <v>47460</v>
+        <v>-392.4799949700001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4826,9 +4676,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4844,22 +4692,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>47520</v>
+        <v>44260</v>
       </c>
       <c r="C106" t="n">
-        <v>47510</v>
+        <v>44260</v>
       </c>
       <c r="D106" t="n">
-        <v>47520</v>
+        <v>44260</v>
       </c>
       <c r="E106" t="n">
-        <v>47510</v>
+        <v>44260</v>
       </c>
       <c r="F106" t="n">
-        <v>1.1591</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>47510</v>
+        <v>-390.4799949700001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4868,9 +4716,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4886,22 +4732,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>48400</v>
+        <v>44260</v>
       </c>
       <c r="C107" t="n">
-        <v>48400</v>
+        <v>44260</v>
       </c>
       <c r="D107" t="n">
-        <v>48400</v>
+        <v>44260</v>
       </c>
       <c r="E107" t="n">
-        <v>48400</v>
+        <v>44260</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>47810</v>
+        <v>-390.4799949700001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4910,9 +4756,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4928,22 +4772,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>47520</v>
+        <v>44260</v>
       </c>
       <c r="C108" t="n">
-        <v>47510</v>
+        <v>44260</v>
       </c>
       <c r="D108" t="n">
-        <v>47520</v>
+        <v>44260</v>
       </c>
       <c r="E108" t="n">
-        <v>47510</v>
+        <v>44260</v>
       </c>
       <c r="F108" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>47806.66666666666</v>
+        <v>-390.4799949700001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4952,9 +4796,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4970,33 +4812,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>47500</v>
+        <v>43940</v>
       </c>
       <c r="C109" t="n">
-        <v>47500</v>
+        <v>43920</v>
       </c>
       <c r="D109" t="n">
-        <v>47500</v>
+        <v>43940</v>
       </c>
       <c r="E109" t="n">
-        <v>47500</v>
+        <v>43920</v>
       </c>
       <c r="F109" t="n">
-        <v>34.7109</v>
+        <v>21.2382</v>
       </c>
       <c r="G109" t="n">
-        <v>47803.33333333334</v>
+        <v>-411.7181949700001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J109" t="n">
+        <v>44260</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,33 +4854,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>47500</v>
+        <v>44350</v>
       </c>
       <c r="C110" t="n">
-        <v>47500</v>
+        <v>44350</v>
       </c>
       <c r="D110" t="n">
-        <v>47500</v>
+        <v>44350</v>
       </c>
       <c r="E110" t="n">
-        <v>47500</v>
+        <v>44350</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2365</v>
+        <v>9.6</v>
       </c>
       <c r="G110" t="n">
-        <v>47503.33333333334</v>
+        <v>-402.11819497</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J110" t="n">
+        <v>43920</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5054,33 +4896,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>47000</v>
+        <v>43930</v>
       </c>
       <c r="C111" t="n">
-        <v>47000</v>
+        <v>43850</v>
       </c>
       <c r="D111" t="n">
-        <v>47000</v>
+        <v>43930</v>
       </c>
       <c r="E111" t="n">
-        <v>47000</v>
+        <v>43850</v>
       </c>
       <c r="F111" t="n">
-        <v>34</v>
+        <v>7.4197</v>
       </c>
       <c r="G111" t="n">
-        <v>47333.33333333334</v>
+        <v>-409.53789497</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J111" t="n">
+        <v>44350</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,33 +4938,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>47330</v>
+        <v>43890</v>
       </c>
       <c r="C112" t="n">
-        <v>47430</v>
+        <v>43890</v>
       </c>
       <c r="D112" t="n">
-        <v>47430</v>
+        <v>43890</v>
       </c>
       <c r="E112" t="n">
-        <v>47330</v>
+        <v>43890</v>
       </c>
       <c r="F112" t="n">
-        <v>162.689</v>
+        <v>7</v>
       </c>
       <c r="G112" t="n">
-        <v>47310</v>
+        <v>-402.53789497</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J112" t="n">
+        <v>43850</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,33 +4980,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>47510</v>
+        <v>43850</v>
       </c>
       <c r="C113" t="n">
-        <v>47500</v>
+        <v>43850</v>
       </c>
       <c r="D113" t="n">
-        <v>47510</v>
+        <v>43850</v>
       </c>
       <c r="E113" t="n">
-        <v>47500</v>
+        <v>43850</v>
       </c>
       <c r="F113" t="n">
-        <v>10.4095</v>
+        <v>1.7926</v>
       </c>
       <c r="G113" t="n">
-        <v>47310</v>
+        <v>-404.33049497</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J113" t="n">
+        <v>43890</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5180,33 +5022,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>47500</v>
+        <v>43850</v>
       </c>
       <c r="C114" t="n">
-        <v>47500</v>
+        <v>43850</v>
       </c>
       <c r="D114" t="n">
-        <v>47500</v>
+        <v>43850</v>
       </c>
       <c r="E114" t="n">
-        <v>47500</v>
+        <v>43850</v>
       </c>
       <c r="F114" t="n">
-        <v>2.6225</v>
+        <v>0.2408</v>
       </c>
       <c r="G114" t="n">
-        <v>47476.66666666666</v>
+        <v>-404.33049497</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J114" t="n">
+        <v>43850</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5222,33 +5064,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>47500</v>
+        <v>44500</v>
       </c>
       <c r="C115" t="n">
-        <v>47500</v>
+        <v>44840</v>
       </c>
       <c r="D115" t="n">
-        <v>47500</v>
+        <v>44840</v>
       </c>
       <c r="E115" t="n">
-        <v>47500</v>
+        <v>44500</v>
       </c>
       <c r="F115" t="n">
-        <v>22.589</v>
+        <v>25</v>
       </c>
       <c r="G115" t="n">
-        <v>47500</v>
+        <v>-379.33049497</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J115" t="n">
+        <v>43850</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,33 +5106,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>47340</v>
+        <v>44950</v>
       </c>
       <c r="C116" t="n">
-        <v>47340</v>
+        <v>44950</v>
       </c>
       <c r="D116" t="n">
-        <v>47340</v>
+        <v>44950</v>
       </c>
       <c r="E116" t="n">
-        <v>47340</v>
+        <v>44950</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>0.43</v>
       </c>
       <c r="G116" t="n">
-        <v>47446.66666666666</v>
+        <v>-378.90049497</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J116" t="n">
+        <v>44840</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5306,33 +5148,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>47340</v>
+        <v>44950</v>
       </c>
       <c r="C117" t="n">
-        <v>47340</v>
+        <v>44950</v>
       </c>
       <c r="D117" t="n">
-        <v>47340</v>
+        <v>44950</v>
       </c>
       <c r="E117" t="n">
-        <v>47340</v>
+        <v>44950</v>
       </c>
       <c r="F117" t="n">
-        <v>8.8454</v>
+        <v>1.875</v>
       </c>
       <c r="G117" t="n">
-        <v>47393.33333333334</v>
+        <v>-378.90049497</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J117" t="n">
+        <v>44950</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5348,33 +5190,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>47310</v>
+        <v>44950</v>
       </c>
       <c r="C118" t="n">
-        <v>47310</v>
+        <v>45330</v>
       </c>
       <c r="D118" t="n">
-        <v>47310</v>
+        <v>45340</v>
       </c>
       <c r="E118" t="n">
-        <v>47310</v>
+        <v>44790</v>
       </c>
       <c r="F118" t="n">
-        <v>14</v>
+        <v>4.4178</v>
       </c>
       <c r="G118" t="n">
-        <v>47330</v>
+        <v>-374.48269497</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>44920</v>
-      </c>
+      <c r="J118" t="n">
+        <v>44950</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5390,22 +5232,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>47150</v>
+        <v>45230</v>
       </c>
       <c r="C119" t="n">
-        <v>47150</v>
+        <v>45230</v>
       </c>
       <c r="D119" t="n">
-        <v>47150</v>
+        <v>45230</v>
       </c>
       <c r="E119" t="n">
-        <v>47150</v>
+        <v>45230</v>
       </c>
       <c r="F119" t="n">
-        <v>12</v>
+        <v>0.5349</v>
       </c>
       <c r="G119" t="n">
-        <v>47266.66666666666</v>
+        <v>-375.01759497</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5414,9 +5256,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5432,22 +5272,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>47150</v>
+        <v>44840</v>
       </c>
       <c r="C120" t="n">
-        <v>49620</v>
+        <v>44840</v>
       </c>
       <c r="D120" t="n">
-        <v>49620</v>
+        <v>44840</v>
       </c>
       <c r="E120" t="n">
-        <v>47150</v>
+        <v>44840</v>
       </c>
       <c r="F120" t="n">
-        <v>191.06926001</v>
+        <v>0.1</v>
       </c>
       <c r="G120" t="n">
-        <v>48026.66666666666</v>
+        <v>-375.11759497</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5456,9 +5296,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,22 +5312,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>49450</v>
+        <v>45260</v>
       </c>
       <c r="C121" t="n">
-        <v>49450</v>
+        <v>45260</v>
       </c>
       <c r="D121" t="n">
-        <v>49450</v>
+        <v>45260</v>
       </c>
       <c r="E121" t="n">
-        <v>49450</v>
+        <v>45260</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0108</v>
+        <v>0.01</v>
       </c>
       <c r="G121" t="n">
-        <v>48740</v>
+        <v>-375.10759497</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5498,9 +5336,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5516,22 +5352,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>49000</v>
+        <v>44910</v>
       </c>
       <c r="C122" t="n">
-        <v>49000</v>
+        <v>44910</v>
       </c>
       <c r="D122" t="n">
-        <v>49000</v>
+        <v>44910</v>
       </c>
       <c r="E122" t="n">
-        <v>49000</v>
+        <v>44910</v>
       </c>
       <c r="F122" t="n">
-        <v>17.0991</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>49356.66666666666</v>
+        <v>-376.10759497</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5540,9 +5376,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5558,76 +5392,76 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>48700</v>
+        <v>44910</v>
       </c>
       <c r="C123" t="n">
-        <v>47910</v>
+        <v>44910</v>
       </c>
       <c r="D123" t="n">
-        <v>49230</v>
+        <v>44910</v>
       </c>
       <c r="E123" t="n">
-        <v>47910</v>
+        <v>44910</v>
       </c>
       <c r="F123" t="n">
-        <v>77.34739999999999</v>
+        <v>9.3752</v>
       </c>
       <c r="G123" t="n">
-        <v>48786.66666666666</v>
+        <v>-376.10759497</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>44920</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>1.061562778272485</v>
-      </c>
-      <c r="N123" t="n">
-        <v>1.016749660479855</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>49230</v>
+        <v>44970</v>
       </c>
       <c r="C124" t="n">
-        <v>49230</v>
+        <v>44970</v>
       </c>
       <c r="D124" t="n">
-        <v>49230</v>
+        <v>44970</v>
       </c>
       <c r="E124" t="n">
-        <v>49230</v>
+        <v>44970</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0426</v>
+        <v>13</v>
       </c>
       <c r="G124" t="n">
-        <v>48713.33333333334</v>
+        <v>-363.10759497</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5638,32 +5472,36 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>49090</v>
+        <v>45110</v>
       </c>
       <c r="C125" t="n">
-        <v>49090</v>
+        <v>45110</v>
       </c>
       <c r="D125" t="n">
-        <v>49090</v>
+        <v>45110</v>
       </c>
       <c r="E125" t="n">
-        <v>49090</v>
+        <v>45110</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>9.333600000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>48743.33333333334</v>
+        <v>-353.77399497</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5674,32 +5512,36 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>48220</v>
+        <v>45170</v>
       </c>
       <c r="C126" t="n">
-        <v>48210</v>
+        <v>45170</v>
       </c>
       <c r="D126" t="n">
-        <v>48220</v>
+        <v>45170</v>
       </c>
       <c r="E126" t="n">
-        <v>48210</v>
+        <v>45170</v>
       </c>
       <c r="F126" t="n">
-        <v>3.7363</v>
+        <v>4.4277</v>
       </c>
       <c r="G126" t="n">
-        <v>48843.33333333334</v>
+        <v>-349.34629497</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5710,32 +5552,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>48210</v>
+        <v>45170</v>
       </c>
       <c r="C127" t="n">
-        <v>48210</v>
+        <v>45170</v>
       </c>
       <c r="D127" t="n">
-        <v>48210</v>
+        <v>45170</v>
       </c>
       <c r="E127" t="n">
-        <v>48210</v>
+        <v>45170</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0425</v>
+        <v>23.1291</v>
       </c>
       <c r="G127" t="n">
-        <v>48503.33333333334</v>
+        <v>-349.34629497</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5746,32 +5592,36 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>48210</v>
+        <v>45230</v>
       </c>
       <c r="C128" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="D128" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="E128" t="n">
-        <v>48210</v>
+        <v>45230</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3</v>
+        <v>8.588200000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>48210</v>
+        <v>-340.75809497</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5782,32 +5632,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="C129" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="D129" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="E129" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="F129" t="n">
-        <v>14.4453</v>
+        <v>0.1393</v>
       </c>
       <c r="G129" t="n">
-        <v>48210</v>
+        <v>-340.75809497</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5818,32 +5672,36 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="C130" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="D130" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="E130" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0603</v>
+        <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>48210</v>
+        <v>-340.75809497</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5854,32 +5712,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="C131" t="n">
-        <v>48600</v>
+        <v>45400</v>
       </c>
       <c r="D131" t="n">
-        <v>48600</v>
+        <v>45400</v>
       </c>
       <c r="E131" t="n">
-        <v>48210</v>
+        <v>45350</v>
       </c>
       <c r="F131" t="n">
-        <v>12.4811</v>
+        <v>36.4052</v>
       </c>
       <c r="G131" t="n">
-        <v>48340</v>
+        <v>-304.35289497</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5890,32 +5752,36 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>48410</v>
+        <v>45770</v>
       </c>
       <c r="C132" t="n">
-        <v>48400</v>
+        <v>46040</v>
       </c>
       <c r="D132" t="n">
-        <v>48410</v>
+        <v>46040</v>
       </c>
       <c r="E132" t="n">
-        <v>48400</v>
+        <v>45770</v>
       </c>
       <c r="F132" t="n">
-        <v>19.1503</v>
+        <v>24.9425</v>
       </c>
       <c r="G132" t="n">
-        <v>48403.33333333334</v>
+        <v>-279.41039497</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5926,32 +5792,36 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>48400</v>
+        <v>45830</v>
       </c>
       <c r="C133" t="n">
-        <v>48400</v>
+        <v>45820</v>
       </c>
       <c r="D133" t="n">
-        <v>48400</v>
+        <v>46240</v>
       </c>
       <c r="E133" t="n">
-        <v>48400</v>
+        <v>45820</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>2.01</v>
       </c>
       <c r="G133" t="n">
-        <v>48466.66666666666</v>
+        <v>-281.42039497</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5962,22 +5832,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>48340</v>
+        <v>46060</v>
       </c>
       <c r="C134" t="n">
-        <v>48460</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="n">
-        <v>48460</v>
+        <v>46060</v>
       </c>
       <c r="E134" t="n">
-        <v>48340</v>
+        <v>46060</v>
       </c>
       <c r="F134" t="n">
-        <v>1.7946</v>
+        <v>0.01</v>
       </c>
       <c r="G134" t="n">
-        <v>48420</v>
+        <v>-281.41039497</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5987,7 +5857,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5998,22 +5872,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>48440</v>
+        <v>46060</v>
       </c>
       <c r="C135" t="n">
-        <v>48440</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="n">
-        <v>48440</v>
+        <v>46060</v>
       </c>
       <c r="E135" t="n">
-        <v>48440</v>
+        <v>46060</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6034</v>
+        <v>5</v>
       </c>
       <c r="G135" t="n">
-        <v>48433.33333333334</v>
+        <v>-281.41039497</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6023,7 +5897,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6034,32 +5912,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>48470</v>
+        <v>46040</v>
       </c>
       <c r="C136" t="n">
-        <v>48470</v>
+        <v>46040</v>
       </c>
       <c r="D136" t="n">
-        <v>48470</v>
+        <v>46040</v>
       </c>
       <c r="E136" t="n">
-        <v>48470</v>
+        <v>46040</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0624</v>
+        <v>6</v>
       </c>
       <c r="G136" t="n">
-        <v>48456.66666666666</v>
+        <v>-287.41039497</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6070,32 +5952,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>48470</v>
+        <v>45950</v>
       </c>
       <c r="C137" t="n">
-        <v>48470</v>
+        <v>45950</v>
       </c>
       <c r="D137" t="n">
-        <v>48470</v>
+        <v>45950</v>
       </c>
       <c r="E137" t="n">
-        <v>48470</v>
+        <v>45950</v>
       </c>
       <c r="F137" t="n">
-        <v>46.0168</v>
+        <v>1.23</v>
       </c>
       <c r="G137" t="n">
-        <v>48460</v>
+        <v>-288.64039497</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6106,32 +5992,36 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>48270</v>
+        <v>45870</v>
       </c>
       <c r="C138" t="n">
-        <v>48270</v>
+        <v>46100</v>
       </c>
       <c r="D138" t="n">
-        <v>48270</v>
+        <v>46100</v>
       </c>
       <c r="E138" t="n">
-        <v>48270</v>
+        <v>45860</v>
       </c>
       <c r="F138" t="n">
-        <v>10.3325</v>
+        <v>21.7755</v>
       </c>
       <c r="G138" t="n">
-        <v>48403.33333333334</v>
+        <v>-266.86489497</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6142,32 +6032,36 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>48200</v>
+        <v>46100</v>
       </c>
       <c r="C139" t="n">
-        <v>48200</v>
+        <v>45350</v>
       </c>
       <c r="D139" t="n">
-        <v>48200</v>
+        <v>46100</v>
       </c>
       <c r="E139" t="n">
-        <v>48200</v>
+        <v>45350</v>
       </c>
       <c r="F139" t="n">
-        <v>0.975</v>
+        <v>24.0563</v>
       </c>
       <c r="G139" t="n">
-        <v>48313.33333333334</v>
+        <v>-290.92119497</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6178,32 +6072,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>48200</v>
+        <v>46160</v>
       </c>
       <c r="C140" t="n">
-        <v>48000</v>
+        <v>46160</v>
       </c>
       <c r="D140" t="n">
-        <v>48200</v>
+        <v>46160</v>
       </c>
       <c r="E140" t="n">
-        <v>48000</v>
+        <v>46160</v>
       </c>
       <c r="F140" t="n">
-        <v>70.9847</v>
+        <v>0.01</v>
       </c>
       <c r="G140" t="n">
-        <v>48156.66666666666</v>
+        <v>-290.9111949700001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>45350</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6214,22 +6114,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>47670</v>
+        <v>45120</v>
       </c>
       <c r="C141" t="n">
-        <v>47970</v>
+        <v>45120</v>
       </c>
       <c r="D141" t="n">
-        <v>47970</v>
+        <v>45120</v>
       </c>
       <c r="E141" t="n">
-        <v>47670</v>
+        <v>45120</v>
       </c>
       <c r="F141" t="n">
-        <v>11.8265</v>
+        <v>1.27</v>
       </c>
       <c r="G141" t="n">
-        <v>48056.66666666666</v>
+        <v>-292.18119497</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6239,7 +6139,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6250,32 +6154,38 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>47790</v>
+        <v>45100</v>
       </c>
       <c r="C142" t="n">
-        <v>47790</v>
+        <v>45100</v>
       </c>
       <c r="D142" t="n">
-        <v>47790</v>
+        <v>45100</v>
       </c>
       <c r="E142" t="n">
-        <v>47790</v>
+        <v>45100</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9227</v>
+        <v>0.885</v>
       </c>
       <c r="G142" t="n">
-        <v>47920</v>
+        <v>-293.06619497</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>45120</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6286,32 +6196,38 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>47790</v>
+        <v>45850</v>
       </c>
       <c r="C143" t="n">
-        <v>47790</v>
+        <v>45110</v>
       </c>
       <c r="D143" t="n">
-        <v>47790</v>
+        <v>45850</v>
       </c>
       <c r="E143" t="n">
-        <v>47790</v>
+        <v>45110</v>
       </c>
       <c r="F143" t="n">
-        <v>22.0832</v>
+        <v>1.9313</v>
       </c>
       <c r="G143" t="n">
-        <v>47850</v>
+        <v>-291.13489497</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>45100</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6322,22 +6238,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>47620</v>
+        <v>45220</v>
       </c>
       <c r="C144" t="n">
-        <v>47620</v>
+        <v>45220</v>
       </c>
       <c r="D144" t="n">
-        <v>47620</v>
+        <v>45220</v>
       </c>
       <c r="E144" t="n">
-        <v>47620</v>
+        <v>45220</v>
       </c>
       <c r="F144" t="n">
-        <v>8.158899999999999</v>
+        <v>1.0509</v>
       </c>
       <c r="G144" t="n">
-        <v>47733.33333333334</v>
+        <v>-290.08399497</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6347,7 +6263,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6358,22 +6278,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>47830</v>
+        <v>46010</v>
       </c>
       <c r="C145" t="n">
-        <v>47830</v>
+        <v>46150</v>
       </c>
       <c r="D145" t="n">
-        <v>47830</v>
+        <v>46150</v>
       </c>
       <c r="E145" t="n">
-        <v>47830</v>
+        <v>45950</v>
       </c>
       <c r="F145" t="n">
-        <v>40</v>
+        <v>57.3808</v>
       </c>
       <c r="G145" t="n">
-        <v>47746.66666666666</v>
+        <v>-232.70319497</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6383,7 +6303,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6394,32 +6318,36 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>47700</v>
+        <v>46150</v>
       </c>
       <c r="C146" t="n">
-        <v>47700</v>
+        <v>46160</v>
       </c>
       <c r="D146" t="n">
-        <v>47700</v>
+        <v>46160</v>
       </c>
       <c r="E146" t="n">
-        <v>47700</v>
+        <v>46150</v>
       </c>
       <c r="F146" t="n">
-        <v>16.9982</v>
+        <v>89.01819999999999</v>
       </c>
       <c r="G146" t="n">
-        <v>47716.66666666666</v>
+        <v>-143.68499497</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6430,32 +6358,36 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>47700</v>
+        <v>46170</v>
       </c>
       <c r="C147" t="n">
-        <v>47700</v>
+        <v>46160</v>
       </c>
       <c r="D147" t="n">
-        <v>47700</v>
+        <v>46170</v>
       </c>
       <c r="E147" t="n">
-        <v>47700</v>
+        <v>46160</v>
       </c>
       <c r="F147" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>47743.33333333334</v>
+        <v>-143.68499497</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6466,32 +6398,36 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>47700</v>
+        <v>46400</v>
       </c>
       <c r="C148" t="n">
-        <v>47690</v>
+        <v>46400</v>
       </c>
       <c r="D148" t="n">
-        <v>47700</v>
+        <v>46400</v>
       </c>
       <c r="E148" t="n">
-        <v>47690</v>
+        <v>46400</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>1.0197</v>
       </c>
       <c r="G148" t="n">
-        <v>47696.66666666666</v>
+        <v>-142.66529497</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6502,22 +6438,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>47690</v>
+        <v>46400</v>
       </c>
       <c r="C149" t="n">
-        <v>47690</v>
+        <v>46400</v>
       </c>
       <c r="D149" t="n">
-        <v>47690</v>
+        <v>46400</v>
       </c>
       <c r="E149" t="n">
-        <v>47690</v>
+        <v>46400</v>
       </c>
       <c r="F149" t="n">
-        <v>0.913</v>
+        <v>2.5103</v>
       </c>
       <c r="G149" t="n">
-        <v>47693.33333333334</v>
+        <v>-142.66529497</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6527,11 +6463,2741 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
       <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>46820</v>
+      </c>
+      <c r="C150" t="n">
+        <v>46820</v>
+      </c>
+      <c r="D150" t="n">
+        <v>46820</v>
+      </c>
+      <c r="E150" t="n">
+        <v>46820</v>
+      </c>
+      <c r="F150" t="n">
+        <v>14.6467</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-128.01859497</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>46890</v>
+      </c>
+      <c r="C151" t="n">
+        <v>46900</v>
+      </c>
+      <c r="D151" t="n">
+        <v>46900</v>
+      </c>
+      <c r="E151" t="n">
+        <v>46890</v>
+      </c>
+      <c r="F151" t="n">
+        <v>68.35446708000001</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-59.66412788999997</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>47000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>47100</v>
+      </c>
+      <c r="D152" t="n">
+        <v>47100</v>
+      </c>
+      <c r="E152" t="n">
+        <v>47000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>18.9074</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-40.75672788999998</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>47100</v>
+      </c>
+      <c r="C153" t="n">
+        <v>47030</v>
+      </c>
+      <c r="D153" t="n">
+        <v>47100</v>
+      </c>
+      <c r="E153" t="n">
+        <v>47030</v>
+      </c>
+      <c r="F153" t="n">
+        <v>20.2057</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-60.96242788999998</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>47030</v>
+      </c>
+      <c r="C154" t="n">
+        <v>47030</v>
+      </c>
+      <c r="D154" t="n">
+        <v>47030</v>
+      </c>
+      <c r="E154" t="n">
+        <v>47030</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4.7943</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-60.96242788999998</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>47090</v>
+      </c>
+      <c r="C155" t="n">
+        <v>47200</v>
+      </c>
+      <c r="D155" t="n">
+        <v>47200</v>
+      </c>
+      <c r="E155" t="n">
+        <v>47090</v>
+      </c>
+      <c r="F155" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-46.78242788999998</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>47200</v>
+      </c>
+      <c r="C156" t="n">
+        <v>47590</v>
+      </c>
+      <c r="D156" t="n">
+        <v>47590</v>
+      </c>
+      <c r="E156" t="n">
+        <v>47200</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8.9026</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-37.87982788999998</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>47590</v>
+      </c>
+      <c r="C157" t="n">
+        <v>47600</v>
+      </c>
+      <c r="D157" t="n">
+        <v>47600</v>
+      </c>
+      <c r="E157" t="n">
+        <v>47590</v>
+      </c>
+      <c r="F157" t="n">
+        <v>14.16197136</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-23.71785652999998</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>47620</v>
+      </c>
+      <c r="C158" t="n">
+        <v>48210</v>
+      </c>
+      <c r="D158" t="n">
+        <v>48210</v>
+      </c>
+      <c r="E158" t="n">
+        <v>47600</v>
+      </c>
+      <c r="F158" t="n">
+        <v>182.317</v>
+      </c>
+      <c r="G158" t="n">
+        <v>158.59914347</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>48210</v>
+      </c>
+      <c r="C159" t="n">
+        <v>48210</v>
+      </c>
+      <c r="D159" t="n">
+        <v>48210</v>
+      </c>
+      <c r="E159" t="n">
+        <v>48210</v>
+      </c>
+      <c r="F159" t="n">
+        <v>19.9819</v>
+      </c>
+      <c r="G159" t="n">
+        <v>158.59914347</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>48180</v>
+      </c>
+      <c r="C160" t="n">
+        <v>48170</v>
+      </c>
+      <c r="D160" t="n">
+        <v>48180</v>
+      </c>
+      <c r="E160" t="n">
+        <v>48170</v>
+      </c>
+      <c r="F160" t="n">
+        <v>21.107</v>
+      </c>
+      <c r="G160" t="n">
+        <v>137.49214347</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>48160</v>
+      </c>
+      <c r="C161" t="n">
+        <v>48090</v>
+      </c>
+      <c r="D161" t="n">
+        <v>48160</v>
+      </c>
+      <c r="E161" t="n">
+        <v>48060</v>
+      </c>
+      <c r="F161" t="n">
+        <v>37.5278</v>
+      </c>
+      <c r="G161" t="n">
+        <v>99.96434347000003</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>47590</v>
+      </c>
+      <c r="C162" t="n">
+        <v>47580</v>
+      </c>
+      <c r="D162" t="n">
+        <v>47590</v>
+      </c>
+      <c r="E162" t="n">
+        <v>47580</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.1814</v>
+      </c>
+      <c r="G162" t="n">
+        <v>97.78294347000003</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>47670</v>
+      </c>
+      <c r="C163" t="n">
+        <v>47330</v>
+      </c>
+      <c r="D163" t="n">
+        <v>47670</v>
+      </c>
+      <c r="E163" t="n">
+        <v>47330</v>
+      </c>
+      <c r="F163" t="n">
+        <v>49.9613</v>
+      </c>
+      <c r="G163" t="n">
+        <v>47.82164347000003</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>47390</v>
+      </c>
+      <c r="C164" t="n">
+        <v>47390</v>
+      </c>
+      <c r="D164" t="n">
+        <v>47390</v>
+      </c>
+      <c r="E164" t="n">
+        <v>47390</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.9614</v>
+      </c>
+      <c r="G164" t="n">
+        <v>49.78304347000003</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>47030</v>
+      </c>
+      <c r="C165" t="n">
+        <v>47030</v>
+      </c>
+      <c r="D165" t="n">
+        <v>47030</v>
+      </c>
+      <c r="E165" t="n">
+        <v>47030</v>
+      </c>
+      <c r="F165" t="n">
+        <v>11.6861</v>
+      </c>
+      <c r="G165" t="n">
+        <v>38.09694347000003</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>47450</v>
+      </c>
+      <c r="C166" t="n">
+        <v>47110</v>
+      </c>
+      <c r="D166" t="n">
+        <v>47450</v>
+      </c>
+      <c r="E166" t="n">
+        <v>47110</v>
+      </c>
+      <c r="F166" t="n">
+        <v>36.0358</v>
+      </c>
+      <c r="G166" t="n">
+        <v>74.13274347000004</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>47100</v>
+      </c>
+      <c r="C167" t="n">
+        <v>47090</v>
+      </c>
+      <c r="D167" t="n">
+        <v>47100</v>
+      </c>
+      <c r="E167" t="n">
+        <v>47090</v>
+      </c>
+      <c r="F167" t="n">
+        <v>18.0179</v>
+      </c>
+      <c r="G167" t="n">
+        <v>56.11484347000004</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>47150</v>
+      </c>
+      <c r="C168" t="n">
+        <v>47140</v>
+      </c>
+      <c r="D168" t="n">
+        <v>47150</v>
+      </c>
+      <c r="E168" t="n">
+        <v>47140</v>
+      </c>
+      <c r="F168" t="n">
+        <v>8.0815</v>
+      </c>
+      <c r="G168" t="n">
+        <v>64.19634347000004</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>47120</v>
+      </c>
+      <c r="C169" t="n">
+        <v>47170</v>
+      </c>
+      <c r="D169" t="n">
+        <v>47170</v>
+      </c>
+      <c r="E169" t="n">
+        <v>47120</v>
+      </c>
+      <c r="F169" t="n">
+        <v>25.9305</v>
+      </c>
+      <c r="G169" t="n">
+        <v>90.12684347000004</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>47190</v>
+      </c>
+      <c r="C170" t="n">
+        <v>47030</v>
+      </c>
+      <c r="D170" t="n">
+        <v>47190</v>
+      </c>
+      <c r="E170" t="n">
+        <v>46960</v>
+      </c>
+      <c r="F170" t="n">
+        <v>12.8404</v>
+      </c>
+      <c r="G170" t="n">
+        <v>77.28644347000004</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>47160</v>
+      </c>
+      <c r="C171" t="n">
+        <v>47420</v>
+      </c>
+      <c r="D171" t="n">
+        <v>47420</v>
+      </c>
+      <c r="E171" t="n">
+        <v>47160</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.1164</v>
+      </c>
+      <c r="G171" t="n">
+        <v>79.40284347000004</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>47300</v>
+      </c>
+      <c r="C172" t="n">
+        <v>47140</v>
+      </c>
+      <c r="D172" t="n">
+        <v>47300</v>
+      </c>
+      <c r="E172" t="n">
+        <v>47140</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.0842</v>
+      </c>
+      <c r="G172" t="n">
+        <v>78.31864347000004</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>47470</v>
+      </c>
+      <c r="C173" t="n">
+        <v>47360</v>
+      </c>
+      <c r="D173" t="n">
+        <v>47470</v>
+      </c>
+      <c r="E173" t="n">
+        <v>47360</v>
+      </c>
+      <c r="F173" t="n">
+        <v>19.0024</v>
+      </c>
+      <c r="G173" t="n">
+        <v>97.32104347000003</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>47360</v>
+      </c>
+      <c r="C174" t="n">
+        <v>47360</v>
+      </c>
+      <c r="D174" t="n">
+        <v>47360</v>
+      </c>
+      <c r="E174" t="n">
+        <v>47360</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.9821</v>
+      </c>
+      <c r="G174" t="n">
+        <v>97.32104347000003</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>47590</v>
+      </c>
+      <c r="C175" t="n">
+        <v>47500</v>
+      </c>
+      <c r="D175" t="n">
+        <v>47590</v>
+      </c>
+      <c r="E175" t="n">
+        <v>47500</v>
+      </c>
+      <c r="F175" t="n">
+        <v>12.9409</v>
+      </c>
+      <c r="G175" t="n">
+        <v>110.26194347</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>47400</v>
+      </c>
+      <c r="C176" t="n">
+        <v>47520</v>
+      </c>
+      <c r="D176" t="n">
+        <v>47530</v>
+      </c>
+      <c r="E176" t="n">
+        <v>47400</v>
+      </c>
+      <c r="F176" t="n">
+        <v>75.3519</v>
+      </c>
+      <c r="G176" t="n">
+        <v>185.61384347</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>47520</v>
+      </c>
+      <c r="C177" t="n">
+        <v>47510</v>
+      </c>
+      <c r="D177" t="n">
+        <v>47520</v>
+      </c>
+      <c r="E177" t="n">
+        <v>47510</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.1591</v>
+      </c>
+      <c r="G177" t="n">
+        <v>184.45474347</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>48400</v>
+      </c>
+      <c r="C178" t="n">
+        <v>48400</v>
+      </c>
+      <c r="D178" t="n">
+        <v>48400</v>
+      </c>
+      <c r="E178" t="n">
+        <v>48400</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>184.55474347</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>47520</v>
+      </c>
+      <c r="C179" t="n">
+        <v>47510</v>
+      </c>
+      <c r="D179" t="n">
+        <v>47520</v>
+      </c>
+      <c r="E179" t="n">
+        <v>47510</v>
+      </c>
+      <c r="F179" t="n">
+        <v>21</v>
+      </c>
+      <c r="G179" t="n">
+        <v>163.55474347</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>47500</v>
+      </c>
+      <c r="C180" t="n">
+        <v>47500</v>
+      </c>
+      <c r="D180" t="n">
+        <v>47500</v>
+      </c>
+      <c r="E180" t="n">
+        <v>47500</v>
+      </c>
+      <c r="F180" t="n">
+        <v>34.7109</v>
+      </c>
+      <c r="G180" t="n">
+        <v>128.84384347</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>47500</v>
+      </c>
+      <c r="C181" t="n">
+        <v>47500</v>
+      </c>
+      <c r="D181" t="n">
+        <v>47500</v>
+      </c>
+      <c r="E181" t="n">
+        <v>47500</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.2365</v>
+      </c>
+      <c r="G181" t="n">
+        <v>128.84384347</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>47000</v>
+      </c>
+      <c r="C182" t="n">
+        <v>47000</v>
+      </c>
+      <c r="D182" t="n">
+        <v>47000</v>
+      </c>
+      <c r="E182" t="n">
+        <v>47000</v>
+      </c>
+      <c r="F182" t="n">
+        <v>34</v>
+      </c>
+      <c r="G182" t="n">
+        <v>94.84384347000002</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>47330</v>
+      </c>
+      <c r="C183" t="n">
+        <v>47430</v>
+      </c>
+      <c r="D183" t="n">
+        <v>47430</v>
+      </c>
+      <c r="E183" t="n">
+        <v>47330</v>
+      </c>
+      <c r="F183" t="n">
+        <v>162.689</v>
+      </c>
+      <c r="G183" t="n">
+        <v>257.53284347</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>47510</v>
+      </c>
+      <c r="C184" t="n">
+        <v>47500</v>
+      </c>
+      <c r="D184" t="n">
+        <v>47510</v>
+      </c>
+      <c r="E184" t="n">
+        <v>47500</v>
+      </c>
+      <c r="F184" t="n">
+        <v>10.4095</v>
+      </c>
+      <c r="G184" t="n">
+        <v>267.94234347</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>47500</v>
+      </c>
+      <c r="C185" t="n">
+        <v>47500</v>
+      </c>
+      <c r="D185" t="n">
+        <v>47500</v>
+      </c>
+      <c r="E185" t="n">
+        <v>47500</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2.6225</v>
+      </c>
+      <c r="G185" t="n">
+        <v>267.94234347</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>47500</v>
+      </c>
+      <c r="C186" t="n">
+        <v>47500</v>
+      </c>
+      <c r="D186" t="n">
+        <v>47500</v>
+      </c>
+      <c r="E186" t="n">
+        <v>47500</v>
+      </c>
+      <c r="F186" t="n">
+        <v>22.589</v>
+      </c>
+      <c r="G186" t="n">
+        <v>267.94234347</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>47340</v>
+      </c>
+      <c r="C187" t="n">
+        <v>47340</v>
+      </c>
+      <c r="D187" t="n">
+        <v>47340</v>
+      </c>
+      <c r="E187" t="n">
+        <v>47340</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20</v>
+      </c>
+      <c r="G187" t="n">
+        <v>247.94234347</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>47340</v>
+      </c>
+      <c r="C188" t="n">
+        <v>47340</v>
+      </c>
+      <c r="D188" t="n">
+        <v>47340</v>
+      </c>
+      <c r="E188" t="n">
+        <v>47340</v>
+      </c>
+      <c r="F188" t="n">
+        <v>8.8454</v>
+      </c>
+      <c r="G188" t="n">
+        <v>247.94234347</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>47310</v>
+      </c>
+      <c r="C189" t="n">
+        <v>47310</v>
+      </c>
+      <c r="D189" t="n">
+        <v>47310</v>
+      </c>
+      <c r="E189" t="n">
+        <v>47310</v>
+      </c>
+      <c r="F189" t="n">
+        <v>14</v>
+      </c>
+      <c r="G189" t="n">
+        <v>233.94234347</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>47150</v>
+      </c>
+      <c r="C190" t="n">
+        <v>47150</v>
+      </c>
+      <c r="D190" t="n">
+        <v>47150</v>
+      </c>
+      <c r="E190" t="n">
+        <v>47150</v>
+      </c>
+      <c r="F190" t="n">
+        <v>12</v>
+      </c>
+      <c r="G190" t="n">
+        <v>221.94234347</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>47150</v>
+      </c>
+      <c r="C191" t="n">
+        <v>49620</v>
+      </c>
+      <c r="D191" t="n">
+        <v>49620</v>
+      </c>
+      <c r="E191" t="n">
+        <v>47150</v>
+      </c>
+      <c r="F191" t="n">
+        <v>191.06926001</v>
+      </c>
+      <c r="G191" t="n">
+        <v>413.01160348</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>49450</v>
+      </c>
+      <c r="C192" t="n">
+        <v>49450</v>
+      </c>
+      <c r="D192" t="n">
+        <v>49450</v>
+      </c>
+      <c r="E192" t="n">
+        <v>49450</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="G192" t="n">
+        <v>413.0008034799999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>49000</v>
+      </c>
+      <c r="C193" t="n">
+        <v>49000</v>
+      </c>
+      <c r="D193" t="n">
+        <v>49000</v>
+      </c>
+      <c r="E193" t="n">
+        <v>49000</v>
+      </c>
+      <c r="F193" t="n">
+        <v>17.0991</v>
+      </c>
+      <c r="G193" t="n">
+        <v>395.9017034799999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>48700</v>
+      </c>
+      <c r="C194" t="n">
+        <v>47910</v>
+      </c>
+      <c r="D194" t="n">
+        <v>49230</v>
+      </c>
+      <c r="E194" t="n">
+        <v>47910</v>
+      </c>
+      <c r="F194" t="n">
+        <v>77.34739999999999</v>
+      </c>
+      <c r="G194" t="n">
+        <v>318.5543034799999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>49230</v>
+      </c>
+      <c r="C195" t="n">
+        <v>49230</v>
+      </c>
+      <c r="D195" t="n">
+        <v>49230</v>
+      </c>
+      <c r="E195" t="n">
+        <v>49230</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.0426</v>
+      </c>
+      <c r="G195" t="n">
+        <v>318.5969034799999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>49090</v>
+      </c>
+      <c r="C196" t="n">
+        <v>49090</v>
+      </c>
+      <c r="D196" t="n">
+        <v>49090</v>
+      </c>
+      <c r="E196" t="n">
+        <v>49090</v>
+      </c>
+      <c r="F196" t="n">
+        <v>10</v>
+      </c>
+      <c r="G196" t="n">
+        <v>308.5969034799999</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>48220</v>
+      </c>
+      <c r="C197" t="n">
+        <v>48210</v>
+      </c>
+      <c r="D197" t="n">
+        <v>48220</v>
+      </c>
+      <c r="E197" t="n">
+        <v>48210</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3.7363</v>
+      </c>
+      <c r="G197" t="n">
+        <v>304.8606034799999</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>48210</v>
+      </c>
+      <c r="C198" t="n">
+        <v>48210</v>
+      </c>
+      <c r="D198" t="n">
+        <v>48210</v>
+      </c>
+      <c r="E198" t="n">
+        <v>48210</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="G198" t="n">
+        <v>304.8606034799999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>48210</v>
+      </c>
+      <c r="C199" t="n">
+        <v>48210</v>
+      </c>
+      <c r="D199" t="n">
+        <v>48210</v>
+      </c>
+      <c r="E199" t="n">
+        <v>48210</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G199" t="n">
+        <v>304.8606034799999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>48210</v>
+      </c>
+      <c r="C200" t="n">
+        <v>48210</v>
+      </c>
+      <c r="D200" t="n">
+        <v>48210</v>
+      </c>
+      <c r="E200" t="n">
+        <v>48210</v>
+      </c>
+      <c r="F200" t="n">
+        <v>14.4453</v>
+      </c>
+      <c r="G200" t="n">
+        <v>304.8606034799999</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>48210</v>
+      </c>
+      <c r="C201" t="n">
+        <v>48210</v>
+      </c>
+      <c r="D201" t="n">
+        <v>48210</v>
+      </c>
+      <c r="E201" t="n">
+        <v>48210</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.0603</v>
+      </c>
+      <c r="G201" t="n">
+        <v>304.8606034799999</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>48210</v>
+      </c>
+      <c r="C202" t="n">
+        <v>48600</v>
+      </c>
+      <c r="D202" t="n">
+        <v>48600</v>
+      </c>
+      <c r="E202" t="n">
+        <v>48210</v>
+      </c>
+      <c r="F202" t="n">
+        <v>12.4811</v>
+      </c>
+      <c r="G202" t="n">
+        <v>317.3417034799999</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>48410</v>
+      </c>
+      <c r="C203" t="n">
+        <v>48400</v>
+      </c>
+      <c r="D203" t="n">
+        <v>48410</v>
+      </c>
+      <c r="E203" t="n">
+        <v>48400</v>
+      </c>
+      <c r="F203" t="n">
+        <v>19.1503</v>
+      </c>
+      <c r="G203" t="n">
+        <v>298.1914034799999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>48400</v>
+      </c>
+      <c r="C204" t="n">
+        <v>48400</v>
+      </c>
+      <c r="D204" t="n">
+        <v>48400</v>
+      </c>
+      <c r="E204" t="n">
+        <v>48400</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>298.1914034799999</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>48340</v>
+      </c>
+      <c r="C205" t="n">
+        <v>48460</v>
+      </c>
+      <c r="D205" t="n">
+        <v>48460</v>
+      </c>
+      <c r="E205" t="n">
+        <v>48340</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.7946</v>
+      </c>
+      <c r="G205" t="n">
+        <v>299.9860034799999</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>48440</v>
+      </c>
+      <c r="C206" t="n">
+        <v>48440</v>
+      </c>
+      <c r="D206" t="n">
+        <v>48440</v>
+      </c>
+      <c r="E206" t="n">
+        <v>48440</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="G206" t="n">
+        <v>299.3826034799999</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>48470</v>
+      </c>
+      <c r="C207" t="n">
+        <v>48470</v>
+      </c>
+      <c r="D207" t="n">
+        <v>48470</v>
+      </c>
+      <c r="E207" t="n">
+        <v>48470</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.0624</v>
+      </c>
+      <c r="G207" t="n">
+        <v>299.4450034799999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>48470</v>
+      </c>
+      <c r="C208" t="n">
+        <v>48470</v>
+      </c>
+      <c r="D208" t="n">
+        <v>48470</v>
+      </c>
+      <c r="E208" t="n">
+        <v>48470</v>
+      </c>
+      <c r="F208" t="n">
+        <v>46.0168</v>
+      </c>
+      <c r="G208" t="n">
+        <v>299.4450034799999</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>48270</v>
+      </c>
+      <c r="C209" t="n">
+        <v>48270</v>
+      </c>
+      <c r="D209" t="n">
+        <v>48270</v>
+      </c>
+      <c r="E209" t="n">
+        <v>48270</v>
+      </c>
+      <c r="F209" t="n">
+        <v>10.3325</v>
+      </c>
+      <c r="G209" t="n">
+        <v>289.1125034799999</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>48200</v>
+      </c>
+      <c r="C210" t="n">
+        <v>48200</v>
+      </c>
+      <c r="D210" t="n">
+        <v>48200</v>
+      </c>
+      <c r="E210" t="n">
+        <v>48200</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G210" t="n">
+        <v>288.1375034799999</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>48200</v>
+      </c>
+      <c r="C211" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D211" t="n">
+        <v>48200</v>
+      </c>
+      <c r="E211" t="n">
+        <v>48000</v>
+      </c>
+      <c r="F211" t="n">
+        <v>70.9847</v>
+      </c>
+      <c r="G211" t="n">
+        <v>217.1528034799999</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>47670</v>
+      </c>
+      <c r="C212" t="n">
+        <v>47970</v>
+      </c>
+      <c r="D212" t="n">
+        <v>47970</v>
+      </c>
+      <c r="E212" t="n">
+        <v>47670</v>
+      </c>
+      <c r="F212" t="n">
+        <v>11.8265</v>
+      </c>
+      <c r="G212" t="n">
+        <v>205.3263034799999</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>47790</v>
+      </c>
+      <c r="C213" t="n">
+        <v>47790</v>
+      </c>
+      <c r="D213" t="n">
+        <v>47790</v>
+      </c>
+      <c r="E213" t="n">
+        <v>47790</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.9227</v>
+      </c>
+      <c r="G213" t="n">
+        <v>204.4036034799999</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>47790</v>
+      </c>
+      <c r="C214" t="n">
+        <v>47790</v>
+      </c>
+      <c r="D214" t="n">
+        <v>47790</v>
+      </c>
+      <c r="E214" t="n">
+        <v>47790</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22.0832</v>
+      </c>
+      <c r="G214" t="n">
+        <v>204.4036034799999</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>47620</v>
+      </c>
+      <c r="C215" t="n">
+        <v>47620</v>
+      </c>
+      <c r="D215" t="n">
+        <v>47620</v>
+      </c>
+      <c r="E215" t="n">
+        <v>47620</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8.158899999999999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>196.2447034799999</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>47830</v>
+      </c>
+      <c r="C216" t="n">
+        <v>47830</v>
+      </c>
+      <c r="D216" t="n">
+        <v>47830</v>
+      </c>
+      <c r="E216" t="n">
+        <v>47830</v>
+      </c>
+      <c r="F216" t="n">
+        <v>40</v>
+      </c>
+      <c r="G216" t="n">
+        <v>236.2447034799999</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>47700</v>
+      </c>
+      <c r="C217" t="n">
+        <v>47700</v>
+      </c>
+      <c r="D217" t="n">
+        <v>47700</v>
+      </c>
+      <c r="E217" t="n">
+        <v>47700</v>
+      </c>
+      <c r="F217" t="n">
+        <v>16.9982</v>
+      </c>
+      <c r="G217" t="n">
+        <v>219.2465034799999</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>47700</v>
+      </c>
+      <c r="C218" t="n">
+        <v>47700</v>
+      </c>
+      <c r="D218" t="n">
+        <v>47700</v>
+      </c>
+      <c r="E218" t="n">
+        <v>47700</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G218" t="n">
+        <v>219.2465034799999</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>47700</v>
+      </c>
+      <c r="C219" t="n">
+        <v>47690</v>
+      </c>
+      <c r="D219" t="n">
+        <v>47700</v>
+      </c>
+      <c r="E219" t="n">
+        <v>47690</v>
+      </c>
+      <c r="F219" t="n">
+        <v>10</v>
+      </c>
+      <c r="G219" t="n">
+        <v>209.2465034799999</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>47690</v>
+      </c>
+      <c r="C220" t="n">
+        <v>47690</v>
+      </c>
+      <c r="D220" t="n">
+        <v>47690</v>
+      </c>
+      <c r="E220" t="n">
+        <v>47690</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="G220" t="n">
+        <v>209.2465034799999</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-28 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N220"/>
+  <dimension ref="A1:M220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-21.05811291999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>-35.63531291999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>44800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +517,15 @@
         <v>2.73548708000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,22 +550,21 @@
         <v>-1.00131291999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44800</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,20 +591,17 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,20 +628,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -698,20 +665,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,20 +702,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -776,22 +737,21 @@
         <v>50.65028708000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>45100</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,20 +778,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,20 +815,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,20 +852,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -938,20 +889,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,20 +926,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1016,22 +961,19 @@
         <v>-25.22011291999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1058,20 +1000,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1096,22 +1035,19 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1136,22 +1072,21 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>45050</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1178,20 +1113,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1216,22 +1148,21 @@
         <v>-66.78381291999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>45050</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1256,22 +1187,19 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1296,22 +1224,21 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>44440</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1336,24 +1263,21 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>44440</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1378,24 +1302,21 @@
         <v>-115.39081292</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>44440</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1420,24 +1341,21 @@
         <v>-166.27851292</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>44040</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1462,24 +1380,21 @@
         <v>-168.98171292</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>44020</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1504,24 +1419,21 @@
         <v>-153.98171292</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
         <v>44010</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1546,24 +1458,21 @@
         <v>-171.98171292</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
         <v>44120</v>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1588,24 +1497,21 @@
         <v>-171.99171292</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
         <v>44030</v>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1632,22 +1538,17 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>43970</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1674,22 +1575,17 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>43950</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1716,22 +1612,17 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>43880</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1758,22 +1649,17 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>43740</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1800,22 +1686,17 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>44000</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1842,22 +1723,17 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>44210</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1884,22 +1760,17 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>44330</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1926,22 +1797,17 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>44030</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1968,22 +1834,17 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>43940</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2010,22 +1871,17 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>44480</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2050,22 +1906,19 @@
         <v>-130.40061292</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2092,22 +1945,17 @@
       <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>44730</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2134,22 +1982,17 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>44790</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2174,22 +2017,19 @@
         <v>-36.07421292000002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2214,22 +2054,19 @@
         <v>-64.10611292000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2254,22 +2091,19 @@
         <v>-58.62321292000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2294,22 +2128,19 @@
         <v>-58.62321292000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2334,22 +2165,19 @@
         <v>-79.98421292000002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2374,22 +2202,21 @@
         <v>-76.29551292000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>45220</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2414,22 +2241,19 @@
         <v>-73.53191292000002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2454,22 +2278,21 @@
         <v>-72.49191292000002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>45490</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2494,22 +2317,21 @@
         <v>-77.32281292000002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>45500</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2534,22 +2356,21 @@
         <v>-83.34471292000002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>45490</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2574,22 +2395,21 @@
         <v>-91.11591292000003</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>45430</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2614,22 +2434,21 @@
         <v>-103.43771292</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>45310</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2654,22 +2473,21 @@
         <v>-127.91791292</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>45050</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2694,22 +2512,21 @@
         <v>-127.91791292</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>44990</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2734,22 +2551,21 @@
         <v>-137.52731292</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>44990</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2774,22 +2590,21 @@
         <v>-135.68101292</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>44930</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2814,22 +2629,19 @@
         <v>-125.85581292</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2854,22 +2666,21 @@
         <v>-126.67761292</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>45010</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2894,22 +2705,19 @@
         <v>-125.85581292</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2934,22 +2742,21 @@
         <v>-125.85581292</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>45040</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2974,22 +2781,19 @@
         <v>-125.85581292</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3014,22 +2818,19 @@
         <v>-129.39591292</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3054,22 +2855,19 @@
         <v>-131.29491292</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3096,22 +2894,17 @@
       <c r="H67" t="n">
         <v>1</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>44790</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3138,22 +2931,17 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>44450</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3180,22 +2968,17 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>44360</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3222,22 +3005,17 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>44450</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3264,22 +3042,17 @@
       <c r="H71" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>44960</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3306,22 +3079,17 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>44930</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3348,22 +3116,17 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>44920</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3390,22 +3153,17 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>44920</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3432,22 +3190,17 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>44910</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3474,22 +3227,17 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>44180</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3516,22 +3264,17 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>44210</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3558,22 +3301,17 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>44160</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3600,22 +3338,17 @@
       <c r="H79" t="n">
         <v>1</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>44160</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3642,22 +3375,17 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>44160</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3682,24 +3410,21 @@
         <v>-264.74651292</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
         <v>44160</v>
       </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3724,24 +3449,21 @@
         <v>-247.70571292</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>44300</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3766,24 +3488,21 @@
         <v>-247.60571292</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
         <v>44620</v>
       </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3808,24 +3527,21 @@
         <v>-258.44751292</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
         <v>44750</v>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3850,24 +3566,21 @@
         <v>-258.44751292</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
         <v>44740</v>
       </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3892,24 +3605,21 @@
         <v>-240.44751292</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
         <v>44740</v>
       </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3934,24 +3644,21 @@
         <v>-226.44751292</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
         <v>44800</v>
       </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3976,24 +3683,21 @@
         <v>-227.44751292</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
         <v>44950</v>
       </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4018,24 +3722,21 @@
         <v>-230.76351292</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
         <v>44510</v>
       </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4060,24 +3761,21 @@
         <v>-230.76351292</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
         <v>44320</v>
       </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4102,24 +3800,21 @@
         <v>-223.40051292</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
         <v>44320</v>
       </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4144,24 +3839,21 @@
         <v>-203.14151292</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
         <v>44950</v>
       </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4186,24 +3878,21 @@
         <v>-204.06551292</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
         <v>45400</v>
       </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4228,24 +3917,21 @@
         <v>-203.82519497</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
         <v>44530</v>
       </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4270,22 +3956,21 @@
         <v>-150.34909497</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>45290</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4312,20 +3997,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4352,20 +4034,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4392,20 +4071,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4432,20 +4108,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4472,20 +4145,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4512,20 +4182,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4552,20 +4219,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4592,20 +4256,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4632,20 +4293,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4672,20 +4330,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4712,20 +4367,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4752,20 +4404,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4792,20 +4441,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4830,24 +4476,21 @@
         <v>-411.7181949700001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
         <v>44260</v>
       </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4872,24 +4515,21 @@
         <v>-402.11819497</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
         <v>43920</v>
       </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4914,24 +4554,19 @@
         <v>-409.53789497</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>44350</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4956,24 +4591,19 @@
         <v>-402.53789497</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4998,24 +4628,19 @@
         <v>-404.33049497</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>43890</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5040,24 +4665,21 @@
         <v>-404.33049497</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
         <v>43850</v>
       </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5082,24 +4704,19 @@
         <v>-379.33049497</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5124,24 +4741,19 @@
         <v>-378.90049497</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>44840</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5166,24 +4778,19 @@
         <v>-378.90049497</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>44950</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5208,24 +4815,21 @@
         <v>-374.48269497</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
         <v>44950</v>
       </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5250,22 +4854,21 @@
         <v>-375.01759497</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>45330</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5292,20 +4895,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5330,22 +4930,21 @@
         <v>-375.10759497</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>44840</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5372,20 +4971,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5410,22 +5006,21 @@
         <v>-376.10759497</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>44910</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5450,22 +5045,21 @@
         <v>-363.10759497</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>44910</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5490,22 +5084,21 @@
         <v>-353.77399497</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>44970</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5530,22 +5123,21 @@
         <v>-349.34629497</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>45110</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5572,20 +5164,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5612,20 +5201,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5652,20 +5238,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5692,20 +5275,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5732,20 +5312,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5770,22 +5347,21 @@
         <v>-279.41039497</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>45400</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5812,20 +5388,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5852,20 +5425,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5892,20 +5462,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5932,20 +5499,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5972,20 +5536,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6010,22 +5571,21 @@
         <v>-266.86489497</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>45950</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6050,22 +5610,21 @@
         <v>-290.92119497</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>46100</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6090,24 +5649,21 @@
         <v>-290.9111949700001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
         <v>45350</v>
       </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6132,22 +5688,21 @@
         <v>-292.18119497</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>46160</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6172,24 +5727,19 @@
         <v>-293.06619497</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>45120</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6214,24 +5764,21 @@
         <v>-291.13489497</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
         <v>45100</v>
       </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6256,22 +5803,21 @@
         <v>-290.08399497</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>45110</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6298,20 +5844,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6338,20 +5881,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6378,20 +5918,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6418,20 +5955,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6458,20 +5992,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6498,20 +6029,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6538,20 +6066,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6578,20 +6103,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6618,20 +6140,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6658,20 +6177,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6698,20 +6214,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6738,20 +6251,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6778,20 +6288,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6816,22 +6323,17 @@
         <v>158.59914347</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6858,20 +6360,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6896,22 +6391,15 @@
         <v>137.49214347</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6936,22 +6424,15 @@
         <v>99.96434347000003</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6976,22 +6457,15 @@
         <v>97.78294347000003</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7016,22 +6490,15 @@
         <v>47.82164347000003</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7056,22 +6523,15 @@
         <v>49.78304347000003</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7096,22 +6556,15 @@
         <v>38.09694347000003</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7138,20 +6591,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7178,20 +6624,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7218,20 +6657,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7258,20 +6690,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7298,20 +6723,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7338,20 +6756,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7378,20 +6789,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7418,20 +6822,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7456,22 +6853,15 @@
         <v>97.32104347000003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7496,22 +6886,15 @@
         <v>110.26194347</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7538,20 +6921,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7576,22 +6952,15 @@
         <v>184.45474347</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7616,22 +6985,15 @@
         <v>184.55474347</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7656,22 +7018,15 @@
         <v>163.55474347</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7698,20 +7053,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7738,20 +7086,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7778,20 +7119,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7818,20 +7152,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7856,22 +7183,15 @@
         <v>267.94234347</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7898,20 +7218,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7936,22 +7249,15 @@
         <v>267.94234347</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7978,20 +7284,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8018,20 +7317,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8058,20 +7350,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8098,20 +7383,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8138,20 +7416,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8178,18 +7449,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L192" t="n">
+        <v>1</v>
       </c>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8216,16 +7482,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8252,16 +7515,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8288,16 +7548,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8324,16 +7581,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8358,18 +7612,15 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8394,18 +7645,15 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8432,16 +7680,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8466,18 +7711,15 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8504,16 +7746,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8540,16 +7779,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8576,16 +7812,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8612,16 +7845,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8648,16 +7878,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8684,16 +7911,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8718,18 +7942,15 @@
         <v>299.4450034799999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8756,16 +7977,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8792,16 +8010,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8828,16 +8043,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8864,16 +8076,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8900,16 +8109,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8934,18 +8140,15 @@
         <v>204.4036034799999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8972,16 +8175,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9008,16 +8208,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9044,16 +8241,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9080,16 +8274,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9114,18 +8305,15 @@
         <v>219.2465034799999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9150,18 +8338,15 @@
         <v>209.2465034799999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9188,18 +8373,15 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-28 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,17 +550,11 @@
         <v>-1.00131291999998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>44800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -593,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -630,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -704,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -737,17 +715,11 @@
         <v>50.65028708000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>45100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -780,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -817,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -854,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -891,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -928,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -961,15 +913,11 @@
         <v>-25.22011291999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1002,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1035,15 +979,11 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1072,17 +1012,11 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>45050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1115,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1148,17 +1078,11 @@
         <v>-66.78381291999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>45050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1187,15 +1111,11 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1224,17 +1144,11 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>44440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1263,17 +1177,11 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>44440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1302,7 +1210,7 @@
         <v>-115.39081292</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>44440</v>
@@ -1310,7 +1218,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1341,11 +1249,9 @@
         <v>-166.27851292</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>44040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1380,7 +1286,7 @@
         <v>-168.98171292</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>44020</v>
@@ -1419,7 +1325,7 @@
         <v>-153.98171292</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>44010</v>
@@ -1458,11 +1364,9 @@
         <v>-171.98171292</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>44120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1497,11 +1401,9 @@
         <v>-171.99171292</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>44030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1538,7 +1440,9 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>43970</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1573,7 +1477,7 @@
         <v>-176.83771292</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1612,7 +1516,9 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>43880</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1649,7 +1555,9 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>43740</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1686,7 +1594,9 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>44000</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1723,7 +1633,9 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>44210</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1760,7 +1672,9 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>44330</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1797,7 +1711,9 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>44030</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1834,7 +1750,9 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>43940</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1871,7 +1789,9 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>44480</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1908,7 +1828,9 @@
       <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>45100</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1945,7 +1867,9 @@
       <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>44730</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1982,7 +1906,9 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>44790</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2017,7 +1943,7 @@
         <v>-36.07421292000002</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2054,7 +1980,7 @@
         <v>-64.10611292000002</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2091,7 +2017,7 @@
         <v>-58.62321292000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2128,7 +2054,7 @@
         <v>-58.62321292000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2165,7 +2091,7 @@
         <v>-79.98421292000002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2202,11 +2128,9 @@
         <v>-76.29551292000002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>45220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2241,7 +2165,7 @@
         <v>-73.53191292000002</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2278,11 +2202,9 @@
         <v>-72.49191292000002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>45490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2317,11 +2239,9 @@
         <v>-77.32281292000002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>45500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2356,11 +2276,9 @@
         <v>-83.34471292000002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>45490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2395,11 +2313,9 @@
         <v>-91.11591292000003</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>45430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2434,11 +2350,9 @@
         <v>-103.43771292</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>45310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2473,11 +2387,9 @@
         <v>-127.91791292</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>45050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2512,11 +2424,9 @@
         <v>-127.91791292</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>44990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2551,11 +2461,9 @@
         <v>-137.52731292</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>44990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2590,11 +2498,9 @@
         <v>-135.68101292</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2629,7 +2535,7 @@
         <v>-125.85581292</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2666,11 +2572,9 @@
         <v>-126.67761292</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>45010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2705,7 +2609,7 @@
         <v>-125.85581292</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2742,11 +2646,9 @@
         <v>-125.85581292</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>45040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2781,7 +2683,7 @@
         <v>-125.85581292</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2818,7 +2720,7 @@
         <v>-129.39591292</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2855,7 +2757,7 @@
         <v>-131.29491292</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2892,7 +2794,7 @@
         <v>-131.72491292</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2929,7 +2831,7 @@
         <v>-134.19411292</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2968,7 +2870,9 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>44360</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3003,7 +2907,7 @@
         <v>-131.99661292</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3040,7 +2944,7 @@
         <v>-132.19411292</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3077,7 +2981,7 @@
         <v>-170.04361292</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3114,7 +3018,7 @@
         <v>-170.04361292</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3151,7 +3055,7 @@
         <v>-177.12361292</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3190,7 +3094,9 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>44910</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3227,7 +3133,9 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>44180</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3264,7 +3172,9 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>44210</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3299,7 +3209,7 @@
         <v>-275.59651292</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3338,7 +3248,9 @@
       <c r="H79" t="n">
         <v>1</v>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>44160</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3375,7 +3287,9 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>44160</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3410,7 +3324,7 @@
         <v>-264.74651292</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>44160</v>
@@ -3449,7 +3363,7 @@
         <v>-247.70571292</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>44300</v>
@@ -3488,7 +3402,7 @@
         <v>-247.60571292</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>44620</v>
@@ -3527,7 +3441,7 @@
         <v>-258.44751292</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>44750</v>
@@ -3566,7 +3480,7 @@
         <v>-258.44751292</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>44740</v>
@@ -3605,7 +3519,7 @@
         <v>-240.44751292</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>44740</v>
@@ -3644,7 +3558,7 @@
         <v>-226.44751292</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>44800</v>
@@ -3683,7 +3597,7 @@
         <v>-227.44751292</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>44950</v>
@@ -3722,7 +3636,7 @@
         <v>-230.76351292</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>44510</v>
@@ -3761,7 +3675,7 @@
         <v>-230.76351292</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>44320</v>
@@ -3800,7 +3714,7 @@
         <v>-223.40051292</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>44320</v>
@@ -3839,7 +3753,7 @@
         <v>-203.14151292</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>44950</v>
@@ -3878,11 +3792,9 @@
         <v>-204.06551292</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3917,7 +3829,7 @@
         <v>-203.82519497</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>44530</v>
@@ -3956,11 +3868,9 @@
         <v>-150.34909497</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>45290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4402,9 +4312,11 @@
         <v>-390.4799949700001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>44260</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4439,9 +4351,11 @@
         <v>-390.4799949700001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>44260</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4476,7 +4390,7 @@
         <v>-411.7181949700001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>44260</v>
@@ -4515,7 +4429,7 @@
         <v>-402.11819497</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>43920</v>
@@ -4554,9 +4468,11 @@
         <v>-409.53789497</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>44350</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4591,9 +4507,11 @@
         <v>-402.53789497</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>43850</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4628,9 +4546,11 @@
         <v>-404.33049497</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>43890</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4665,7 +4585,7 @@
         <v>-404.33049497</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>43850</v>
@@ -4704,9 +4624,11 @@
         <v>-379.33049497</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>43850</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4741,9 +4663,11 @@
         <v>-378.90049497</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>44840</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4815,11 +4739,9 @@
         <v>-374.48269497</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>44950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4854,11 +4776,9 @@
         <v>-375.01759497</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>45330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4930,7 +4850,7 @@
         <v>-375.10759497</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>44840</v>
@@ -4969,9 +4889,11 @@
         <v>-376.10759497</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>45260</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5006,11 +4928,9 @@
         <v>-376.10759497</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>44910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5045,7 +4965,7 @@
         <v>-363.10759497</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>44910</v>
@@ -5084,11 +5004,9 @@
         <v>-353.77399497</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>44970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5123,11 +5041,9 @@
         <v>-349.34629497</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>45110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5347,11 +5263,9 @@
         <v>-279.41039497</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>45400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5571,11 +5485,9 @@
         <v>-266.86489497</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>45950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5610,11 +5522,9 @@
         <v>-290.92119497</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>46100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5649,11 +5559,9 @@
         <v>-290.9111949700001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>45350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5688,11 +5596,9 @@
         <v>-292.18119497</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>46160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5764,11 +5670,9 @@
         <v>-291.13489497</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>45100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5803,7 +5707,7 @@
         <v>-290.08399497</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>45110</v>
@@ -6323,16 +6227,18 @@
         <v>158.59914347</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
       <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -6362,7 +6268,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6301,15 @@
         <v>137.49214347</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6338,15 @@
         <v>99.96434347000003</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6375,15 @@
         <v>97.78294347000003</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6412,15 @@
         <v>47.82164347000003</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6449,15 @@
         <v>49.78304347000003</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6486,15 @@
         <v>38.09694347000003</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6527,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6564,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6601,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +6638,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +6675,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6712,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +6749,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +6786,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +6819,15 @@
         <v>97.32104347000003</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6856,15 @@
         <v>110.26194347</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +6897,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +6930,15 @@
         <v>184.45474347</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +6967,15 @@
         <v>184.55474347</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7004,15 @@
         <v>163.55474347</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7045,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7082,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7119,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7156,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7189,15 @@
         <v>267.94234347</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7230,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7263,15 @@
         <v>267.94234347</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7304,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7341,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7378,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7415,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7452,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7489,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7526,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7563,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7600,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7637,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7670,15 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7645,14 +7707,16 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
@@ -7711,7 +7775,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7744,7 +7808,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7777,7 +7841,7 @@
         <v>317.3417034799999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7810,7 +7874,7 @@
         <v>298.1914034799999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7843,7 +7907,7 @@
         <v>298.1914034799999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7876,7 +7940,7 @@
         <v>299.9860034799999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7909,7 +7973,7 @@
         <v>299.3826034799999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7942,7 +8006,7 @@
         <v>299.4450034799999</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7975,7 +8039,7 @@
         <v>299.4450034799999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8008,7 +8072,7 @@
         <v>289.1125034799999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8041,7 +8105,7 @@
         <v>288.1375034799999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8074,7 +8138,7 @@
         <v>217.1528034799999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8107,7 +8171,7 @@
         <v>205.3263034799999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8140,7 +8204,7 @@
         <v>204.4036034799999</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8173,7 +8237,7 @@
         <v>204.4036034799999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8206,7 +8270,7 @@
         <v>196.2447034799999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8239,7 +8303,7 @@
         <v>236.2447034799999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8272,7 +8336,7 @@
         <v>219.2465034799999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8305,7 +8369,7 @@
         <v>219.2465034799999</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8338,7 +8402,7 @@
         <v>209.2465034799999</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8371,7 +8435,7 @@
         <v>209.2465034799999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8382,6 +8446,6 @@
       <c r="M220" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-28 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>-51.63171291999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-29.18711291999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-25.22011291999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-34.91841291999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-66.78381291999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,1977 +1210,1759 @@
         <v>-115.39081292</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>44440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>44020</v>
+      </c>
+      <c r="C26" t="n">
+        <v>44020</v>
+      </c>
+      <c r="D26" t="n">
+        <v>44020</v>
+      </c>
+      <c r="E26" t="n">
+        <v>44020</v>
+      </c>
+      <c r="F26" t="n">
+        <v>50.8877</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-166.27851292</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>44010</v>
+      </c>
+      <c r="C27" t="n">
+        <v>44010</v>
+      </c>
+      <c r="D27" t="n">
+        <v>44010</v>
+      </c>
+      <c r="E27" t="n">
+        <v>44010</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.7032</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-168.98171292</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C28" t="n">
+        <v>44120</v>
+      </c>
+      <c r="D28" t="n">
+        <v>44120</v>
+      </c>
+      <c r="E28" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-153.98171292</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>44030</v>
+      </c>
+      <c r="C29" t="n">
+        <v>44030</v>
+      </c>
+      <c r="D29" t="n">
+        <v>44030</v>
+      </c>
+      <c r="E29" t="n">
+        <v>44030</v>
+      </c>
+      <c r="F29" t="n">
+        <v>18</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-171.98171292</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>43970</v>
+      </c>
+      <c r="C30" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43970</v>
+      </c>
+      <c r="E30" t="n">
+        <v>43970</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-171.99171292</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>43950</v>
+      </c>
+      <c r="C31" t="n">
+        <v>43950</v>
+      </c>
+      <c r="D31" t="n">
+        <v>43950</v>
+      </c>
+      <c r="E31" t="n">
+        <v>43950</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-172.46171292</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>43880</v>
+      </c>
+      <c r="C32" t="n">
+        <v>43880</v>
+      </c>
+      <c r="D32" t="n">
+        <v>43880</v>
+      </c>
+      <c r="E32" t="n">
+        <v>43880</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.376</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-176.83771292</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>43880</v>
+      </c>
+      <c r="C33" t="n">
+        <v>43740</v>
+      </c>
+      <c r="D33" t="n">
+        <v>43880</v>
+      </c>
+      <c r="E33" t="n">
+        <v>43740</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7.4099</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-184.24761292</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>43990</v>
+      </c>
+      <c r="C34" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>44000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>43990</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11.9829</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-172.26471292</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>44220</v>
+      </c>
+      <c r="C35" t="n">
+        <v>44210</v>
+      </c>
+      <c r="D35" t="n">
+        <v>44220</v>
+      </c>
+      <c r="E35" t="n">
+        <v>44210</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7.7241</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-164.54061292</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>44330</v>
+      </c>
+      <c r="C36" t="n">
+        <v>44330</v>
+      </c>
+      <c r="D36" t="n">
+        <v>44330</v>
+      </c>
+      <c r="E36" t="n">
+        <v>44330</v>
+      </c>
+      <c r="F36" t="n">
+        <v>18.5279</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-146.01271292</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>44030</v>
+      </c>
+      <c r="C37" t="n">
+        <v>44030</v>
+      </c>
+      <c r="D37" t="n">
+        <v>44030</v>
+      </c>
+      <c r="E37" t="n">
+        <v>44030</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.4001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-149.41281292</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>43980</v>
+      </c>
+      <c r="C38" t="n">
+        <v>43940</v>
+      </c>
+      <c r="D38" t="n">
+        <v>43980</v>
+      </c>
+      <c r="E38" t="n">
+        <v>43940</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.6488</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-151.06161292</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C39" t="n">
+        <v>44480</v>
+      </c>
+      <c r="D39" t="n">
+        <v>44480</v>
+      </c>
+      <c r="E39" t="n">
+        <v>44400</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.9645</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-147.09711292</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C40" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D40" t="n">
+        <v>45100</v>
+      </c>
+      <c r="E40" t="n">
+        <v>44890</v>
+      </c>
+      <c r="F40" t="n">
+        <v>18.4479</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-128.64921292</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>44990</v>
+      </c>
+      <c r="C41" t="n">
+        <v>44730</v>
+      </c>
+      <c r="D41" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E41" t="n">
+        <v>44730</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.7514</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-130.40061292</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>44790</v>
+      </c>
+      <c r="C42" t="n">
+        <v>44790</v>
+      </c>
+      <c r="D42" t="n">
+        <v>44790</v>
+      </c>
+      <c r="E42" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F42" t="n">
+        <v>21.2914</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-109.10921292</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>44830</v>
+      </c>
+      <c r="C43" t="n">
+        <v>44830</v>
+      </c>
+      <c r="D43" t="n">
+        <v>44830</v>
+      </c>
+      <c r="E43" t="n">
+        <v>44830</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8757</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-108.23351292</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C44" t="n">
+        <v>45330</v>
+      </c>
+      <c r="D44" t="n">
+        <v>45360</v>
+      </c>
+      <c r="E44" t="n">
+        <v>45100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>72.1593</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-36.07421292000002</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C45" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D45" t="n">
+        <v>45330</v>
+      </c>
+      <c r="E45" t="n">
+        <v>45100</v>
+      </c>
+      <c r="F45" t="n">
+        <v>28.0319</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-64.10611292000002</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C46" t="n">
+        <v>45350</v>
+      </c>
+      <c r="D46" t="n">
+        <v>45350</v>
+      </c>
+      <c r="E46" t="n">
+        <v>45350</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5.4829</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-58.62321292000001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45350</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45350</v>
+      </c>
+      <c r="E47" t="n">
+        <v>45350</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8614000000000001</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-58.62321292000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C48" t="n">
+        <v>45220</v>
+      </c>
+      <c r="D48" t="n">
+        <v>45320</v>
+      </c>
+      <c r="E48" t="n">
+        <v>45220</v>
+      </c>
+      <c r="F48" t="n">
+        <v>21.361</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-79.98421292000002</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C49" t="n">
+        <v>45440</v>
+      </c>
+      <c r="D49" t="n">
+        <v>45440</v>
+      </c>
+      <c r="E49" t="n">
+        <v>45430</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3.6887</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-76.29551292000002</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>45490</v>
+      </c>
+      <c r="C50" t="n">
+        <v>45490</v>
+      </c>
+      <c r="D50" t="n">
+        <v>45490</v>
+      </c>
+      <c r="E50" t="n">
+        <v>45490</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.7636</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-73.53191292000002</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>45500</v>
+      </c>
+      <c r="C51" t="n">
+        <v>45500</v>
+      </c>
+      <c r="D51" t="n">
+        <v>45500</v>
+      </c>
+      <c r="E51" t="n">
+        <v>45500</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-72.49191292000002</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>45490</v>
+      </c>
+      <c r="C52" t="n">
+        <v>45490</v>
+      </c>
+      <c r="D52" t="n">
+        <v>45490</v>
+      </c>
+      <c r="E52" t="n">
+        <v>45490</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4.8309</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-77.32281292000002</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C53" t="n">
+        <v>45430</v>
+      </c>
+      <c r="D53" t="n">
+        <v>45430</v>
+      </c>
+      <c r="E53" t="n">
+        <v>45430</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6.0219</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-83.34471292000002</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C54" t="n">
+        <v>45310</v>
+      </c>
+      <c r="D54" t="n">
+        <v>45310</v>
+      </c>
+      <c r="E54" t="n">
+        <v>45310</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7.7712</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-91.11591292000003</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C55" t="n">
+        <v>45050</v>
+      </c>
+      <c r="D55" t="n">
+        <v>45310</v>
+      </c>
+      <c r="E55" t="n">
+        <v>45050</v>
+      </c>
+      <c r="F55" t="n">
+        <v>12.3218</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-103.43771292</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>44990</v>
+      </c>
+      <c r="C56" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D56" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E56" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F56" t="n">
+        <v>24.4802</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-127.91791292</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>44990</v>
+      </c>
+      <c r="C57" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D57" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E57" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1602</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-127.91791292</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C58" t="n">
+        <v>44930</v>
+      </c>
+      <c r="D58" t="n">
+        <v>44930</v>
+      </c>
+      <c r="E58" t="n">
+        <v>44930</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9.609400000000001</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-137.52731292</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C59" t="n">
+        <v>44980</v>
+      </c>
+      <c r="D59" t="n">
+        <v>44980</v>
+      </c>
+      <c r="E59" t="n">
+        <v>44980</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.8463</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-135.68101292</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C60" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D60" t="n">
+        <v>45010</v>
+      </c>
+      <c r="E60" t="n">
+        <v>44960</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9.825200000000001</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-125.85581292</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C61" t="n">
+        <v>44930</v>
+      </c>
+      <c r="D61" t="n">
+        <v>44930</v>
+      </c>
+      <c r="E61" t="n">
+        <v>44930</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8218</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-126.67761292</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>45070</v>
+      </c>
+      <c r="C62" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D62" t="n">
+        <v>45070</v>
+      </c>
+      <c r="E62" t="n">
+        <v>45040</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.8218</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-125.85581292</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>45030</v>
+      </c>
+      <c r="C63" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D63" t="n">
+        <v>45040</v>
+      </c>
+      <c r="E63" t="n">
+        <v>45030</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5.4186</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-125.85581292</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>45130</v>
+      </c>
+      <c r="C64" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D64" t="n">
+        <v>45140</v>
+      </c>
+      <c r="E64" t="n">
+        <v>45040</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.6639</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-125.85581292</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C65" t="n">
+        <v>44900</v>
+      </c>
+      <c r="D65" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E65" t="n">
+        <v>44900</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.5401</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-129.39591292</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>44790</v>
+      </c>
+      <c r="C66" t="n">
+        <v>44790</v>
+      </c>
+      <c r="D66" t="n">
+        <v>44790</v>
+      </c>
+      <c r="E66" t="n">
+        <v>44790</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-131.29491292</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>44450</v>
+      </c>
+      <c r="C67" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D67" t="n">
+        <v>44450</v>
+      </c>
+      <c r="E67" t="n">
+        <v>44450</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-131.72491292</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>44360</v>
+      </c>
+      <c r="C68" t="n">
+        <v>44360</v>
+      </c>
+      <c r="D68" t="n">
+        <v>44360</v>
+      </c>
+      <c r="E68" t="n">
+        <v>44360</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.4692</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-134.19411292</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>44450</v>
+      </c>
+      <c r="C69" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D69" t="n">
+        <v>44450</v>
+      </c>
+      <c r="E69" t="n">
+        <v>44450</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1975</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-133.99661292</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>44360</v>
+      </c>
+      <c r="J69" t="n">
+        <v>44360</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C70" t="n">
+        <v>44960</v>
+      </c>
+      <c r="D70" t="n">
+        <v>44960</v>
+      </c>
+      <c r="E70" t="n">
+        <v>44960</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-131.99661292</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>44450</v>
+      </c>
+      <c r="J70" t="n">
+        <v>44360</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>44930</v>
+      </c>
+      <c r="C71" t="n">
+        <v>44930</v>
+      </c>
+      <c r="D71" t="n">
+        <v>44930</v>
+      </c>
+      <c r="E71" t="n">
+        <v>44930</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1975</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-132.19411292</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>44960</v>
+      </c>
+      <c r="J71" t="n">
+        <v>44360</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>44920</v>
+      </c>
+      <c r="C72" t="n">
+        <v>44920</v>
+      </c>
+      <c r="D72" t="n">
+        <v>44920</v>
+      </c>
+      <c r="E72" t="n">
+        <v>44920</v>
+      </c>
+      <c r="F72" t="n">
+        <v>37.8495</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-170.04361292</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>44920</v>
+      </c>
+      <c r="C73" t="n">
+        <v>44920</v>
+      </c>
+      <c r="D73" t="n">
+        <v>44920</v>
+      </c>
+      <c r="E73" t="n">
+        <v>44920</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4.5859</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-170.04361292</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>44910</v>
+      </c>
+      <c r="C74" t="n">
+        <v>44910</v>
+      </c>
+      <c r="D74" t="n">
+        <v>44910</v>
+      </c>
+      <c r="E74" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F74" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-177.12361292</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>44180</v>
+      </c>
+      <c r="C75" t="n">
+        <v>44180</v>
+      </c>
+      <c r="D75" t="n">
+        <v>44180</v>
+      </c>
+      <c r="E75" t="n">
+        <v>44180</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-177.22361292</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>44210</v>
+      </c>
+      <c r="C76" t="n">
+        <v>44210</v>
+      </c>
+      <c r="D76" t="n">
+        <v>44210</v>
+      </c>
+      <c r="E76" t="n">
+        <v>44210</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.6271</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-175.59651292</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>44180</v>
+      </c>
+      <c r="J76" t="n">
+        <v>44180</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C77" t="n">
+        <v>44160</v>
+      </c>
+      <c r="D77" t="n">
+        <v>44500</v>
+      </c>
+      <c r="E77" t="n">
+        <v>44160</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-275.59651292</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>44210</v>
+      </c>
+      <c r="J77" t="n">
+        <v>44180</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>44020</v>
-      </c>
-      <c r="C26" t="n">
-        <v>44020</v>
-      </c>
-      <c r="D26" t="n">
-        <v>44020</v>
-      </c>
-      <c r="E26" t="n">
-        <v>44020</v>
-      </c>
-      <c r="F26" t="n">
-        <v>50.8877</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-166.27851292</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>44010</v>
-      </c>
-      <c r="C27" t="n">
-        <v>44010</v>
-      </c>
-      <c r="D27" t="n">
-        <v>44010</v>
-      </c>
-      <c r="E27" t="n">
-        <v>44010</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.7032</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-168.98171292</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>44020</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>44120</v>
-      </c>
-      <c r="C28" t="n">
-        <v>44120</v>
-      </c>
-      <c r="D28" t="n">
-        <v>44120</v>
-      </c>
-      <c r="E28" t="n">
-        <v>44120</v>
-      </c>
-      <c r="F28" t="n">
-        <v>15</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-153.98171292</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>44010</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>44030</v>
-      </c>
-      <c r="C29" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D29" t="n">
-        <v>44030</v>
-      </c>
-      <c r="E29" t="n">
-        <v>44030</v>
-      </c>
-      <c r="F29" t="n">
-        <v>18</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-171.98171292</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>43970</v>
-      </c>
-      <c r="C30" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D30" t="n">
-        <v>43970</v>
-      </c>
-      <c r="E30" t="n">
-        <v>43970</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-171.99171292</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>43950</v>
-      </c>
-      <c r="C31" t="n">
-        <v>43950</v>
-      </c>
-      <c r="D31" t="n">
-        <v>43950</v>
-      </c>
-      <c r="E31" t="n">
-        <v>43950</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-172.46171292</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>43970</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>43880</v>
-      </c>
-      <c r="C32" t="n">
-        <v>43880</v>
-      </c>
-      <c r="D32" t="n">
-        <v>43880</v>
-      </c>
-      <c r="E32" t="n">
-        <v>43880</v>
-      </c>
-      <c r="F32" t="n">
-        <v>4.376</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-176.83771292</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>43880</v>
-      </c>
-      <c r="C33" t="n">
-        <v>43740</v>
-      </c>
-      <c r="D33" t="n">
-        <v>43880</v>
-      </c>
-      <c r="E33" t="n">
-        <v>43740</v>
-      </c>
-      <c r="F33" t="n">
-        <v>7.4099</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-184.24761292</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>43880</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>43990</v>
-      </c>
-      <c r="C34" t="n">
-        <v>44000</v>
-      </c>
-      <c r="D34" t="n">
-        <v>44000</v>
-      </c>
-      <c r="E34" t="n">
-        <v>43990</v>
-      </c>
-      <c r="F34" t="n">
-        <v>11.9829</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-172.26471292</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>43740</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>44220</v>
-      </c>
-      <c r="C35" t="n">
-        <v>44210</v>
-      </c>
-      <c r="D35" t="n">
-        <v>44220</v>
-      </c>
-      <c r="E35" t="n">
-        <v>44210</v>
-      </c>
-      <c r="F35" t="n">
-        <v>7.7241</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-164.54061292</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>44000</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>44330</v>
-      </c>
-      <c r="C36" t="n">
-        <v>44330</v>
-      </c>
-      <c r="D36" t="n">
-        <v>44330</v>
-      </c>
-      <c r="E36" t="n">
-        <v>44330</v>
-      </c>
-      <c r="F36" t="n">
-        <v>18.5279</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-146.01271292</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>44210</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>44030</v>
-      </c>
-      <c r="C37" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D37" t="n">
-        <v>44030</v>
-      </c>
-      <c r="E37" t="n">
-        <v>44030</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3.4001</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-149.41281292</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>44330</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>43980</v>
-      </c>
-      <c r="C38" t="n">
-        <v>43940</v>
-      </c>
-      <c r="D38" t="n">
-        <v>43980</v>
-      </c>
-      <c r="E38" t="n">
-        <v>43940</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.6488</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-151.06161292</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>44030</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>44400</v>
-      </c>
-      <c r="C39" t="n">
-        <v>44480</v>
-      </c>
-      <c r="D39" t="n">
-        <v>44480</v>
-      </c>
-      <c r="E39" t="n">
-        <v>44400</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3.9645</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-147.09711292</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>43940</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>44890</v>
-      </c>
-      <c r="C40" t="n">
-        <v>45100</v>
-      </c>
-      <c r="D40" t="n">
-        <v>45100</v>
-      </c>
-      <c r="E40" t="n">
-        <v>44890</v>
-      </c>
-      <c r="F40" t="n">
-        <v>18.4479</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-128.64921292</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>44480</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>44990</v>
-      </c>
-      <c r="C41" t="n">
-        <v>44730</v>
-      </c>
-      <c r="D41" t="n">
-        <v>44990</v>
-      </c>
-      <c r="E41" t="n">
-        <v>44730</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.7514</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-130.40061292</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>45100</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>44790</v>
-      </c>
-      <c r="C42" t="n">
-        <v>44790</v>
-      </c>
-      <c r="D42" t="n">
-        <v>44790</v>
-      </c>
-      <c r="E42" t="n">
-        <v>44790</v>
-      </c>
-      <c r="F42" t="n">
-        <v>21.2914</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-109.10921292</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>44730</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>44830</v>
-      </c>
-      <c r="C43" t="n">
-        <v>44830</v>
-      </c>
-      <c r="D43" t="n">
-        <v>44830</v>
-      </c>
-      <c r="E43" t="n">
-        <v>44830</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.8757</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-108.23351292</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>44790</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>45100</v>
-      </c>
-      <c r="C44" t="n">
-        <v>45330</v>
-      </c>
-      <c r="D44" t="n">
-        <v>45360</v>
-      </c>
-      <c r="E44" t="n">
-        <v>45100</v>
-      </c>
-      <c r="F44" t="n">
-        <v>72.1593</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-36.07421292000002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>45330</v>
-      </c>
-      <c r="C45" t="n">
-        <v>45100</v>
-      </c>
-      <c r="D45" t="n">
-        <v>45330</v>
-      </c>
-      <c r="E45" t="n">
-        <v>45100</v>
-      </c>
-      <c r="F45" t="n">
-        <v>28.0319</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-64.10611292000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45350</v>
-      </c>
-      <c r="C46" t="n">
-        <v>45350</v>
-      </c>
-      <c r="D46" t="n">
-        <v>45350</v>
-      </c>
-      <c r="E46" t="n">
-        <v>45350</v>
-      </c>
-      <c r="F46" t="n">
-        <v>5.4829</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-58.62321292000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>45350</v>
-      </c>
-      <c r="C47" t="n">
-        <v>45350</v>
-      </c>
-      <c r="D47" t="n">
-        <v>45350</v>
-      </c>
-      <c r="E47" t="n">
-        <v>45350</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.8614000000000001</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-58.62321292000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>45320</v>
-      </c>
-      <c r="C48" t="n">
-        <v>45220</v>
-      </c>
-      <c r="D48" t="n">
-        <v>45320</v>
-      </c>
-      <c r="E48" t="n">
-        <v>45220</v>
-      </c>
-      <c r="F48" t="n">
-        <v>21.361</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-79.98421292000002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>45430</v>
-      </c>
-      <c r="C49" t="n">
-        <v>45440</v>
-      </c>
-      <c r="D49" t="n">
-        <v>45440</v>
-      </c>
-      <c r="E49" t="n">
-        <v>45430</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3.6887</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-76.29551292000002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>45490</v>
-      </c>
-      <c r="C50" t="n">
-        <v>45490</v>
-      </c>
-      <c r="D50" t="n">
-        <v>45490</v>
-      </c>
-      <c r="E50" t="n">
-        <v>45490</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2.7636</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-73.53191292000002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>45500</v>
-      </c>
-      <c r="C51" t="n">
-        <v>45500</v>
-      </c>
-      <c r="D51" t="n">
-        <v>45500</v>
-      </c>
-      <c r="E51" t="n">
-        <v>45500</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-72.49191292000002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>45490</v>
-      </c>
-      <c r="C52" t="n">
-        <v>45490</v>
-      </c>
-      <c r="D52" t="n">
-        <v>45490</v>
-      </c>
-      <c r="E52" t="n">
-        <v>45490</v>
-      </c>
-      <c r="F52" t="n">
-        <v>4.8309</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-77.32281292000002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>45430</v>
-      </c>
-      <c r="C53" t="n">
-        <v>45430</v>
-      </c>
-      <c r="D53" t="n">
-        <v>45430</v>
-      </c>
-      <c r="E53" t="n">
-        <v>45430</v>
-      </c>
-      <c r="F53" t="n">
-        <v>6.0219</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-83.34471292000002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>45310</v>
-      </c>
-      <c r="C54" t="n">
-        <v>45310</v>
-      </c>
-      <c r="D54" t="n">
-        <v>45310</v>
-      </c>
-      <c r="E54" t="n">
-        <v>45310</v>
-      </c>
-      <c r="F54" t="n">
-        <v>7.7712</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-91.11591292000003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>45310</v>
-      </c>
-      <c r="C55" t="n">
-        <v>45050</v>
-      </c>
-      <c r="D55" t="n">
-        <v>45310</v>
-      </c>
-      <c r="E55" t="n">
-        <v>45050</v>
-      </c>
-      <c r="F55" t="n">
-        <v>12.3218</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-103.43771292</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>44990</v>
-      </c>
-      <c r="C56" t="n">
-        <v>44990</v>
-      </c>
-      <c r="D56" t="n">
-        <v>44990</v>
-      </c>
-      <c r="E56" t="n">
-        <v>44990</v>
-      </c>
-      <c r="F56" t="n">
-        <v>24.4802</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-127.91791292</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>44990</v>
-      </c>
-      <c r="C57" t="n">
-        <v>44990</v>
-      </c>
-      <c r="D57" t="n">
-        <v>44990</v>
-      </c>
-      <c r="E57" t="n">
-        <v>44990</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.1602</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-127.91791292</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>44930</v>
-      </c>
-      <c r="C58" t="n">
-        <v>44930</v>
-      </c>
-      <c r="D58" t="n">
-        <v>44930</v>
-      </c>
-      <c r="E58" t="n">
-        <v>44930</v>
-      </c>
-      <c r="F58" t="n">
-        <v>9.609400000000001</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-137.52731292</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C59" t="n">
-        <v>44980</v>
-      </c>
-      <c r="D59" t="n">
-        <v>44980</v>
-      </c>
-      <c r="E59" t="n">
-        <v>44980</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1.8463</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-135.68101292</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>44960</v>
-      </c>
-      <c r="C60" t="n">
-        <v>45010</v>
-      </c>
-      <c r="D60" t="n">
-        <v>45010</v>
-      </c>
-      <c r="E60" t="n">
-        <v>44960</v>
-      </c>
-      <c r="F60" t="n">
-        <v>9.825200000000001</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-125.85581292</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>44930</v>
-      </c>
-      <c r="C61" t="n">
-        <v>44930</v>
-      </c>
-      <c r="D61" t="n">
-        <v>44930</v>
-      </c>
-      <c r="E61" t="n">
-        <v>44930</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.8218</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-126.67761292</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>45070</v>
-      </c>
-      <c r="C62" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D62" t="n">
-        <v>45070</v>
-      </c>
-      <c r="E62" t="n">
-        <v>45040</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.8218</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-125.85581292</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>45030</v>
-      </c>
-      <c r="C63" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D63" t="n">
-        <v>45040</v>
-      </c>
-      <c r="E63" t="n">
-        <v>45030</v>
-      </c>
-      <c r="F63" t="n">
-        <v>5.4186</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-125.85581292</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>45130</v>
-      </c>
-      <c r="C64" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D64" t="n">
-        <v>45140</v>
-      </c>
-      <c r="E64" t="n">
-        <v>45040</v>
-      </c>
-      <c r="F64" t="n">
-        <v>5.6639</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-125.85581292</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>44900</v>
-      </c>
-      <c r="C65" t="n">
-        <v>44900</v>
-      </c>
-      <c r="D65" t="n">
-        <v>44900</v>
-      </c>
-      <c r="E65" t="n">
-        <v>44900</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3.5401</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-129.39591292</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>44790</v>
-      </c>
-      <c r="C66" t="n">
-        <v>44790</v>
-      </c>
-      <c r="D66" t="n">
-        <v>44790</v>
-      </c>
-      <c r="E66" t="n">
-        <v>44790</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-131.29491292</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>44450</v>
-      </c>
-      <c r="C67" t="n">
-        <v>44450</v>
-      </c>
-      <c r="D67" t="n">
-        <v>44450</v>
-      </c>
-      <c r="E67" t="n">
-        <v>44450</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-131.72491292</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>44360</v>
-      </c>
-      <c r="C68" t="n">
-        <v>44360</v>
-      </c>
-      <c r="D68" t="n">
-        <v>44360</v>
-      </c>
-      <c r="E68" t="n">
-        <v>44360</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2.4692</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-134.19411292</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>44450</v>
-      </c>
-      <c r="C69" t="n">
-        <v>44450</v>
-      </c>
-      <c r="D69" t="n">
-        <v>44450</v>
-      </c>
-      <c r="E69" t="n">
-        <v>44450</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.1975</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-133.99661292</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>44360</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>44960</v>
-      </c>
-      <c r="C70" t="n">
-        <v>44960</v>
-      </c>
-      <c r="D70" t="n">
-        <v>44960</v>
-      </c>
-      <c r="E70" t="n">
-        <v>44960</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-131.99661292</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>44930</v>
-      </c>
-      <c r="C71" t="n">
-        <v>44930</v>
-      </c>
-      <c r="D71" t="n">
-        <v>44930</v>
-      </c>
-      <c r="E71" t="n">
-        <v>44930</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.1975</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-132.19411292</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>44920</v>
-      </c>
-      <c r="C72" t="n">
-        <v>44920</v>
-      </c>
-      <c r="D72" t="n">
-        <v>44920</v>
-      </c>
-      <c r="E72" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F72" t="n">
-        <v>37.8495</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-170.04361292</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>44920</v>
-      </c>
-      <c r="C73" t="n">
-        <v>44920</v>
-      </c>
-      <c r="D73" t="n">
-        <v>44920</v>
-      </c>
-      <c r="E73" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4.5859</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-170.04361292</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>44910</v>
-      </c>
-      <c r="C74" t="n">
-        <v>44910</v>
-      </c>
-      <c r="D74" t="n">
-        <v>44910</v>
-      </c>
-      <c r="E74" t="n">
-        <v>44910</v>
-      </c>
-      <c r="F74" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-177.12361292</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>44180</v>
-      </c>
-      <c r="C75" t="n">
-        <v>44180</v>
-      </c>
-      <c r="D75" t="n">
-        <v>44180</v>
-      </c>
-      <c r="E75" t="n">
-        <v>44180</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-177.22361292</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>44910</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>44210</v>
-      </c>
-      <c r="C76" t="n">
-        <v>44210</v>
-      </c>
-      <c r="D76" t="n">
-        <v>44210</v>
-      </c>
-      <c r="E76" t="n">
-        <v>44210</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1.6271</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-175.59651292</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>44180</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>44500</v>
-      </c>
-      <c r="C77" t="n">
-        <v>44160</v>
-      </c>
-      <c r="D77" t="n">
-        <v>44500</v>
-      </c>
-      <c r="E77" t="n">
-        <v>44160</v>
-      </c>
-      <c r="F77" t="n">
-        <v>100</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-275.59651292</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>44210</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3212,7 +2994,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>44180</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3251,7 +3035,9 @@
       <c r="I79" t="n">
         <v>44160</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>44180</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,7 +3076,9 @@
       <c r="I80" t="n">
         <v>44160</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>44180</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,7 +3117,9 @@
       <c r="I81" t="n">
         <v>44160</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>44180</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,7 +3158,9 @@
       <c r="I82" t="n">
         <v>44300</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>44180</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,7 +3199,9 @@
       <c r="I83" t="n">
         <v>44620</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>44180</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3446,7 +3240,9 @@
       <c r="I84" t="n">
         <v>44750</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>44180</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3485,7 +3281,9 @@
       <c r="I85" t="n">
         <v>44740</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>44180</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,12 +3317,12 @@
         <v>-240.44751292</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44740</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>44180</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,12 +3356,12 @@
         <v>-226.44751292</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>44800</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>44180</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,12 +3395,12 @@
         <v>-227.44751292</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>44950</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>44180</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3641,7 +3439,9 @@
       <c r="I89" t="n">
         <v>44510</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>44180</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,7 +3480,9 @@
       <c r="I90" t="n">
         <v>44320</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>44180</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,7 +3521,9 @@
       <c r="I91" t="n">
         <v>44320</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>44180</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,7 +3562,9 @@
       <c r="I92" t="n">
         <v>44950</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>44180</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3795,7 +3601,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>44180</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,7 +3642,9 @@
       <c r="I94" t="n">
         <v>44530</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>44180</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3871,7 +3681,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>44180</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3908,7 +3720,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>44180</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3945,7 +3759,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>44180</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,7 +3798,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>44180</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4019,7 +3837,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>44180</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4056,7 +3876,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>44180</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4093,7 +3915,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>44180</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4130,7 +3954,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>44180</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4167,7 +3993,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>44180</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4204,7 +4032,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>44180</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,7 +4071,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>44180</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4278,7 +4110,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>44180</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,12 +4146,12 @@
         <v>-390.4799949700001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>44260</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>44180</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4351,12 +4185,12 @@
         <v>-390.4799949700001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>44260</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>44180</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,12 +4224,12 @@
         <v>-411.7181949700001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>44260</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>44180</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4429,12 +4263,12 @@
         <v>-402.11819497</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>43920</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>44180</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,12 +4302,12 @@
         <v>-409.53789497</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>44350</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>44180</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4512,7 +4346,9 @@
       <c r="I112" t="n">
         <v>43850</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>44180</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4551,7 +4387,9 @@
       <c r="I113" t="n">
         <v>43890</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>44180</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4590,7 +4428,9 @@
       <c r="I114" t="n">
         <v>43850</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>44180</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4629,7 +4469,9 @@
       <c r="I115" t="n">
         <v>43850</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>44180</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4663,12 +4505,12 @@
         <v>-378.90049497</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>44840</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>44180</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4705,7 +4547,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>44180</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4742,7 +4586,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>44180</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4779,7 +4625,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>44180</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4816,7 +4664,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>44180</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,12 +4700,12 @@
         <v>-375.10759497</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>44840</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>44180</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4889,12 +4739,12 @@
         <v>-376.10759497</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>45260</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>44180</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4931,7 +4781,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>44180</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4965,12 +4817,12 @@
         <v>-363.10759497</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>44910</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>44180</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5007,7 +4859,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>44180</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5044,7 +4898,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>44180</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5081,7 +4937,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>44180</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5118,7 +4976,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>44180</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5155,7 +5015,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>44180</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5189,17 +5051,19 @@
         <v>-340.75809497</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>44180</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>1.021482571299231</v>
       </c>
       <c r="M130" t="inlineStr"/>
     </row>
@@ -5226,15 +5090,11 @@
         <v>-304.35289497</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5263,15 +5123,11 @@
         <v>-279.41039497</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5300,15 +5156,11 @@
         <v>-281.42039497</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5337,15 +5189,11 @@
         <v>-281.41039497</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5374,15 +5222,11 @@
         <v>-281.41039497</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5411,15 +5255,11 @@
         <v>-287.41039497</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5448,15 +5288,11 @@
         <v>-288.64039497</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5485,15 +5321,11 @@
         <v>-266.86489497</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5522,15 +5354,11 @@
         <v>-290.92119497</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5559,15 +5387,11 @@
         <v>-290.9111949700001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5596,15 +5420,11 @@
         <v>-292.18119497</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5637,11 +5457,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5674,11 +5490,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5707,17 +5519,11 @@
         <v>-290.08399497</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>45110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5750,11 +5556,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5787,11 +5589,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5820,15 +5618,11 @@
         <v>-143.68499497</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5857,15 +5651,11 @@
         <v>-142.66529497</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5894,15 +5684,11 @@
         <v>-142.66529497</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5931,15 +5717,11 @@
         <v>-128.01859497</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5968,15 +5750,11 @@
         <v>-59.66412788999997</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6005,15 +5783,11 @@
         <v>-40.75672788999998</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6042,15 +5816,11 @@
         <v>-60.96242788999998</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6079,15 +5849,11 @@
         <v>-60.96242788999998</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6116,15 +5882,11 @@
         <v>-46.78242788999998</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6157,11 +5919,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6194,11 +5952,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6231,11 +5985,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6268,11 +6018,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6305,11 +6051,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6342,11 +6084,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6379,11 +6117,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6416,11 +6150,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6453,11 +6183,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6216,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6527,11 +6249,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6564,11 +6282,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6601,11 +6315,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6638,11 +6348,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6675,11 +6381,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6712,11 +6414,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6749,11 +6447,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6786,11 +6480,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6823,11 +6513,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6860,11 +6546,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6897,11 +6579,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6934,11 +6612,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6971,11 +6645,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7008,11 +6678,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7045,11 +6711,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7082,11 +6744,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7115,15 +6773,11 @@
         <v>94.84384347000002</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7152,15 +6806,11 @@
         <v>257.53284347</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7189,15 +6839,11 @@
         <v>267.94234347</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7226,15 +6872,11 @@
         <v>267.94234347</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7263,15 +6905,11 @@
         <v>267.94234347</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7300,15 +6938,11 @@
         <v>247.94234347</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7341,11 +6975,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7378,11 +7008,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7415,11 +7041,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7452,11 +7074,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7489,11 +7107,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7526,11 +7140,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7563,11 +7173,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7600,11 +7206,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7637,11 +7239,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7674,11 +7272,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7707,16 +7301,14 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
       <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
@@ -7775,7 +7367,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7808,7 +7400,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7841,7 +7433,7 @@
         <v>317.3417034799999</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7874,7 +7466,7 @@
         <v>298.1914034799999</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7907,7 +7499,7 @@
         <v>298.1914034799999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7940,7 +7532,7 @@
         <v>299.9860034799999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7973,7 +7565,7 @@
         <v>299.3826034799999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8006,7 +7598,7 @@
         <v>299.4450034799999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8039,7 +7631,7 @@
         <v>299.4450034799999</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8072,7 +7664,7 @@
         <v>289.1125034799999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8105,7 +7697,7 @@
         <v>288.1375034799999</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8138,7 +7730,7 @@
         <v>217.1528034799999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8171,7 +7763,7 @@
         <v>205.3263034799999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8204,7 +7796,7 @@
         <v>204.4036034799999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8237,7 +7829,7 @@
         <v>204.4036034799999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8270,7 +7862,7 @@
         <v>196.2447034799999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8446,6 +8038,6 @@
       <c r="M220" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-28 BackTest ZEC.xlsx
@@ -847,7 +847,7 @@
         <v>-51.63171291999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-29.18711291999998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-25.22011291999998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-34.91841291999998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-66.38381291999998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-66.78381291999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-76.48171291999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -2662,14 +2662,10 @@
         <v>-133.99661292</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>44360</v>
-      </c>
-      <c r="J69" t="n">
-        <v>44360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2699,19 +2695,11 @@
         <v>-131.99661292</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>44450</v>
-      </c>
-      <c r="J70" t="n">
-        <v>44360</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2740,19 +2728,11 @@
         <v>-132.19411292</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>44960</v>
-      </c>
-      <c r="J71" t="n">
-        <v>44360</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2913,14 +2893,10 @@
         <v>-175.59651292</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>44180</v>
-      </c>
-      <c r="J76" t="n">
-        <v>44180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
@@ -2955,9 +2931,7 @@
       <c r="I77" t="n">
         <v>44210</v>
       </c>
-      <c r="J77" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2994,9 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3030,14 +3002,10 @@
         <v>-275.59651292</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>44160</v>
-      </c>
-      <c r="J79" t="n">
-        <v>44180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3071,14 +3039,10 @@
         <v>-275.59651292</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>44160</v>
-      </c>
-      <c r="J80" t="n">
-        <v>44180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,14 +3076,10 @@
         <v>-264.74651292</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>44160</v>
-      </c>
-      <c r="J81" t="n">
-        <v>44180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3153,14 +3113,10 @@
         <v>-247.70571292</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>44300</v>
-      </c>
-      <c r="J82" t="n">
-        <v>44180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3194,14 +3150,10 @@
         <v>-247.60571292</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>44620</v>
-      </c>
-      <c r="J83" t="n">
-        <v>44180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,9 +3192,7 @@
       <c r="I84" t="n">
         <v>44750</v>
       </c>
-      <c r="J84" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3281,9 +3231,7 @@
       <c r="I85" t="n">
         <v>44740</v>
       </c>
-      <c r="J85" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3320,9 +3268,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3356,12 +3302,12 @@
         <v>-226.44751292</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>44800</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3398,9 +3344,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,14 +3378,10 @@
         <v>-230.76351292</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>44510</v>
-      </c>
-      <c r="J89" t="n">
-        <v>44180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,14 +3415,10 @@
         <v>-230.76351292</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>44320</v>
-      </c>
-      <c r="J90" t="n">
-        <v>44180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3521,9 +3457,7 @@
       <c r="I91" t="n">
         <v>44320</v>
       </c>
-      <c r="J91" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3562,9 +3496,7 @@
       <c r="I92" t="n">
         <v>44950</v>
       </c>
-      <c r="J92" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3601,9 +3533,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3637,14 +3567,10 @@
         <v>-203.82519497</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>44530</v>
-      </c>
-      <c r="J94" t="n">
-        <v>44180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3681,9 +3607,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3720,9 +3644,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3759,9 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,9 +3718,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,9 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3876,9 +3792,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3915,9 +3829,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3954,9 +3866,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3993,9 +3903,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4032,9 +3940,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4071,9 +3977,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4107,12 +4011,12 @@
         <v>-390.4799949700001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>43920</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4149,9 +4053,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,9 +4090,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4227,9 +4127,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,12 +4161,12 @@
         <v>-402.11819497</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>43920</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4302,12 +4200,12 @@
         <v>-409.53789497</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>44350</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,9 +4244,7 @@
       <c r="I112" t="n">
         <v>43850</v>
       </c>
-      <c r="J112" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4387,9 +4283,7 @@
       <c r="I113" t="n">
         <v>43890</v>
       </c>
-      <c r="J113" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4428,9 +4322,7 @@
       <c r="I114" t="n">
         <v>43850</v>
       </c>
-      <c r="J114" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4469,9 +4361,7 @@
       <c r="I115" t="n">
         <v>43850</v>
       </c>
-      <c r="J115" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4505,12 +4395,12 @@
         <v>-378.90049497</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>44840</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4547,9 +4437,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4586,9 +4474,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4625,9 +4511,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>44180</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4661,12 +4545,12 @@
         <v>-375.11759497</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>45230</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4700,12 +4584,12 @@
         <v>-375.10759497</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>44840</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,12 +4623,12 @@
         <v>-376.10759497</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>45260</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4778,12 +4662,12 @@
         <v>-376.10759497</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4817,12 +4701,12 @@
         <v>-363.10759497</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>44910</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,12 +4740,12 @@
         <v>-353.77399497</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>44970</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,12 +4779,12 @@
         <v>-349.34629497</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>45110</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4934,12 +4818,12 @@
         <v>-349.34629497</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>45170</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,12 +4857,12 @@
         <v>-340.75809497</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>45170</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,12 +4896,12 @@
         <v>-340.75809497</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>45350</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5051,19 +4935,19 @@
         <v>-340.75809497</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>44180</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>45350</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.021482571299231</v>
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
     </row>
@@ -5090,11 +4974,17 @@
         <v>-304.35289497</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>45350</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5123,11 +5013,17 @@
         <v>-279.41039497</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>45400</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5156,11 +5052,17 @@
         <v>-281.42039497</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>46040</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5189,11 +5091,17 @@
         <v>-281.41039497</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>45820</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5222,11 +5130,17 @@
         <v>-281.41039497</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>46060</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5255,11 +5169,15 @@
         <v>-287.41039497</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5288,11 +5206,15 @@
         <v>-288.64039497</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5321,11 +5243,15 @@
         <v>-266.86489497</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5354,11 +5280,17 @@
         <v>-290.92119497</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>46100</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +5319,17 @@
         <v>-290.9111949700001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>45350</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5358,17 @@
         <v>-292.18119497</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>46160</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +5397,17 @@
         <v>-293.06619497</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>45120</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5486,11 +5436,17 @@
         <v>-291.13489497</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>45100</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +5475,17 @@
         <v>-290.08399497</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>45110</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5552,11 +5514,17 @@
         <v>-232.70319497</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>45220</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5585,11 +5553,17 @@
         <v>-143.68499497</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>46150</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5592,15 @@
         <v>-143.68499497</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5651,11 +5629,15 @@
         <v>-142.66529497</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5684,11 +5666,15 @@
         <v>-142.66529497</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5717,11 +5703,15 @@
         <v>-128.01859497</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5750,11 +5740,15 @@
         <v>-59.66412788999997</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +5777,15 @@
         <v>-40.75672788999998</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5816,11 +5814,15 @@
         <v>-60.96242788999998</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5849,11 +5851,15 @@
         <v>-60.96242788999998</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5882,11 +5888,15 @@
         <v>-46.78242788999998</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5919,7 +5929,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5952,7 +5966,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5985,7 +6003,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6018,7 +6040,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6051,7 +6077,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6084,7 +6114,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6117,7 +6151,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6150,7 +6188,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6183,7 +6225,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6216,7 +6262,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6249,7 +6299,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6282,7 +6336,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6315,7 +6373,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6348,7 +6410,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6381,7 +6447,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6414,7 +6484,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6447,7 +6521,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6480,7 +6558,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +6595,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6546,7 +6632,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6579,7 +6669,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6612,7 +6706,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6645,7 +6743,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6678,7 +6780,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6711,7 +6817,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6744,7 +6854,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6773,11 +6887,15 @@
         <v>94.84384347000002</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6806,11 +6924,15 @@
         <v>257.53284347</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6843,10 +6965,12 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
@@ -6872,7 +6996,7 @@
         <v>267.94234347</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6905,7 +7029,7 @@
         <v>267.94234347</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6938,7 +7062,7 @@
         <v>247.94234347</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7103,7 +7227,7 @@
         <v>413.0008034799999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7136,7 +7260,7 @@
         <v>395.9017034799999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7169,7 +7293,7 @@
         <v>318.5543034799999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7202,7 +7326,7 @@
         <v>318.5969034799999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7235,7 +7359,7 @@
         <v>308.5969034799999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7268,7 +7392,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7334,7 +7458,7 @@
         <v>304.8606034799999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7499,7 +7623,7 @@
         <v>298.1914034799999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7532,7 +7656,7 @@
         <v>299.9860034799999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7565,7 +7689,7 @@
         <v>299.3826034799999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7598,7 +7722,7 @@
         <v>299.4450034799999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7763,7 +7887,7 @@
         <v>205.3263034799999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7796,7 +7920,7 @@
         <v>204.4036034799999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7862,7 +7986,7 @@
         <v>196.2447034799999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7961,7 +8085,7 @@
         <v>219.2465034799999</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7994,7 +8118,7 @@
         <v>209.2465034799999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8027,7 +8151,7 @@
         <v>209.2465034799999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-28 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M220"/>
+  <dimension ref="A1:L220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>59.4314</v>
       </c>
       <c r="G2" t="n">
-        <v>-21.05811291999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>14.5772</v>
       </c>
       <c r="G3" t="n">
-        <v>-35.63531291999998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>38.3708</v>
       </c>
       <c r="G4" t="n">
-        <v>2.73548708000002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3.7368</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.00131291999998</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>13.0704</v>
       </c>
       <c r="G6" t="n">
-        <v>12.06908708000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>13.91908708000002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>14.91908708000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>20.2028</v>
       </c>
       <c r="G9" t="n">
-        <v>35.12188708000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>15.5284</v>
       </c>
       <c r="G10" t="n">
-        <v>50.65028708000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>17.86</v>
       </c>
       <c r="G11" t="n">
-        <v>32.79028708000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>57.7675</v>
       </c>
       <c r="G12" t="n">
-        <v>32.79028708000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>33.79028708000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>85.422</v>
       </c>
       <c r="G14" t="n">
-        <v>-51.63171291999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>22.4446</v>
       </c>
       <c r="G15" t="n">
-        <v>-29.18711291999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3.967</v>
       </c>
       <c r="G16" t="n">
-        <v>-25.22011291999998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>9.6983</v>
       </c>
       <c r="G17" t="n">
-        <v>-34.91841291999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>31.4654</v>
       </c>
       <c r="G18" t="n">
-        <v>-66.38381291999998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>7.809</v>
       </c>
       <c r="G19" t="n">
-        <v>-66.38381291999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5.9071</v>
       </c>
       <c r="G20" t="n">
-        <v>-66.38381291999998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>-66.78381291999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,21 @@
         <v>9.697900000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-76.48171291999999</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>44850</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1079,21 @@
         <v>7.13</v>
       </c>
       <c r="G23" t="n">
-        <v>-76.48171291999999</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>44440</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1115,21 @@
         <v>7.0206</v>
       </c>
       <c r="G24" t="n">
-        <v>-76.48171291999999</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>44440</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1151,21 @@
         <v>38.9091</v>
       </c>
       <c r="G25" t="n">
-        <v>-115.39081292</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>44440</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1187,21 @@
         <v>50.8877</v>
       </c>
       <c r="G26" t="n">
-        <v>-166.27851292</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>44040</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1223,21 @@
         <v>2.7032</v>
       </c>
       <c r="G27" t="n">
-        <v>-168.98171292</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>44020</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1259,21 @@
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>-153.98171292</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>44010</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1295,21 @@
         <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>-171.98171292</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>44120</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1331,21 @@
         <v>0.01</v>
       </c>
       <c r="G30" t="n">
-        <v>-171.99171292</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>44030</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1367,21 @@
         <v>0.47</v>
       </c>
       <c r="G31" t="n">
-        <v>-172.46171292</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>43970</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1403,21 @@
         <v>4.376</v>
       </c>
       <c r="G32" t="n">
-        <v>-176.83771292</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>43950</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1439,21 @@
         <v>7.4099</v>
       </c>
       <c r="G33" t="n">
-        <v>-184.24761292</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>43880</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1475,21 @@
         <v>11.9829</v>
       </c>
       <c r="G34" t="n">
-        <v>-172.26471292</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>43740</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1511,21 @@
         <v>7.7241</v>
       </c>
       <c r="G35" t="n">
-        <v>-164.54061292</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1547,21 @@
         <v>18.5279</v>
       </c>
       <c r="G36" t="n">
-        <v>-146.01271292</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>44210</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1583,21 @@
         <v>3.4001</v>
       </c>
       <c r="G37" t="n">
-        <v>-149.41281292</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>44330</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1619,21 @@
         <v>1.6488</v>
       </c>
       <c r="G38" t="n">
-        <v>-151.06161292</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>44030</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1655,21 @@
         <v>3.9645</v>
       </c>
       <c r="G39" t="n">
-        <v>-147.09711292</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>43940</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1691,21 @@
         <v>18.4479</v>
       </c>
       <c r="G40" t="n">
-        <v>-128.64921292</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>44480</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1727,21 @@
         <v>1.7514</v>
       </c>
       <c r="G41" t="n">
-        <v>-130.40061292</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>45100</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1763,21 @@
         <v>21.2914</v>
       </c>
       <c r="G42" t="n">
-        <v>-109.10921292</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>44730</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1799,21 @@
         <v>0.8757</v>
       </c>
       <c r="G43" t="n">
-        <v>-108.23351292</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>44790</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1835,21 @@
         <v>72.1593</v>
       </c>
       <c r="G44" t="n">
-        <v>-36.07421292000002</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>44830</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1871,21 @@
         <v>28.0319</v>
       </c>
       <c r="G45" t="n">
-        <v>-64.10611292000002</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>45330</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1907,21 @@
         <v>5.4829</v>
       </c>
       <c r="G46" t="n">
-        <v>-58.62321292000001</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>45100</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1943,19 @@
         <v>0.8614000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-58.62321292000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1977,19 @@
         <v>21.361</v>
       </c>
       <c r="G48" t="n">
-        <v>-79.98421292000002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2011,19 @@
         <v>3.6887</v>
       </c>
       <c r="G49" t="n">
-        <v>-76.29551292000002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2045,19 @@
         <v>2.7636</v>
       </c>
       <c r="G50" t="n">
-        <v>-73.53191292000002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2079,19 @@
         <v>1.04</v>
       </c>
       <c r="G51" t="n">
-        <v>-72.49191292000002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2113,19 @@
         <v>4.8309</v>
       </c>
       <c r="G52" t="n">
-        <v>-77.32281292000002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2147,19 @@
         <v>6.0219</v>
       </c>
       <c r="G53" t="n">
-        <v>-83.34471292000002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2181,19 @@
         <v>7.7712</v>
       </c>
       <c r="G54" t="n">
-        <v>-91.11591292000003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2215,19 @@
         <v>12.3218</v>
       </c>
       <c r="G55" t="n">
-        <v>-103.43771292</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2249,19 @@
         <v>24.4802</v>
       </c>
       <c r="G56" t="n">
-        <v>-127.91791292</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2283,21 @@
         <v>0.1602</v>
       </c>
       <c r="G57" t="n">
-        <v>-127.91791292</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>44990</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2319,21 @@
         <v>9.609400000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>-137.52731292</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>44990</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2355,21 @@
         <v>1.8463</v>
       </c>
       <c r="G59" t="n">
-        <v>-135.68101292</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>44930</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2391,21 @@
         <v>9.825200000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-125.85581292</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>44980</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2427,19 @@
         <v>0.8218</v>
       </c>
       <c r="G61" t="n">
-        <v>-126.67761292</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2461,21 @@
         <v>0.8218</v>
       </c>
       <c r="G62" t="n">
-        <v>-125.85581292</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>44930</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2497,21 @@
         <v>5.4186</v>
       </c>
       <c r="G63" t="n">
-        <v>-125.85581292</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>45040</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2533,21 @@
         <v>5.6639</v>
       </c>
       <c r="G64" t="n">
-        <v>-125.85581292</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>45040</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2569,21 @@
         <v>3.5401</v>
       </c>
       <c r="G65" t="n">
-        <v>-129.39591292</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>45040</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2605,21 @@
         <v>1.899</v>
       </c>
       <c r="G66" t="n">
-        <v>-131.29491292</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>44900</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2641,21 @@
         <v>0.43</v>
       </c>
       <c r="G67" t="n">
-        <v>-131.72491292</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>44790</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2677,21 @@
         <v>2.4692</v>
       </c>
       <c r="G68" t="n">
-        <v>-134.19411292</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>44450</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2713,21 @@
         <v>0.1975</v>
       </c>
       <c r="G69" t="n">
-        <v>-133.99661292</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>44360</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2749,21 @@
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>-131.99661292</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>44450</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2785,21 @@
         <v>0.1975</v>
       </c>
       <c r="G71" t="n">
-        <v>-132.19411292</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>44960</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2821,21 @@
         <v>37.8495</v>
       </c>
       <c r="G72" t="n">
-        <v>-170.04361292</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>44930</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2857,21 @@
         <v>4.5859</v>
       </c>
       <c r="G73" t="n">
-        <v>-170.04361292</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>44920</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2893,21 @@
         <v>7.08</v>
       </c>
       <c r="G74" t="n">
-        <v>-177.12361292</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>44920</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2929,19 @@
         <v>0.1</v>
       </c>
       <c r="G75" t="n">
-        <v>-177.22361292</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2963,21 @@
         <v>1.6271</v>
       </c>
       <c r="G76" t="n">
-        <v>-175.59651292</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>44180</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,24 +2999,21 @@
         <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>-275.59651292</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
         <v>44210</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2962,22 +3035,21 @@
         <v>0.85</v>
       </c>
       <c r="G78" t="n">
-        <v>-275.59651292</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>44160</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2999,22 +3071,21 @@
         <v>0.9536</v>
       </c>
       <c r="G79" t="n">
-        <v>-275.59651292</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>44160</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3036,22 +3107,21 @@
         <v>5.5755</v>
       </c>
       <c r="G80" t="n">
-        <v>-275.59651292</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>44160</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3073,22 +3143,21 @@
         <v>10.85</v>
       </c>
       <c r="G81" t="n">
-        <v>-264.74651292</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>44160</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3110,22 +3179,21 @@
         <v>17.0408</v>
       </c>
       <c r="G82" t="n">
-        <v>-247.70571292</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>44300</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3147,22 +3215,21 @@
         <v>0.1</v>
       </c>
       <c r="G83" t="n">
-        <v>-247.60571292</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>44620</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3184,24 +3251,19 @@
         <v>10.8418</v>
       </c>
       <c r="G84" t="n">
-        <v>-258.44751292</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>44750</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3223,24 +3285,21 @@
         <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>-258.44751292</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
         <v>44740</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3262,22 +3321,21 @@
         <v>18</v>
       </c>
       <c r="G86" t="n">
-        <v>-240.44751292</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>44740</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3299,24 +3357,21 @@
         <v>14</v>
       </c>
       <c r="G87" t="n">
-        <v>-226.44751292</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
         <v>44800</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3338,22 +3393,21 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>-227.44751292</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>44950</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3375,22 +3429,19 @@
         <v>3.316</v>
       </c>
       <c r="G89" t="n">
-        <v>-230.76351292</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3412,22 +3463,21 @@
         <v>2.003</v>
       </c>
       <c r="G90" t="n">
-        <v>-230.76351292</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>44320</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3449,24 +3499,21 @@
         <v>7.363</v>
       </c>
       <c r="G91" t="n">
-        <v>-223.40051292</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
         <v>44320</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3488,24 +3535,21 @@
         <v>20.259</v>
       </c>
       <c r="G92" t="n">
-        <v>-203.14151292</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
         <v>44950</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3527,22 +3571,19 @@
         <v>0.924</v>
       </c>
       <c r="G93" t="n">
-        <v>-204.06551292</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3564,22 +3605,19 @@
         <v>0.24031795</v>
       </c>
       <c r="G94" t="n">
-        <v>-203.82519497</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3601,22 +3639,21 @@
         <v>53.4761</v>
       </c>
       <c r="G95" t="n">
-        <v>-150.34909497</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>45290</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3638,22 +3675,19 @@
         <v>0.2407</v>
       </c>
       <c r="G96" t="n">
-        <v>-150.34909497</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3675,22 +3709,19 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>-150.34909497</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3712,22 +3743,19 @@
         <v>0.01</v>
       </c>
       <c r="G98" t="n">
-        <v>-150.33909497</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3749,22 +3777,19 @@
         <v>164.4437</v>
       </c>
       <c r="G99" t="n">
-        <v>-314.7827949700001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3786,22 +3811,19 @@
         <v>7.3427</v>
       </c>
       <c r="G100" t="n">
-        <v>-307.4400949700001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3823,22 +3845,19 @@
         <v>26.5</v>
       </c>
       <c r="G101" t="n">
-        <v>-307.4400949700001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3860,22 +3879,19 @@
         <v>0.55</v>
       </c>
       <c r="G102" t="n">
-        <v>-307.9900949700001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3897,22 +3913,19 @@
         <v>80.015</v>
       </c>
       <c r="G103" t="n">
-        <v>-388.0050949700001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3934,22 +3947,21 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-378.0050949700001</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3971,22 +3983,19 @@
         <v>14.4749</v>
       </c>
       <c r="G105" t="n">
-        <v>-392.4799949700001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4008,24 +4017,21 @@
         <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>-390.4799949700001</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
         <v>43920</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4047,22 +4053,19 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>-390.4799949700001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4084,22 +4087,19 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>-390.4799949700001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4121,22 +4121,19 @@
         <v>21.2382</v>
       </c>
       <c r="G109" t="n">
-        <v>-411.7181949700001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4158,24 +4155,19 @@
         <v>9.6</v>
       </c>
       <c r="G110" t="n">
-        <v>-402.11819497</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>43920</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4197,24 +4189,19 @@
         <v>7.4197</v>
       </c>
       <c r="G111" t="n">
-        <v>-409.53789497</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>44350</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4236,24 +4223,19 @@
         <v>7</v>
       </c>
       <c r="G112" t="n">
-        <v>-402.53789497</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>43850</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4275,24 +4257,21 @@
         <v>1.7926</v>
       </c>
       <c r="G113" t="n">
-        <v>-404.33049497</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
         <v>43890</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4314,24 +4293,21 @@
         <v>0.2408</v>
       </c>
       <c r="G114" t="n">
-        <v>-404.33049497</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
         <v>43850</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4353,24 +4329,21 @@
         <v>25</v>
       </c>
       <c r="G115" t="n">
-        <v>-379.33049497</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
         <v>43850</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4392,24 +4365,19 @@
         <v>0.43</v>
       </c>
       <c r="G116" t="n">
-        <v>-378.90049497</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>44840</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4431,22 +4399,19 @@
         <v>1.875</v>
       </c>
       <c r="G117" t="n">
-        <v>-378.90049497</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4468,22 +4433,19 @@
         <v>4.4178</v>
       </c>
       <c r="G118" t="n">
-        <v>-374.48269497</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4505,22 +4467,19 @@
         <v>0.5349</v>
       </c>
       <c r="G119" t="n">
-        <v>-375.01759497</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4542,24 +4501,19 @@
         <v>0.1</v>
       </c>
       <c r="G120" t="n">
-        <v>-375.11759497</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>45230</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4581,24 +4535,19 @@
         <v>0.01</v>
       </c>
       <c r="G121" t="n">
-        <v>-375.10759497</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>44840</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4620,24 +4569,19 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>-376.10759497</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>45260</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4659,24 +4603,19 @@
         <v>9.3752</v>
       </c>
       <c r="G123" t="n">
-        <v>-376.10759497</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>44910</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4698,24 +4637,19 @@
         <v>13</v>
       </c>
       <c r="G124" t="n">
-        <v>-363.10759497</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>44910</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4737,24 +4671,19 @@
         <v>9.333600000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-353.77399497</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>44970</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4776,24 +4705,19 @@
         <v>4.4277</v>
       </c>
       <c r="G126" t="n">
-        <v>-349.34629497</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>45110</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4815,24 +4739,19 @@
         <v>23.1291</v>
       </c>
       <c r="G127" t="n">
-        <v>-349.34629497</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>45170</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4854,24 +4773,19 @@
         <v>8.588200000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>-340.75809497</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>45170</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4893,24 +4807,19 @@
         <v>0.1393</v>
       </c>
       <c r="G129" t="n">
-        <v>-340.75809497</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>45350</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4932,24 +4841,19 @@
         <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>-340.75809497</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>45350</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4971,24 +4875,19 @@
         <v>36.4052</v>
       </c>
       <c r="G131" t="n">
-        <v>-304.35289497</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>45350</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5010,24 +4909,19 @@
         <v>24.9425</v>
       </c>
       <c r="G132" t="n">
-        <v>-279.41039497</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>45400</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5049,24 +4943,19 @@
         <v>2.01</v>
       </c>
       <c r="G133" t="n">
-        <v>-281.42039497</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>46040</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5088,24 +4977,19 @@
         <v>0.01</v>
       </c>
       <c r="G134" t="n">
-        <v>-281.41039497</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>45820</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5127,24 +5011,19 @@
         <v>5</v>
       </c>
       <c r="G135" t="n">
-        <v>-281.41039497</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>46060</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5166,22 +5045,19 @@
         <v>6</v>
       </c>
       <c r="G136" t="n">
-        <v>-287.41039497</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5203,22 +5079,19 @@
         <v>1.23</v>
       </c>
       <c r="G137" t="n">
-        <v>-288.64039497</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5240,22 +5113,19 @@
         <v>21.7755</v>
       </c>
       <c r="G138" t="n">
-        <v>-266.86489497</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5277,24 +5147,19 @@
         <v>24.0563</v>
       </c>
       <c r="G139" t="n">
-        <v>-290.92119497</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>46100</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5316,24 +5181,19 @@
         <v>0.01</v>
       </c>
       <c r="G140" t="n">
-        <v>-290.9111949700001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>45350</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5355,24 +5215,19 @@
         <v>1.27</v>
       </c>
       <c r="G141" t="n">
-        <v>-292.18119497</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>46160</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5394,24 +5249,19 @@
         <v>0.885</v>
       </c>
       <c r="G142" t="n">
-        <v>-293.06619497</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>45120</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5433,24 +5283,19 @@
         <v>1.9313</v>
       </c>
       <c r="G143" t="n">
-        <v>-291.13489497</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>45100</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5472,24 +5317,19 @@
         <v>1.0509</v>
       </c>
       <c r="G144" t="n">
-        <v>-290.08399497</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>45110</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5511,24 +5351,19 @@
         <v>57.3808</v>
       </c>
       <c r="G145" t="n">
-        <v>-232.70319497</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>45220</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5550,24 +5385,19 @@
         <v>89.01819999999999</v>
       </c>
       <c r="G146" t="n">
-        <v>-143.68499497</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>46150</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5589,22 +5419,19 @@
         <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>-143.68499497</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5626,22 +5453,19 @@
         <v>1.0197</v>
       </c>
       <c r="G148" t="n">
-        <v>-142.66529497</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5663,22 +5487,19 @@
         <v>2.5103</v>
       </c>
       <c r="G149" t="n">
-        <v>-142.66529497</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5700,22 +5521,19 @@
         <v>14.6467</v>
       </c>
       <c r="G150" t="n">
-        <v>-128.01859497</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5737,22 +5555,19 @@
         <v>68.35446708000001</v>
       </c>
       <c r="G151" t="n">
-        <v>-59.66412788999997</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5774,22 +5589,19 @@
         <v>18.9074</v>
       </c>
       <c r="G152" t="n">
-        <v>-40.75672788999998</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5811,22 +5623,19 @@
         <v>20.2057</v>
       </c>
       <c r="G153" t="n">
-        <v>-60.96242788999998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5848,22 +5657,19 @@
         <v>4.7943</v>
       </c>
       <c r="G154" t="n">
-        <v>-60.96242788999998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5885,22 +5691,19 @@
         <v>14.18</v>
       </c>
       <c r="G155" t="n">
-        <v>-46.78242788999998</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5922,22 +5725,19 @@
         <v>8.9026</v>
       </c>
       <c r="G156" t="n">
-        <v>-37.87982788999998</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5959,22 +5759,19 @@
         <v>14.16197136</v>
       </c>
       <c r="G157" t="n">
-        <v>-23.71785652999998</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5996,22 +5793,19 @@
         <v>182.317</v>
       </c>
       <c r="G158" t="n">
-        <v>158.59914347</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6033,22 +5827,19 @@
         <v>19.9819</v>
       </c>
       <c r="G159" t="n">
-        <v>158.59914347</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6070,22 +5861,17 @@
         <v>21.107</v>
       </c>
       <c r="G160" t="n">
-        <v>137.49214347</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6107,22 +5893,15 @@
         <v>37.5278</v>
       </c>
       <c r="G161" t="n">
-        <v>99.96434347000003</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6144,22 +5923,15 @@
         <v>2.1814</v>
       </c>
       <c r="G162" t="n">
-        <v>97.78294347000003</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6181,22 +5953,15 @@
         <v>49.9613</v>
       </c>
       <c r="G163" t="n">
-        <v>47.82164347000003</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6218,22 +5983,15 @@
         <v>1.9614</v>
       </c>
       <c r="G164" t="n">
-        <v>49.78304347000003</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6255,22 +6013,15 @@
         <v>11.6861</v>
       </c>
       <c r="G165" t="n">
-        <v>38.09694347000003</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6292,22 +6043,15 @@
         <v>36.0358</v>
       </c>
       <c r="G166" t="n">
-        <v>74.13274347000004</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6329,22 +6073,15 @@
         <v>18.0179</v>
       </c>
       <c r="G167" t="n">
-        <v>56.11484347000004</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6366,22 +6103,15 @@
         <v>8.0815</v>
       </c>
       <c r="G168" t="n">
-        <v>64.19634347000004</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6403,22 +6133,15 @@
         <v>25.9305</v>
       </c>
       <c r="G169" t="n">
-        <v>90.12684347000004</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6440,22 +6163,15 @@
         <v>12.8404</v>
       </c>
       <c r="G170" t="n">
-        <v>77.28644347000004</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6477,22 +6193,15 @@
         <v>2.1164</v>
       </c>
       <c r="G171" t="n">
-        <v>79.40284347000004</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6514,22 +6223,15 @@
         <v>1.0842</v>
       </c>
       <c r="G172" t="n">
-        <v>78.31864347000004</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6551,22 +6253,15 @@
         <v>19.0024</v>
       </c>
       <c r="G173" t="n">
-        <v>97.32104347000003</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6588,22 +6283,15 @@
         <v>1.9821</v>
       </c>
       <c r="G174" t="n">
-        <v>97.32104347000003</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6625,22 +6313,15 @@
         <v>12.9409</v>
       </c>
       <c r="G175" t="n">
-        <v>110.26194347</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6662,22 +6343,15 @@
         <v>75.3519</v>
       </c>
       <c r="G176" t="n">
-        <v>185.61384347</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6699,22 +6373,15 @@
         <v>1.1591</v>
       </c>
       <c r="G177" t="n">
-        <v>184.45474347</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6736,22 +6403,15 @@
         <v>0.1</v>
       </c>
       <c r="G178" t="n">
-        <v>184.55474347</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6773,22 +6433,15 @@
         <v>21</v>
       </c>
       <c r="G179" t="n">
-        <v>163.55474347</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6810,22 +6463,15 @@
         <v>34.7109</v>
       </c>
       <c r="G180" t="n">
-        <v>128.84384347</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6847,22 +6493,15 @@
         <v>0.2365</v>
       </c>
       <c r="G181" t="n">
-        <v>128.84384347</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6884,22 +6523,15 @@
         <v>34</v>
       </c>
       <c r="G182" t="n">
-        <v>94.84384347000002</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6921,22 +6553,15 @@
         <v>162.689</v>
       </c>
       <c r="G183" t="n">
-        <v>257.53284347</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6958,20 +6583,15 @@
         <v>10.4095</v>
       </c>
       <c r="G184" t="n">
-        <v>267.94234347</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K184" t="n">
+        <v>1</v>
       </c>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6993,18 +6613,15 @@
         <v>2.6225</v>
       </c>
       <c r="G185" t="n">
-        <v>267.94234347</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7026,18 +6643,15 @@
         <v>22.589</v>
       </c>
       <c r="G186" t="n">
-        <v>267.94234347</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7059,18 +6673,15 @@
         <v>20</v>
       </c>
       <c r="G187" t="n">
-        <v>247.94234347</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7092,18 +6703,15 @@
         <v>8.8454</v>
       </c>
       <c r="G188" t="n">
-        <v>247.94234347</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7125,18 +6733,15 @@
         <v>14</v>
       </c>
       <c r="G189" t="n">
-        <v>233.94234347</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7158,18 +6763,15 @@
         <v>12</v>
       </c>
       <c r="G190" t="n">
-        <v>221.94234347</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7191,18 +6793,15 @@
         <v>191.06926001</v>
       </c>
       <c r="G191" t="n">
-        <v>413.01160348</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7224,18 +6823,15 @@
         <v>0.0108</v>
       </c>
       <c r="G192" t="n">
-        <v>413.0008034799999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7257,18 +6853,15 @@
         <v>17.0991</v>
       </c>
       <c r="G193" t="n">
-        <v>395.9017034799999</v>
-      </c>
-      <c r="H193" t="n">
         <v>2</v>
       </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7290,18 +6883,15 @@
         <v>77.34739999999999</v>
       </c>
       <c r="G194" t="n">
-        <v>318.5543034799999</v>
-      </c>
-      <c r="H194" t="n">
         <v>2</v>
       </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7323,18 +6913,15 @@
         <v>0.0426</v>
       </c>
       <c r="G195" t="n">
-        <v>318.5969034799999</v>
-      </c>
-      <c r="H195" t="n">
         <v>2</v>
       </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7356,18 +6943,15 @@
         <v>10</v>
       </c>
       <c r="G196" t="n">
-        <v>308.5969034799999</v>
-      </c>
-      <c r="H196" t="n">
         <v>2</v>
       </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7389,18 +6973,15 @@
         <v>3.7363</v>
       </c>
       <c r="G197" t="n">
-        <v>304.8606034799999</v>
-      </c>
-      <c r="H197" t="n">
         <v>2</v>
       </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7422,18 +7003,15 @@
         <v>0.0425</v>
       </c>
       <c r="G198" t="n">
-        <v>304.8606034799999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7455,18 +7033,15 @@
         <v>0.3</v>
       </c>
       <c r="G199" t="n">
-        <v>304.8606034799999</v>
-      </c>
-      <c r="H199" t="n">
         <v>2</v>
       </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7488,18 +7063,15 @@
         <v>14.4453</v>
       </c>
       <c r="G200" t="n">
-        <v>304.8606034799999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7521,18 +7093,15 @@
         <v>0.0603</v>
       </c>
       <c r="G201" t="n">
-        <v>304.8606034799999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7554,18 +7123,15 @@
         <v>12.4811</v>
       </c>
       <c r="G202" t="n">
-        <v>317.3417034799999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7587,18 +7153,15 @@
         <v>19.1503</v>
       </c>
       <c r="G203" t="n">
-        <v>298.1914034799999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7620,18 +7183,15 @@
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>298.1914034799999</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7653,18 +7213,15 @@
         <v>1.7946</v>
       </c>
       <c r="G205" t="n">
-        <v>299.9860034799999</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7686,18 +7243,15 @@
         <v>0.6034</v>
       </c>
       <c r="G206" t="n">
-        <v>299.3826034799999</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7719,18 +7273,15 @@
         <v>0.0624</v>
       </c>
       <c r="G207" t="n">
-        <v>299.4450034799999</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7752,18 +7303,15 @@
         <v>46.0168</v>
       </c>
       <c r="G208" t="n">
-        <v>299.4450034799999</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7785,18 +7333,15 @@
         <v>10.3325</v>
       </c>
       <c r="G209" t="n">
-        <v>289.1125034799999</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7818,18 +7363,15 @@
         <v>0.975</v>
       </c>
       <c r="G210" t="n">
-        <v>288.1375034799999</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7851,18 +7393,15 @@
         <v>70.9847</v>
       </c>
       <c r="G211" t="n">
-        <v>217.1528034799999</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7884,18 +7423,15 @@
         <v>11.8265</v>
       </c>
       <c r="G212" t="n">
-        <v>205.3263034799999</v>
-      </c>
-      <c r="H212" t="n">
         <v>2</v>
       </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7917,18 +7453,15 @@
         <v>0.9227</v>
       </c>
       <c r="G213" t="n">
-        <v>204.4036034799999</v>
-      </c>
-      <c r="H213" t="n">
         <v>2</v>
       </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7950,18 +7483,15 @@
         <v>22.0832</v>
       </c>
       <c r="G214" t="n">
-        <v>204.4036034799999</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7983,18 +7513,15 @@
         <v>8.158899999999999</v>
       </c>
       <c r="G215" t="n">
-        <v>196.2447034799999</v>
-      </c>
-      <c r="H215" t="n">
         <v>2</v>
       </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8016,18 +7543,15 @@
         <v>40</v>
       </c>
       <c r="G216" t="n">
-        <v>236.2447034799999</v>
-      </c>
-      <c r="H216" t="n">
         <v>2</v>
       </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8049,18 +7573,15 @@
         <v>16.9982</v>
       </c>
       <c r="G217" t="n">
-        <v>219.2465034799999</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8082,18 +7603,15 @@
         <v>1.5</v>
       </c>
       <c r="G218" t="n">
-        <v>219.2465034799999</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8115,18 +7633,15 @@
         <v>10</v>
       </c>
       <c r="G219" t="n">
-        <v>209.2465034799999</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8148,18 +7663,15 @@
         <v>0.913</v>
       </c>
       <c r="G220" t="n">
-        <v>209.2465034799999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
